--- a/03 PE/006 新增节.xlsx
+++ b/03 PE/006 新增节.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\03 PE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4980740E-12F2-40D7-9164-2FFBCD80BB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F07811-CBFC-4C4B-B7B6-881E0BDF964E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="索引" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="383">
   <si>
     <t>1、新增一个节表和节</t>
   </si>
@@ -904,9 +904,6 @@
     <t>new_section_head-&gt;VirtualAddress=img_size;</t>
   </si>
   <si>
-    <t>new_section_head-&gt;SizeOfRawData=new_section_size;</t>
-  </si>
-  <si>
     <t>new_section_head-&gt;PointerToRawData=p_section-&gt;PointerToRawData+p_section-&gt;SizeOfRawData;</t>
   </si>
   <si>
@@ -1175,6 +1172,22 @@
   </si>
   <si>
     <t>printf("Add_NewSection() Successful.\n");</t>
+  </si>
+  <si>
+    <t>// 确保按文件对齐</t>
+  </si>
+  <si>
+    <t>size_t AutoAlign(size_t x,size_t align_num)</t>
+  </si>
+  <si>
+    <t>return x%align_num==0?(x!=0?x:align_num):(x/align_num+1)*align_num;</t>
+  </si>
+  <si>
+    <t>new_section_head-&gt;SizeOfRawData=AutoAlign(new_section_size,file_align);</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>petool.h!B487</t>
   </si>
 </sst>
 </file>
@@ -1191,6 +1204,7 @@
       <sz val="12"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1198,6 +1212,7 @@
       <sz val="12"/>
       <color indexed="20"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1205,11 +1220,13 @@
       <sz val="12"/>
       <color indexed="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3800,15 +3817,15 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B5:G11"/>
+  <dimension ref="B5:J11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:J9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
         <v>0</v>
       </c>
@@ -3816,7 +3833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>2</v>
       </c>
@@ -3824,12 +3841,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G9" t="s">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G9" s="16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
         <v>5</v>
       </c>
@@ -3839,6 +3859,7 @@
   <hyperlinks>
     <hyperlink ref="B5" location="'01'!A1" display="1、新增一个节表和节" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B7" location="'02'!A1" display="2、在新增的节中添加代码" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G9:J9" location="AddNewSection.cpp!A1" display="2、编程实现：新增一个节，并添加代码." xr:uid="{923EB470-9932-4B32-83D8-9C89A5714772}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4081,8 +4102,8 @@
   </sheetPr>
   <dimension ref="B3:O73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B73" sqref="B3:N73"/>
+    <sheetView showGridLines="0" topLeftCell="A21" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -4239,7 +4260,7 @@
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
@@ -4256,7 +4277,7 @@
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="18"/>
       <c r="C13" s="18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
@@ -4273,7 +4294,7 @@
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="18"/>
       <c r="C14" s="18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -4324,7 +4345,7 @@
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="18"/>
       <c r="C17" s="18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
@@ -4341,7 +4362,7 @@
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="18"/>
       <c r="C18" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
@@ -4375,7 +4396,7 @@
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="18"/>
       <c r="C20" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
@@ -4407,7 +4428,7 @@
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="18"/>
       <c r="C22" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -4424,7 +4445,7 @@
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="18"/>
       <c r="C23" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
@@ -4456,7 +4477,7 @@
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="18"/>
       <c r="C25" s="18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
@@ -4473,7 +4494,7 @@
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="18"/>
       <c r="C26" s="18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
@@ -4490,7 +4511,7 @@
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="18"/>
       <c r="C27" s="18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -4507,7 +4528,7 @@
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="18"/>
       <c r="C28" s="19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
@@ -4524,7 +4545,7 @@
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="18"/>
       <c r="C29" s="18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
@@ -4556,7 +4577,7 @@
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="18"/>
       <c r="C31" s="18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -4573,7 +4594,7 @@
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="18"/>
       <c r="C32" s="18" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
@@ -4625,7 +4646,7 @@
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E35" s="18"/>
       <c r="F35" s="18"/>
@@ -4642,7 +4663,7 @@
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
       <c r="D36" s="18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
@@ -4694,7 +4715,7 @@
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
       <c r="E39" s="18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
@@ -4711,10 +4732,12 @@
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
       <c r="E40" s="19" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
+      <c r="G40" s="19" t="s">
+        <v>382</v>
+      </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="19"/>
@@ -4764,7 +4787,7 @@
       <c r="D43" s="18"/>
       <c r="E43" s="18"/>
       <c r="F43" s="18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G43" s="18"/>
       <c r="H43" s="18"/>
@@ -4781,7 +4804,7 @@
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
       <c r="F44" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G44" s="19"/>
       <c r="H44" s="19"/>
@@ -4861,7 +4884,7 @@
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="18"/>
       <c r="C49" s="18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D49" s="18"/>
       <c r="E49" s="18"/>
@@ -4914,7 +4937,7 @@
       <c r="C52" s="18"/>
       <c r="D52" s="18"/>
       <c r="E52" s="18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
@@ -4965,7 +4988,7 @@
       <c r="C55" s="18"/>
       <c r="D55" s="18"/>
       <c r="E55" s="18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
@@ -4982,7 +5005,7 @@
       <c r="C56" s="18"/>
       <c r="D56" s="18"/>
       <c r="E56" s="18" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
@@ -5033,7 +5056,7 @@
       <c r="C59" s="18"/>
       <c r="D59" s="18"/>
       <c r="E59" s="18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
@@ -5050,7 +5073,7 @@
       <c r="C60" s="18"/>
       <c r="D60" s="18"/>
       <c r="E60" s="18" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
@@ -5067,7 +5090,7 @@
       <c r="C61" s="18"/>
       <c r="D61" s="18"/>
       <c r="E61" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
@@ -5118,7 +5141,7 @@
       <c r="C64" s="18"/>
       <c r="D64" s="18"/>
       <c r="E64" s="18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F64" s="18"/>
       <c r="G64" s="18"/>
@@ -5135,7 +5158,7 @@
       <c r="C65" s="18"/>
       <c r="D65" s="18"/>
       <c r="E65" s="18" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F65" s="18"/>
       <c r="G65" s="18"/>
@@ -5152,7 +5175,7 @@
       <c r="C66" s="18"/>
       <c r="D66" s="18"/>
       <c r="E66" s="18" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F66" s="18"/>
       <c r="G66" s="18"/>
@@ -5229,7 +5252,7 @@
     <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="18"/>
       <c r="C71" s="18" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D71" s="18"/>
       <c r="E71" s="18"/>
@@ -5281,9 +5304,10 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E40:O40" location="petool.h!B476" display="if(Add_NewSection(&amp;file_buffer,file_size,new_section_head,new_section_buffer,new_section_size))" xr:uid="{AC25A19F-E2B5-45C0-9185-D4754D0E080B}"/>
-    <hyperlink ref="C28:F28" location="petool.h!B12" display="file_size=GetFileSize(pepath);" xr:uid="{8E53B4DA-6F0A-4F6E-A843-705371560FF3}"/>
-    <hyperlink ref="F44:L44" location="petool.h!B24" display="WriteToFile(file_buffer,new_pepath,file_size+new_section_size);" xr:uid="{2A132C4E-2C20-4C4D-8F0C-65442D0439B1}"/>
-    <hyperlink ref="F44" location="petool.h!B27" display="WriteToFile(file_buffer,new_pepath,file_size+new_section_size);" xr:uid="{84E74BBA-9381-4B19-B7BD-2195D90D40DA}"/>
+    <hyperlink ref="G40" location="petool.h!B487" display="petool.h!B487" xr:uid="{0F04D8AD-B533-4F33-B17F-A0B7723B7CF8}"/>
+    <hyperlink ref="E40:H40" location="petool.h!B487" display="if(Add_NewSection(&amp;file_buffer,file_size,new_section_head,new_section_buffer,new_section_size))" xr:uid="{C515674B-1D43-4417-8859-EE59FA60C3E1}"/>
+    <hyperlink ref="F44:L44" location="petool.h!B38" display="WriteToFile(file_buffer,new_pepath,file_size+new_section_size);" xr:uid="{3BE4DAE3-4562-4FEB-BA05-FEE5FCCBCEE3}"/>
+    <hyperlink ref="C28:F28" location="petool.h!B23" display="file_size=GetFileSize(pepath);" xr:uid="{164EA682-5DB9-4890-AD34-F4686CA1EA24}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5296,107 +5320,16 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B1:P605"/>
+  <dimension ref="B6:P617"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A562" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B605" sqref="B1:P605"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-    </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-    </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
-        <v>41</v>
-      </c>
+      <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -5413,9 +5346,7 @@
       <c r="P6" s="18"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
-        <v>42</v>
-      </c>
+      <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -5433,7 +5364,7 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -5452,7 +5383,7 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="18" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -5487,7 +5418,9 @@
       <c r="P10" s="18"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
+      <c r="B11" s="18" t="s">
+        <v>41</v>
+      </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
@@ -5504,12 +5437,12 @@
       <c r="P11" s="18"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
+      <c r="B12" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
@@ -5524,7 +5457,7 @@
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -5543,7 +5476,7 @@
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -5562,9 +5495,7 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="18"/>
-      <c r="C15" s="18" t="s">
-        <v>37</v>
-      </c>
+      <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
@@ -5582,9 +5513,7 @@
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
-      <c r="D16" s="18" t="s">
-        <v>47</v>
-      </c>
+      <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
@@ -5599,13 +5528,13 @@
       <c r="P16" s="18"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
+      <c r="B17" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
@@ -5618,11 +5547,11 @@
       <c r="P17" s="18"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="18"/>
+      <c r="B18" s="18" t="s">
+        <v>37</v>
+      </c>
       <c r="C18" s="18"/>
-      <c r="D18" s="18" t="s">
-        <v>49</v>
-      </c>
+      <c r="D18" s="18"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
@@ -5638,7 +5567,9 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
+      <c r="C19" s="18" t="s">
+        <v>380</v>
+      </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
@@ -5654,11 +5585,11 @@
       <c r="P19" s="18"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="18"/>
+      <c r="B20" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="C20" s="18"/>
-      <c r="D20" s="18" t="s">
-        <v>50</v>
-      </c>
+      <c r="D20" s="18"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
@@ -5674,9 +5605,7 @@
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="18"/>
-      <c r="C21" s="18" t="s">
-        <v>51</v>
-      </c>
+      <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
@@ -5692,9 +5621,7 @@
       <c r="P21" s="18"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="18" t="s">
-        <v>369</v>
-      </c>
+      <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -5711,12 +5638,12 @@
       <c r="P22" s="18"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
+      <c r="B23" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
@@ -5731,7 +5658,7 @@
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
@@ -5750,7 +5677,7 @@
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -5769,7 +5696,9 @@
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
+      <c r="C26" s="18" t="s">
+        <v>37</v>
+      </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
@@ -5785,15 +5714,15 @@
       <c r="P26" s="18"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
       <c r="K27" s="18"/>
@@ -5804,11 +5733,11 @@
       <c r="P27" s="18"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="18" t="s">
-        <v>55</v>
-      </c>
+      <c r="B28" s="18"/>
       <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="D28" s="18" t="s">
+        <v>48</v>
+      </c>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
@@ -5823,11 +5752,11 @@
       <c r="P28" s="18"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="18" t="s">
-        <v>56</v>
-      </c>
+      <c r="B29" s="18"/>
       <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
+      <c r="D29" s="18" t="s">
+        <v>49</v>
+      </c>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
@@ -5842,9 +5771,7 @@
       <c r="P29" s="18"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="18" t="s">
-        <v>57</v>
-      </c>
+      <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
@@ -5864,7 +5791,7 @@
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="18" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
@@ -5881,10 +5808,10 @@
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18" t="s">
-        <v>59</v>
-      </c>
+      <c r="C32" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="18"/>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
@@ -5899,11 +5826,11 @@
       <c r="P32" s="18"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="18"/>
+      <c r="B33" s="18" t="s">
+        <v>368</v>
+      </c>
       <c r="C33" s="18"/>
-      <c r="D33" s="18" t="s">
-        <v>60</v>
-      </c>
+      <c r="D33" s="18"/>
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
@@ -5918,11 +5845,11 @@
       <c r="P33" s="18"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="18"/>
+      <c r="B34" s="18" t="s">
+        <v>52</v>
+      </c>
       <c r="C34" s="18"/>
-      <c r="D34" s="18" t="s">
-        <v>61</v>
-      </c>
+      <c r="D34" s="18"/>
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
@@ -5937,7 +5864,9 @@
       <c r="P34" s="18"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="18"/>
+      <c r="B35" s="18" t="s">
+        <v>53</v>
+      </c>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
@@ -5954,11 +5883,11 @@
       <c r="P35" s="18"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="18"/>
+      <c r="B36" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="C36" s="18"/>
-      <c r="D36" s="18" t="s">
-        <v>62</v>
-      </c>
+      <c r="D36" s="18"/>
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
@@ -5975,9 +5904,7 @@
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
-      <c r="D37" s="18" t="s">
-        <v>37</v>
-      </c>
+      <c r="D37" s="18"/>
       <c r="E37" s="18"/>
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
@@ -5992,15 +5919,15 @@
       <c r="P37" s="18"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18" t="s">
-        <v>370</v>
-      </c>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
+      <c r="B38" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
       <c r="I38" s="18"/>
       <c r="J38" s="18"/>
       <c r="K38" s="18"/>
@@ -6011,11 +5938,11 @@
       <c r="P38" s="18"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="18"/>
+      <c r="B39" s="18" t="s">
+        <v>55</v>
+      </c>
       <c r="C39" s="18"/>
-      <c r="D39" s="18" t="s">
-        <v>51</v>
-      </c>
+      <c r="D39" s="18"/>
       <c r="E39" s="18"/>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
@@ -6030,12 +5957,12 @@
       <c r="P39" s="18"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B40" s="18"/>
+      <c r="B40" s="18" t="s">
+        <v>56</v>
+      </c>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
-      <c r="E40" s="18" t="s">
-        <v>371</v>
-      </c>
+      <c r="E40" s="18"/>
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
       <c r="H40" s="18"/>
@@ -6049,11 +5976,11 @@
       <c r="P40" s="18"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B41" s="18"/>
+      <c r="B41" s="18" t="s">
+        <v>57</v>
+      </c>
       <c r="C41" s="18"/>
-      <c r="D41" s="18" t="s">
-        <v>38</v>
-      </c>
+      <c r="D41" s="18"/>
       <c r="E41" s="18"/>
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
@@ -6071,7 +5998,7 @@
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
       <c r="D42" s="18" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E42" s="18"/>
       <c r="F42" s="18"/>
@@ -6087,11 +6014,11 @@
       <c r="P42" s="18"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B43" s="18" t="s">
-        <v>63</v>
-      </c>
+      <c r="B43" s="18"/>
       <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
+      <c r="D43" s="18" t="s">
+        <v>59</v>
+      </c>
       <c r="E43" s="18"/>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
@@ -6109,7 +6036,7 @@
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
       <c r="D44" s="18" t="s">
-        <v>372</v>
+        <v>60</v>
       </c>
       <c r="E44" s="18"/>
       <c r="F44" s="18"/>
@@ -6126,10 +6053,10 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" s="18"/>
-      <c r="C45" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="E45" s="18"/>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
@@ -6144,9 +6071,7 @@
       <c r="P45" s="18"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B46" s="18" t="s">
-        <v>38</v>
-      </c>
+      <c r="B46" s="18"/>
       <c r="C46" s="18"/>
       <c r="D46" s="18"/>
       <c r="E46" s="18"/>
@@ -6165,7 +6090,9 @@
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
+      <c r="D47" s="18" t="s">
+        <v>62</v>
+      </c>
       <c r="E47" s="18"/>
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
@@ -6182,7 +6109,9 @@
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
+      <c r="D48" s="18" t="s">
+        <v>37</v>
+      </c>
       <c r="E48" s="18"/>
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
@@ -6197,12 +6126,12 @@
       <c r="P48" s="18"/>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B49" s="18" t="s">
-        <v>64</v>
-      </c>
+      <c r="B49" s="18"/>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
+      <c r="E49" s="18" t="s">
+        <v>369</v>
+      </c>
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
       <c r="H49" s="18"/>
@@ -6216,11 +6145,11 @@
       <c r="P49" s="18"/>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B50" s="18" t="s">
-        <v>37</v>
-      </c>
+      <c r="B50" s="18"/>
       <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
+      <c r="D50" s="18" t="s">
+        <v>51</v>
+      </c>
       <c r="E50" s="18"/>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
@@ -6236,11 +6165,11 @@
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" s="18"/>
-      <c r="C51" s="18" t="s">
-        <v>65</v>
-      </c>
+      <c r="C51" s="18"/>
       <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
+      <c r="E51" s="18" t="s">
+        <v>370</v>
+      </c>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
       <c r="H51" s="18"/>
@@ -6255,10 +6184,10 @@
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" s="18"/>
-      <c r="C52" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="E52" s="18"/>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
@@ -6274,10 +6203,10 @@
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53" s="18"/>
-      <c r="C53" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18" t="s">
+        <v>49</v>
+      </c>
       <c r="E53" s="18"/>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
@@ -6292,7 +6221,9 @@
       <c r="P53" s="18"/>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B54" s="18"/>
+      <c r="B54" s="18" t="s">
+        <v>63</v>
+      </c>
       <c r="C54" s="18"/>
       <c r="D54" s="18"/>
       <c r="E54" s="18"/>
@@ -6310,10 +6241,10 @@
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B55" s="18"/>
-      <c r="C55" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18" t="s">
+        <v>371</v>
+      </c>
       <c r="E55" s="18"/>
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
@@ -6330,7 +6261,7 @@
     <row r="56" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B56" s="18"/>
       <c r="C56" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D56" s="18"/>
       <c r="E56" s="18"/>
@@ -6347,11 +6278,11 @@
       <c r="P56" s="18"/>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B57" s="18"/>
+      <c r="B57" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="C57" s="18"/>
-      <c r="D57" s="18" t="s">
-        <v>69</v>
-      </c>
+      <c r="D57" s="18"/>
       <c r="E57" s="18"/>
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
@@ -6368,9 +6299,7 @@
     <row r="58" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
-      <c r="D58" s="18" t="s">
-        <v>70</v>
-      </c>
+      <c r="D58" s="18"/>
       <c r="E58" s="18"/>
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
@@ -6387,9 +6316,7 @@
     <row r="59" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
-      <c r="D59" s="18" t="s">
-        <v>71</v>
-      </c>
+      <c r="D59" s="18"/>
       <c r="E59" s="18"/>
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
@@ -6404,11 +6331,11 @@
       <c r="P59" s="18"/>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B60" s="18"/>
+      <c r="B60" s="18" t="s">
+        <v>64</v>
+      </c>
       <c r="C60" s="18"/>
-      <c r="D60" s="18" t="s">
-        <v>72</v>
-      </c>
+      <c r="D60" s="18"/>
       <c r="E60" s="18"/>
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
@@ -6423,11 +6350,11 @@
       <c r="P60" s="18"/>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B61" s="18"/>
+      <c r="B61" s="18" t="s">
+        <v>37</v>
+      </c>
       <c r="C61" s="18"/>
-      <c r="D61" s="18" t="s">
-        <v>73</v>
-      </c>
+      <c r="D61" s="18"/>
       <c r="E61" s="18"/>
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
@@ -6443,10 +6370,10 @@
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18" t="s">
-        <v>74</v>
-      </c>
+      <c r="C62" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62" s="18"/>
       <c r="E62" s="18"/>
       <c r="F62" s="18"/>
       <c r="G62" s="18"/>
@@ -6462,10 +6389,10 @@
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18" t="s">
-        <v>37</v>
-      </c>
+      <c r="C63" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D63" s="18"/>
       <c r="E63" s="18"/>
       <c r="F63" s="18"/>
       <c r="G63" s="18"/>
@@ -6481,11 +6408,11 @@
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
+      <c r="C64" s="18" t="s">
+        <v>67</v>
+      </c>
       <c r="D64" s="18"/>
-      <c r="E64" s="18" t="s">
-        <v>69</v>
-      </c>
+      <c r="E64" s="18"/>
       <c r="F64" s="18"/>
       <c r="G64" s="18"/>
       <c r="H64" s="18"/>
@@ -6502,9 +6429,7 @@
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
       <c r="D65" s="18"/>
-      <c r="E65" s="18" t="s">
-        <v>75</v>
-      </c>
+      <c r="E65" s="18"/>
       <c r="F65" s="18"/>
       <c r="G65" s="18"/>
       <c r="H65" s="18"/>
@@ -6519,11 +6444,11 @@
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
+      <c r="C66" s="18" t="s">
+        <v>68</v>
+      </c>
       <c r="D66" s="18"/>
-      <c r="E66" s="18" t="s">
-        <v>76</v>
-      </c>
+      <c r="E66" s="18"/>
       <c r="F66" s="18"/>
       <c r="G66" s="18"/>
       <c r="H66" s="18"/>
@@ -6538,12 +6463,12 @@
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
+      <c r="C67" s="18" t="s">
+        <v>37</v>
+      </c>
       <c r="D67" s="18"/>
       <c r="E67" s="18"/>
-      <c r="F67" s="18" t="s">
-        <v>69</v>
-      </c>
+      <c r="F67" s="18"/>
       <c r="G67" s="18"/>
       <c r="H67" s="18"/>
       <c r="I67" s="18"/>
@@ -6558,10 +6483,10 @@
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18" t="s">
-        <v>38</v>
-      </c>
+      <c r="D68" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="18"/>
       <c r="F68" s="18"/>
       <c r="G68" s="18"/>
       <c r="H68" s="18"/>
@@ -6578,7 +6503,7 @@
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
       <c r="D69" s="18" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="E69" s="18"/>
       <c r="F69" s="18"/>
@@ -6595,10 +6520,10 @@
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B70" s="18"/>
-      <c r="C70" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18" t="s">
+        <v>71</v>
+      </c>
       <c r="E70" s="18"/>
       <c r="F70" s="18"/>
       <c r="G70" s="18"/>
@@ -6615,7 +6540,9 @@
     <row r="71" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
+      <c r="D71" s="18" t="s">
+        <v>72</v>
+      </c>
       <c r="E71" s="18"/>
       <c r="F71" s="18"/>
       <c r="G71" s="18"/>
@@ -6631,10 +6558,10 @@
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B72" s="18"/>
-      <c r="C72" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="D72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18" t="s">
+        <v>73</v>
+      </c>
       <c r="E72" s="18"/>
       <c r="F72" s="18"/>
       <c r="G72" s="18"/>
@@ -6650,10 +6577,10 @@
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B73" s="18"/>
-      <c r="C73" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18" t="s">
+        <v>74</v>
+      </c>
       <c r="E73" s="18"/>
       <c r="F73" s="18"/>
       <c r="G73" s="18"/>
@@ -6671,7 +6598,7 @@
       <c r="B74" s="18"/>
       <c r="C74" s="18"/>
       <c r="D74" s="18" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="E74" s="18"/>
       <c r="F74" s="18"/>
@@ -6691,7 +6618,7 @@
       <c r="C75" s="18"/>
       <c r="D75" s="18"/>
       <c r="E75" s="18" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F75" s="18"/>
       <c r="G75" s="18"/>
@@ -6710,7 +6637,7 @@
       <c r="C76" s="18"/>
       <c r="D76" s="18"/>
       <c r="E76" s="18" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F76" s="18"/>
       <c r="G76" s="18"/>
@@ -6727,10 +6654,10 @@
     <row r="77" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
-      <c r="D77" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18" t="s">
+        <v>76</v>
+      </c>
       <c r="F77" s="18"/>
       <c r="G77" s="18"/>
       <c r="H77" s="18"/>
@@ -6747,10 +6674,10 @@
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
       <c r="D78" s="18"/>
-      <c r="E78" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="F78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18" t="s">
+        <v>69</v>
+      </c>
       <c r="G78" s="18"/>
       <c r="H78" s="18"/>
       <c r="I78" s="18"/>
@@ -6767,7 +6694,7 @@
       <c r="C79" s="18"/>
       <c r="D79" s="18"/>
       <c r="E79" s="18" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="F79" s="18"/>
       <c r="G79" s="18"/>
@@ -6784,10 +6711,10 @@
     <row r="80" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18" t="s">
-        <v>80</v>
-      </c>
+      <c r="D80" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E80" s="18"/>
       <c r="F80" s="18"/>
       <c r="G80" s="18"/>
       <c r="H80" s="18"/>
@@ -6802,10 +6729,10 @@
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18" t="s">
-        <v>84</v>
-      </c>
+      <c r="C81" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D81" s="18"/>
       <c r="E81" s="18"/>
       <c r="F81" s="18"/>
       <c r="G81" s="18"/>
@@ -6823,9 +6750,7 @@
       <c r="B82" s="18"/>
       <c r="C82" s="18"/>
       <c r="D82" s="18"/>
-      <c r="E82" s="18" t="s">
-        <v>85</v>
-      </c>
+      <c r="E82" s="18"/>
       <c r="F82" s="18"/>
       <c r="G82" s="18"/>
       <c r="H82" s="18"/>
@@ -6840,11 +6765,11 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
+      <c r="C83" s="18" t="s">
+        <v>77</v>
+      </c>
       <c r="D83" s="18"/>
-      <c r="E83" s="18" t="s">
-        <v>86</v>
-      </c>
+      <c r="E83" s="18"/>
       <c r="F83" s="18"/>
       <c r="G83" s="18"/>
       <c r="H83" s="18"/>
@@ -6859,11 +6784,11 @@
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
+      <c r="C84" s="18" t="s">
+        <v>37</v>
+      </c>
       <c r="D84" s="18"/>
-      <c r="E84" s="18" t="s">
-        <v>83</v>
-      </c>
+      <c r="E84" s="18"/>
       <c r="F84" s="18"/>
       <c r="G84" s="18"/>
       <c r="H84" s="18"/>
@@ -6879,10 +6804,10 @@
     <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B85" s="18"/>
       <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18" t="s">
-        <v>80</v>
-      </c>
+      <c r="D85" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E85" s="18"/>
       <c r="F85" s="18"/>
       <c r="G85" s="18"/>
       <c r="H85" s="18"/>
@@ -6899,7 +6824,9 @@
       <c r="B86" s="18"/>
       <c r="C86" s="18"/>
       <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
+      <c r="E86" s="18" t="s">
+        <v>79</v>
+      </c>
       <c r="F86" s="18"/>
       <c r="G86" s="18"/>
       <c r="H86" s="18"/>
@@ -6915,10 +6842,10 @@
     <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B87" s="18"/>
       <c r="C87" s="18"/>
-      <c r="D87" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18" t="s">
+        <v>80</v>
+      </c>
       <c r="F87" s="18"/>
       <c r="G87" s="18"/>
       <c r="H87" s="18"/>
@@ -6934,10 +6861,10 @@
     <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18" t="s">
-        <v>88</v>
-      </c>
+      <c r="D88" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E88" s="18"/>
       <c r="F88" s="18"/>
       <c r="G88" s="18"/>
       <c r="H88" s="18"/>
@@ -6955,7 +6882,7 @@
       <c r="C89" s="18"/>
       <c r="D89" s="18"/>
       <c r="E89" s="18" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F89" s="18"/>
       <c r="G89" s="18"/>
@@ -6993,7 +6920,7 @@
       <c r="C91" s="18"/>
       <c r="D91" s="18"/>
       <c r="E91" s="18" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F91" s="18"/>
       <c r="G91" s="18"/>
@@ -7009,10 +6936,10 @@
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B92" s="18"/>
-      <c r="C92" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18" t="s">
+        <v>84</v>
+      </c>
       <c r="E92" s="18"/>
       <c r="F92" s="18"/>
       <c r="G92" s="18"/>
@@ -7030,7 +6957,9 @@
       <c r="B93" s="18"/>
       <c r="C93" s="18"/>
       <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
+      <c r="E93" s="18" t="s">
+        <v>85</v>
+      </c>
       <c r="F93" s="18"/>
       <c r="G93" s="18"/>
       <c r="H93" s="18"/>
@@ -7045,11 +6974,11 @@
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94" s="18"/>
-      <c r="C94" s="18" t="s">
-        <v>91</v>
-      </c>
+      <c r="C94" s="18"/>
       <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
+      <c r="E94" s="18" t="s">
+        <v>86</v>
+      </c>
       <c r="F94" s="18"/>
       <c r="G94" s="18"/>
       <c r="H94" s="18"/>
@@ -7063,12 +6992,12 @@
       <c r="P94" s="18"/>
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B95" s="18" t="s">
-        <v>38</v>
-      </c>
+      <c r="B95" s="18"/>
       <c r="C95" s="18"/>
       <c r="D95" s="18"/>
-      <c r="E95" s="18"/>
+      <c r="E95" s="18" t="s">
+        <v>83</v>
+      </c>
       <c r="F95" s="18"/>
       <c r="G95" s="18"/>
       <c r="H95" s="18"/>
@@ -7085,7 +7014,9 @@
       <c r="B96" s="18"/>
       <c r="C96" s="18"/>
       <c r="D96" s="18"/>
-      <c r="E96" s="18"/>
+      <c r="E96" s="18" t="s">
+        <v>80</v>
+      </c>
       <c r="F96" s="18"/>
       <c r="G96" s="18"/>
       <c r="H96" s="18"/>
@@ -7116,11 +7047,11 @@
       <c r="P97" s="18"/>
     </row>
     <row r="98" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B98" s="18" t="s">
-        <v>92</v>
-      </c>
+      <c r="B98" s="18"/>
       <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
+      <c r="D98" s="18" t="s">
+        <v>87</v>
+      </c>
       <c r="E98" s="18"/>
       <c r="F98" s="18"/>
       <c r="G98" s="18"/>
@@ -7135,12 +7066,12 @@
       <c r="P98" s="18"/>
     </row>
     <row r="99" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B99" s="18" t="s">
-        <v>37</v>
-      </c>
+      <c r="B99" s="18"/>
       <c r="C99" s="18"/>
       <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
+      <c r="E99" s="18" t="s">
+        <v>88</v>
+      </c>
       <c r="F99" s="18"/>
       <c r="G99" s="18"/>
       <c r="H99" s="18"/>
@@ -7155,11 +7086,11 @@
     </row>
     <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100" s="18"/>
-      <c r="C100" s="18" t="s">
-        <v>93</v>
-      </c>
+      <c r="C100" s="18"/>
       <c r="D100" s="18"/>
-      <c r="E100" s="18"/>
+      <c r="E100" s="18" t="s">
+        <v>89</v>
+      </c>
       <c r="F100" s="18"/>
       <c r="G100" s="18"/>
       <c r="H100" s="18"/>
@@ -7174,11 +7105,11 @@
     </row>
     <row r="101" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B101" s="18"/>
-      <c r="C101" s="18" t="s">
-        <v>94</v>
-      </c>
+      <c r="C101" s="18"/>
       <c r="D101" s="18"/>
-      <c r="E101" s="18"/>
+      <c r="E101" s="18" t="s">
+        <v>83</v>
+      </c>
       <c r="F101" s="18"/>
       <c r="G101" s="18"/>
       <c r="H101" s="18"/>
@@ -7193,11 +7124,11 @@
     </row>
     <row r="102" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B102" s="18"/>
-      <c r="C102" s="18" t="s">
-        <v>37</v>
-      </c>
+      <c r="C102" s="18"/>
       <c r="D102" s="18"/>
-      <c r="E102" s="18"/>
+      <c r="E102" s="18" t="s">
+        <v>90</v>
+      </c>
       <c r="F102" s="18"/>
       <c r="G102" s="18"/>
       <c r="H102" s="18"/>
@@ -7212,10 +7143,10 @@
     </row>
     <row r="103" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B103" s="18"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="18" t="s">
-        <v>95</v>
-      </c>
+      <c r="C103" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D103" s="18"/>
       <c r="E103" s="18"/>
       <c r="F103" s="18"/>
       <c r="G103" s="18"/>
@@ -7231,9 +7162,7 @@
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B104" s="18"/>
-      <c r="C104" s="18" t="s">
-        <v>51</v>
-      </c>
+      <c r="C104" s="18"/>
       <c r="D104" s="18"/>
       <c r="E104" s="18"/>
       <c r="F104" s="18"/>
@@ -7250,10 +7179,10 @@
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B105" s="18"/>
-      <c r="C105" s="18"/>
-      <c r="D105" s="18" t="s">
+      <c r="C105" s="18" t="s">
         <v>91</v>
       </c>
+      <c r="D105" s="18"/>
       <c r="E105" s="18"/>
       <c r="F105" s="18"/>
       <c r="G105" s="18"/>
@@ -7268,10 +7197,10 @@
       <c r="P105" s="18"/>
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B106" s="18"/>
-      <c r="C106" s="18" t="s">
+      <c r="B106" s="18" t="s">
         <v>38</v>
       </c>
+      <c r="C106" s="18"/>
       <c r="D106" s="18"/>
       <c r="E106" s="18"/>
       <c r="F106" s="18"/>
@@ -7287,9 +7216,7 @@
       <c r="P106" s="18"/>
     </row>
     <row r="107" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B107" s="18" t="s">
-        <v>38</v>
-      </c>
+      <c r="B107" s="18"/>
       <c r="C107" s="18"/>
       <c r="D107" s="18"/>
       <c r="E107" s="18"/>
@@ -7323,7 +7250,9 @@
       <c r="P108" s="18"/>
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B109" s="18"/>
+      <c r="B109" s="18" t="s">
+        <v>92</v>
+      </c>
       <c r="C109" s="18"/>
       <c r="D109" s="18"/>
       <c r="E109" s="18"/>
@@ -7341,7 +7270,7 @@
     </row>
     <row r="110" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B110" s="18" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="C110" s="18"/>
       <c r="D110" s="18"/>
@@ -7359,10 +7288,10 @@
       <c r="P110" s="18"/>
     </row>
     <row r="111" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B111" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C111" s="18"/>
+      <c r="B111" s="18"/>
+      <c r="C111" s="18" t="s">
+        <v>93</v>
+      </c>
       <c r="D111" s="18"/>
       <c r="E111" s="18"/>
       <c r="F111" s="18"/>
@@ -7380,7 +7309,7 @@
     <row r="112" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B112" s="18"/>
       <c r="C112" s="18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D112" s="18"/>
       <c r="E112" s="18"/>
@@ -7399,7 +7328,7 @@
     <row r="113" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B113" s="18"/>
       <c r="C113" s="18" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="D113" s="18"/>
       <c r="E113" s="18"/>
@@ -7417,10 +7346,10 @@
     </row>
     <row r="114" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B114" s="18"/>
-      <c r="C114" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D114" s="18"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="18" t="s">
+        <v>95</v>
+      </c>
       <c r="E114" s="18"/>
       <c r="F114" s="18"/>
       <c r="G114" s="18"/>
@@ -7436,10 +7365,10 @@
     </row>
     <row r="115" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B115" s="18"/>
-      <c r="C115" s="18"/>
-      <c r="D115" s="18" t="s">
-        <v>95</v>
-      </c>
+      <c r="C115" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D115" s="18"/>
       <c r="E115" s="18"/>
       <c r="F115" s="18"/>
       <c r="G115" s="18"/>
@@ -7455,10 +7384,10 @@
     </row>
     <row r="116" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B116" s="18"/>
-      <c r="C116" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D116" s="18"/>
+      <c r="C116" s="18"/>
+      <c r="D116" s="18" t="s">
+        <v>91</v>
+      </c>
       <c r="E116" s="18"/>
       <c r="F116" s="18"/>
       <c r="G116" s="18"/>
@@ -7474,10 +7403,10 @@
     </row>
     <row r="117" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B117" s="18"/>
-      <c r="C117" s="18"/>
-      <c r="D117" s="18" t="s">
-        <v>91</v>
-      </c>
+      <c r="C117" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D117" s="18"/>
       <c r="E117" s="18"/>
       <c r="F117" s="18"/>
       <c r="G117" s="18"/>
@@ -7492,10 +7421,10 @@
       <c r="P117" s="18"/>
     </row>
     <row r="118" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B118" s="18"/>
-      <c r="C118" s="18" t="s">
+      <c r="B118" s="18" t="s">
         <v>38</v>
       </c>
+      <c r="C118" s="18"/>
       <c r="D118" s="18"/>
       <c r="E118" s="18"/>
       <c r="F118" s="18"/>
@@ -7511,9 +7440,7 @@
       <c r="P118" s="18"/>
     </row>
     <row r="119" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B119" s="18" t="s">
-        <v>38</v>
-      </c>
+      <c r="B119" s="18"/>
       <c r="C119" s="18"/>
       <c r="D119" s="18"/>
       <c r="E119" s="18"/>
@@ -7547,7 +7474,9 @@
       <c r="P120" s="18"/>
     </row>
     <row r="121" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B121" s="18"/>
+      <c r="B121" s="18" t="s">
+        <v>96</v>
+      </c>
       <c r="C121" s="18"/>
       <c r="D121" s="18"/>
       <c r="E121" s="18"/>
@@ -7565,7 +7494,7 @@
     </row>
     <row r="122" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B122" s="18" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="C122" s="18"/>
       <c r="D122" s="18"/>
@@ -7583,10 +7512,10 @@
       <c r="P122" s="18"/>
     </row>
     <row r="123" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B123" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C123" s="18"/>
+      <c r="B123" s="18"/>
+      <c r="C123" s="18" t="s">
+        <v>97</v>
+      </c>
       <c r="D123" s="18"/>
       <c r="E123" s="18"/>
       <c r="F123" s="18"/>
@@ -7604,7 +7533,7 @@
     <row r="124" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B124" s="18"/>
       <c r="C124" s="18" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D124" s="18"/>
       <c r="E124" s="18"/>
@@ -7623,7 +7552,7 @@
     <row r="125" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B125" s="18"/>
       <c r="C125" s="18" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="D125" s="18"/>
       <c r="E125" s="18"/>
@@ -7641,10 +7570,10 @@
     </row>
     <row r="126" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B126" s="18"/>
-      <c r="C126" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D126" s="18"/>
+      <c r="C126" s="18"/>
+      <c r="D126" s="18" t="s">
+        <v>95</v>
+      </c>
       <c r="E126" s="18"/>
       <c r="F126" s="18"/>
       <c r="G126" s="18"/>
@@ -7660,10 +7589,10 @@
     </row>
     <row r="127" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B127" s="18"/>
-      <c r="C127" s="18"/>
-      <c r="D127" s="18" t="s">
-        <v>95</v>
-      </c>
+      <c r="C127" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D127" s="18"/>
       <c r="E127" s="18"/>
       <c r="F127" s="18"/>
       <c r="G127" s="18"/>
@@ -7679,10 +7608,10 @@
     </row>
     <row r="128" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B128" s="18"/>
-      <c r="C128" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D128" s="18"/>
+      <c r="C128" s="18"/>
+      <c r="D128" s="18" t="s">
+        <v>91</v>
+      </c>
       <c r="E128" s="18"/>
       <c r="F128" s="18"/>
       <c r="G128" s="18"/>
@@ -7698,10 +7627,10 @@
     </row>
     <row r="129" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B129" s="18"/>
-      <c r="C129" s="18"/>
-      <c r="D129" s="18" t="s">
-        <v>91</v>
-      </c>
+      <c r="C129" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D129" s="18"/>
       <c r="E129" s="18"/>
       <c r="F129" s="18"/>
       <c r="G129" s="18"/>
@@ -7716,10 +7645,10 @@
       <c r="P129" s="18"/>
     </row>
     <row r="130" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B130" s="18"/>
-      <c r="C130" s="18" t="s">
+      <c r="B130" s="18" t="s">
         <v>38</v>
       </c>
+      <c r="C130" s="18"/>
       <c r="D130" s="18"/>
       <c r="E130" s="18"/>
       <c r="F130" s="18"/>
@@ -7735,9 +7664,7 @@
       <c r="P130" s="18"/>
     </row>
     <row r="131" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B131" s="18" t="s">
-        <v>38</v>
-      </c>
+      <c r="B131" s="18"/>
       <c r="C131" s="18"/>
       <c r="D131" s="18"/>
       <c r="E131" s="18"/>
@@ -7772,7 +7699,7 @@
     </row>
     <row r="133" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B133" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C133" s="18"/>
       <c r="D133" s="18"/>
@@ -7811,7 +7738,7 @@
     <row r="135" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B135" s="18"/>
       <c r="C135" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D135" s="18"/>
       <c r="E135" s="18"/>
@@ -7829,7 +7756,9 @@
     </row>
     <row r="136" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B136" s="18"/>
-      <c r="C136" s="18"/>
+      <c r="C136" s="18" t="s">
+        <v>94</v>
+      </c>
       <c r="D136" s="18"/>
       <c r="E136" s="18"/>
       <c r="F136" s="18"/>
@@ -7847,7 +7776,7 @@
     <row r="137" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B137" s="18"/>
       <c r="C137" s="18" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="D137" s="18"/>
       <c r="E137" s="18"/>
@@ -7865,10 +7794,10 @@
     </row>
     <row r="138" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B138" s="18"/>
-      <c r="C138" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D138" s="18"/>
+      <c r="C138" s="18"/>
+      <c r="D138" s="18" t="s">
+        <v>95</v>
+      </c>
       <c r="E138" s="18"/>
       <c r="F138" s="18"/>
       <c r="G138" s="18"/>
@@ -7884,10 +7813,10 @@
     </row>
     <row r="139" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B139" s="18"/>
-      <c r="C139" s="18"/>
-      <c r="D139" s="18" t="s">
-        <v>95</v>
-      </c>
+      <c r="C139" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D139" s="18"/>
       <c r="E139" s="18"/>
       <c r="F139" s="18"/>
       <c r="G139" s="18"/>
@@ -7903,10 +7832,10 @@
     </row>
     <row r="140" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B140" s="18"/>
-      <c r="C140" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D140" s="18"/>
+      <c r="C140" s="18"/>
+      <c r="D140" s="18" t="s">
+        <v>91</v>
+      </c>
       <c r="E140" s="18"/>
       <c r="F140" s="18"/>
       <c r="G140" s="18"/>
@@ -7922,10 +7851,10 @@
     </row>
     <row r="141" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B141" s="18"/>
-      <c r="C141" s="18"/>
-      <c r="D141" s="18" t="s">
-        <v>91</v>
-      </c>
+      <c r="C141" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D141" s="18"/>
       <c r="E141" s="18"/>
       <c r="F141" s="18"/>
       <c r="G141" s="18"/>
@@ -7940,10 +7869,10 @@
       <c r="P141" s="18"/>
     </row>
     <row r="142" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B142" s="18"/>
-      <c r="C142" s="18" t="s">
+      <c r="B142" s="18" t="s">
         <v>38</v>
       </c>
+      <c r="C142" s="18"/>
       <c r="D142" s="18"/>
       <c r="E142" s="18"/>
       <c r="F142" s="18"/>
@@ -7959,9 +7888,7 @@
       <c r="P142" s="18"/>
     </row>
     <row r="143" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B143" s="18" t="s">
-        <v>38</v>
-      </c>
+      <c r="B143" s="18"/>
       <c r="C143" s="18"/>
       <c r="D143" s="18"/>
       <c r="E143" s="18"/>
@@ -7978,7 +7905,9 @@
       <c r="P143" s="18"/>
     </row>
     <row r="144" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B144" s="18"/>
+      <c r="B144" s="18" t="s">
+        <v>100</v>
+      </c>
       <c r="C144" s="18"/>
       <c r="D144" s="18"/>
       <c r="E144" s="18"/>
@@ -7995,7 +7924,9 @@
       <c r="P144" s="18"/>
     </row>
     <row r="145" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B145" s="18"/>
+      <c r="B145" s="18" t="s">
+        <v>37</v>
+      </c>
       <c r="C145" s="18"/>
       <c r="D145" s="18"/>
       <c r="E145" s="18"/>
@@ -8012,10 +7943,10 @@
       <c r="P145" s="18"/>
     </row>
     <row r="146" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B146" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C146" s="18"/>
+      <c r="B146" s="18"/>
+      <c r="C146" s="18" t="s">
+        <v>101</v>
+      </c>
       <c r="D146" s="18"/>
       <c r="E146" s="18"/>
       <c r="F146" s="18"/>
@@ -8031,9 +7962,7 @@
       <c r="P146" s="18"/>
     </row>
     <row r="147" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B147" s="18" t="s">
-        <v>37</v>
-      </c>
+      <c r="B147" s="18"/>
       <c r="C147" s="18"/>
       <c r="D147" s="18"/>
       <c r="E147" s="18"/>
@@ -8052,7 +7981,7 @@
     <row r="148" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B148" s="18"/>
       <c r="C148" s="18" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D148" s="18"/>
       <c r="E148" s="18"/>
@@ -8071,7 +8000,7 @@
     <row r="149" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B149" s="18"/>
       <c r="C149" s="18" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="D149" s="18"/>
       <c r="E149" s="18"/>
@@ -8089,10 +8018,10 @@
     </row>
     <row r="150" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B150" s="18"/>
-      <c r="C150" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D150" s="18"/>
+      <c r="C150" s="18"/>
+      <c r="D150" s="18" t="s">
+        <v>95</v>
+      </c>
       <c r="E150" s="18"/>
       <c r="F150" s="18"/>
       <c r="G150" s="18"/>
@@ -8108,10 +8037,10 @@
     </row>
     <row r="151" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B151" s="18"/>
-      <c r="C151" s="18"/>
-      <c r="D151" s="18" t="s">
-        <v>95</v>
-      </c>
+      <c r="C151" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D151" s="18"/>
       <c r="E151" s="18"/>
       <c r="F151" s="18"/>
       <c r="G151" s="18"/>
@@ -8127,10 +8056,10 @@
     </row>
     <row r="152" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B152" s="18"/>
-      <c r="C152" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D152" s="18"/>
+      <c r="C152" s="18"/>
+      <c r="D152" s="18" t="s">
+        <v>91</v>
+      </c>
       <c r="E152" s="18"/>
       <c r="F152" s="18"/>
       <c r="G152" s="18"/>
@@ -8146,10 +8075,10 @@
     </row>
     <row r="153" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B153" s="18"/>
-      <c r="C153" s="18"/>
-      <c r="D153" s="18" t="s">
-        <v>91</v>
-      </c>
+      <c r="C153" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D153" s="18"/>
       <c r="E153" s="18"/>
       <c r="F153" s="18"/>
       <c r="G153" s="18"/>
@@ -8164,10 +8093,10 @@
       <c r="P153" s="18"/>
     </row>
     <row r="154" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B154" s="18"/>
-      <c r="C154" s="18" t="s">
+      <c r="B154" s="18" t="s">
         <v>38</v>
       </c>
+      <c r="C154" s="18"/>
       <c r="D154" s="18"/>
       <c r="E154" s="18"/>
       <c r="F154" s="18"/>
@@ -8183,9 +8112,7 @@
       <c r="P154" s="18"/>
     </row>
     <row r="155" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B155" s="18" t="s">
-        <v>38</v>
-      </c>
+      <c r="B155" s="18"/>
       <c r="C155" s="18"/>
       <c r="D155" s="18"/>
       <c r="E155" s="18"/>
@@ -8219,7 +8146,9 @@
       <c r="P156" s="18"/>
     </row>
     <row r="157" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B157" s="18"/>
+      <c r="B157" s="18" t="s">
+        <v>102</v>
+      </c>
       <c r="C157" s="18"/>
       <c r="D157" s="18"/>
       <c r="E157" s="18"/>
@@ -8236,7 +8165,9 @@
       <c r="P157" s="18"/>
     </row>
     <row r="158" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B158" s="18"/>
+      <c r="B158" s="18" t="s">
+        <v>37</v>
+      </c>
       <c r="C158" s="18"/>
       <c r="D158" s="18"/>
       <c r="E158" s="18"/>
@@ -8253,10 +8184,10 @@
       <c r="P158" s="18"/>
     </row>
     <row r="159" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B159" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C159" s="18"/>
+      <c r="B159" s="18"/>
+      <c r="C159" s="18" t="s">
+        <v>103</v>
+      </c>
       <c r="D159" s="18"/>
       <c r="E159" s="18"/>
       <c r="F159" s="18"/>
@@ -8272,10 +8203,10 @@
       <c r="P159" s="18"/>
     </row>
     <row r="160" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B160" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C160" s="18"/>
+      <c r="B160" s="18"/>
+      <c r="C160" s="18" t="s">
+        <v>94</v>
+      </c>
       <c r="D160" s="18"/>
       <c r="E160" s="18"/>
       <c r="F160" s="18"/>
@@ -8291,10 +8222,10 @@
       <c r="P160" s="18"/>
     </row>
     <row r="161" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B161" s="18" t="s">
+      <c r="B161" s="18"/>
+      <c r="C161" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C161" s="18"/>
       <c r="D161" s="18"/>
       <c r="E161" s="18"/>
       <c r="F161" s="18"/>
@@ -8311,10 +8242,10 @@
     </row>
     <row r="162" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B162" s="18"/>
-      <c r="C162" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D162" s="18"/>
+      <c r="C162" s="18"/>
+      <c r="D162" s="18" t="s">
+        <v>95</v>
+      </c>
       <c r="E162" s="18"/>
       <c r="F162" s="18"/>
       <c r="G162" s="18"/>
@@ -8331,7 +8262,7 @@
     <row r="163" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B163" s="18"/>
       <c r="C163" s="18" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="D163" s="18"/>
       <c r="E163" s="18"/>
@@ -8349,10 +8280,10 @@
     </row>
     <row r="164" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B164" s="18"/>
-      <c r="C164" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D164" s="18"/>
+      <c r="C164" s="18"/>
+      <c r="D164" s="18" t="s">
+        <v>91</v>
+      </c>
       <c r="E164" s="18"/>
       <c r="F164" s="18"/>
       <c r="G164" s="18"/>
@@ -8369,7 +8300,7 @@
     <row r="165" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B165" s="18"/>
       <c r="C165" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D165" s="18"/>
       <c r="E165" s="18"/>
@@ -8386,11 +8317,11 @@
       <c r="P165" s="18"/>
     </row>
     <row r="166" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B166" s="18"/>
+      <c r="B166" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="C166" s="18"/>
-      <c r="D166" s="18" t="s">
-        <v>109</v>
-      </c>
+      <c r="D166" s="18"/>
       <c r="E166" s="18"/>
       <c r="F166" s="18"/>
       <c r="G166" s="18"/>
@@ -8406,9 +8337,7 @@
     </row>
     <row r="167" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B167" s="18"/>
-      <c r="C167" s="18" t="s">
-        <v>51</v>
-      </c>
+      <c r="C167" s="18"/>
       <c r="D167" s="18"/>
       <c r="E167" s="18"/>
       <c r="F167" s="18"/>
@@ -8426,9 +8355,7 @@
     <row r="168" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B168" s="18"/>
       <c r="C168" s="18"/>
-      <c r="D168" s="18" t="s">
-        <v>91</v>
-      </c>
+      <c r="D168" s="18"/>
       <c r="E168" s="18"/>
       <c r="F168" s="18"/>
       <c r="G168" s="18"/>
@@ -8444,9 +8371,7 @@
     </row>
     <row r="169" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B169" s="18"/>
-      <c r="C169" s="18" t="s">
-        <v>38</v>
-      </c>
+      <c r="C169" s="18"/>
       <c r="D169" s="18"/>
       <c r="E169" s="18"/>
       <c r="F169" s="18"/>
@@ -8463,7 +8388,7 @@
     </row>
     <row r="170" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B170" s="18" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="C170" s="18"/>
       <c r="D170" s="18"/>
@@ -8481,7 +8406,9 @@
       <c r="P170" s="18"/>
     </row>
     <row r="171" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B171" s="18"/>
+      <c r="B171" s="18" t="s">
+        <v>105</v>
+      </c>
       <c r="C171" s="18"/>
       <c r="D171" s="18"/>
       <c r="E171" s="18"/>
@@ -8499,7 +8426,7 @@
     </row>
     <row r="172" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B172" s="18" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="C172" s="18"/>
       <c r="D172" s="18"/>
@@ -8517,10 +8444,10 @@
       <c r="P172" s="18"/>
     </row>
     <row r="173" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B173" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C173" s="18"/>
+      <c r="B173" s="18"/>
+      <c r="C173" s="18" t="s">
+        <v>106</v>
+      </c>
       <c r="D173" s="18"/>
       <c r="E173" s="18"/>
       <c r="F173" s="18"/>
@@ -8536,10 +8463,10 @@
       <c r="P173" s="18"/>
     </row>
     <row r="174" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B174" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C174" s="18"/>
+      <c r="B174" s="18"/>
+      <c r="C174" s="18" t="s">
+        <v>107</v>
+      </c>
       <c r="D174" s="18"/>
       <c r="E174" s="18"/>
       <c r="F174" s="18"/>
@@ -8557,7 +8484,7 @@
     <row r="175" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B175" s="18"/>
       <c r="C175" s="18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D175" s="18"/>
       <c r="E175" s="18"/>
@@ -8576,7 +8503,7 @@
     <row r="176" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B176" s="18"/>
       <c r="C176" s="18" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="D176" s="18"/>
       <c r="E176" s="18"/>
@@ -8594,10 +8521,10 @@
     </row>
     <row r="177" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B177" s="18"/>
-      <c r="C177" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="D177" s="18"/>
+      <c r="C177" s="18"/>
+      <c r="D177" s="18" t="s">
+        <v>109</v>
+      </c>
       <c r="E177" s="18"/>
       <c r="F177" s="18"/>
       <c r="G177" s="18"/>
@@ -8614,7 +8541,7 @@
     <row r="178" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B178" s="18"/>
       <c r="C178" s="18" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="D178" s="18"/>
       <c r="E178" s="18"/>
@@ -8632,10 +8559,10 @@
     </row>
     <row r="179" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B179" s="18"/>
-      <c r="C179" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="D179" s="18"/>
+      <c r="C179" s="18"/>
+      <c r="D179" s="18" t="s">
+        <v>91</v>
+      </c>
       <c r="E179" s="18"/>
       <c r="F179" s="18"/>
       <c r="G179" s="18"/>
@@ -8651,7 +8578,9 @@
     </row>
     <row r="180" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B180" s="18"/>
-      <c r="C180" s="18"/>
+      <c r="C180" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="D180" s="18"/>
       <c r="E180" s="18"/>
       <c r="F180" s="18"/>
@@ -8667,10 +8596,10 @@
       <c r="P180" s="18"/>
     </row>
     <row r="181" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B181" s="18"/>
-      <c r="C181" s="18" t="s">
-        <v>116</v>
-      </c>
+      <c r="B181" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C181" s="18"/>
       <c r="D181" s="18"/>
       <c r="E181" s="18"/>
       <c r="F181" s="18"/>
@@ -8687,9 +8616,7 @@
     </row>
     <row r="182" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B182" s="18"/>
-      <c r="C182" s="18" t="s">
-        <v>117</v>
-      </c>
+      <c r="C182" s="18"/>
       <c r="D182" s="18"/>
       <c r="E182" s="18"/>
       <c r="F182" s="18"/>
@@ -8705,10 +8632,10 @@
       <c r="P182" s="18"/>
     </row>
     <row r="183" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B183" s="18"/>
-      <c r="C183" s="18" t="s">
-        <v>118</v>
-      </c>
+      <c r="B183" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C183" s="18"/>
       <c r="D183" s="18"/>
       <c r="E183" s="18"/>
       <c r="F183" s="18"/>
@@ -8724,10 +8651,10 @@
       <c r="P183" s="18"/>
     </row>
     <row r="184" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B184" s="18"/>
-      <c r="C184" s="18" t="s">
-        <v>119</v>
-      </c>
+      <c r="B184" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C184" s="18"/>
       <c r="D184" s="18"/>
       <c r="E184" s="18"/>
       <c r="F184" s="18"/>
@@ -8743,10 +8670,10 @@
       <c r="P184" s="18"/>
     </row>
     <row r="185" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B185" s="18"/>
-      <c r="C185" s="18" t="s">
-        <v>120</v>
-      </c>
+      <c r="B185" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C185" s="18"/>
       <c r="D185" s="18"/>
       <c r="E185" s="18"/>
       <c r="F185" s="18"/>
@@ -8764,7 +8691,7 @@
     <row r="186" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B186" s="18"/>
       <c r="C186" s="18" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D186" s="18"/>
       <c r="E186" s="18"/>
@@ -8782,7 +8709,9 @@
     </row>
     <row r="187" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B187" s="18"/>
-      <c r="C187" s="18"/>
+      <c r="C187" s="18" t="s">
+        <v>66</v>
+      </c>
       <c r="D187" s="18"/>
       <c r="E187" s="18"/>
       <c r="F187" s="18"/>
@@ -8800,7 +8729,7 @@
     <row r="188" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B188" s="18"/>
       <c r="C188" s="18" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D188" s="18"/>
       <c r="E188" s="18"/>
@@ -8819,7 +8748,7 @@
     <row r="189" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B189" s="18"/>
       <c r="C189" s="18" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="D189" s="18"/>
       <c r="E189" s="18"/>
@@ -8838,7 +8767,7 @@
     <row r="190" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B190" s="18"/>
       <c r="C190" s="18" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="D190" s="18"/>
       <c r="E190" s="18"/>
@@ -8857,9 +8786,7 @@
     <row r="191" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B191" s="18"/>
       <c r="C191" s="18"/>
-      <c r="D191" s="18" t="s">
-        <v>123</v>
-      </c>
+      <c r="D191" s="18"/>
       <c r="E191" s="18"/>
       <c r="F191" s="18"/>
       <c r="G191" s="18"/>
@@ -8875,10 +8802,10 @@
     </row>
     <row r="192" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B192" s="18"/>
-      <c r="C192" s="18"/>
-      <c r="D192" s="18" t="s">
-        <v>124</v>
-      </c>
+      <c r="C192" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D192" s="18"/>
       <c r="E192" s="18"/>
       <c r="F192" s="18"/>
       <c r="G192" s="18"/>
@@ -8894,10 +8821,10 @@
     </row>
     <row r="193" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B193" s="18"/>
-      <c r="C193" s="18"/>
-      <c r="D193" s="18" t="s">
-        <v>125</v>
-      </c>
+      <c r="C193" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D193" s="18"/>
       <c r="E193" s="18"/>
       <c r="F193" s="18"/>
       <c r="G193" s="18"/>
@@ -8913,10 +8840,10 @@
     </row>
     <row r="194" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B194" s="18"/>
-      <c r="C194" s="18"/>
-      <c r="D194" s="18" t="s">
-        <v>37</v>
-      </c>
+      <c r="C194" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D194" s="18"/>
       <c r="E194" s="18"/>
       <c r="F194" s="18"/>
       <c r="G194" s="18"/>
@@ -8932,11 +8859,11 @@
     </row>
     <row r="195" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B195" s="18"/>
-      <c r="C195" s="18"/>
+      <c r="C195" s="18" t="s">
+        <v>119</v>
+      </c>
       <c r="D195" s="18"/>
-      <c r="E195" s="18" t="s">
-        <v>126</v>
-      </c>
+      <c r="E195" s="18"/>
       <c r="F195" s="18"/>
       <c r="G195" s="18"/>
       <c r="H195" s="18"/>
@@ -8951,11 +8878,11 @@
     </row>
     <row r="196" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B196" s="18"/>
-      <c r="C196" s="18"/>
+      <c r="C196" s="18" t="s">
+        <v>120</v>
+      </c>
       <c r="D196" s="18"/>
-      <c r="E196" s="18" t="s">
-        <v>127</v>
-      </c>
+      <c r="E196" s="18"/>
       <c r="F196" s="18"/>
       <c r="G196" s="18"/>
       <c r="H196" s="18"/>
@@ -8970,10 +8897,10 @@
     </row>
     <row r="197" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B197" s="18"/>
-      <c r="C197" s="18"/>
-      <c r="D197" s="18" t="s">
-        <v>51</v>
-      </c>
+      <c r="C197" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D197" s="18"/>
       <c r="E197" s="18"/>
       <c r="F197" s="18"/>
       <c r="G197" s="18"/>
@@ -8991,9 +8918,7 @@
       <c r="B198" s="18"/>
       <c r="C198" s="18"/>
       <c r="D198" s="18"/>
-      <c r="E198" s="18" t="s">
-        <v>128</v>
-      </c>
+      <c r="E198" s="18"/>
       <c r="F198" s="18"/>
       <c r="G198" s="18"/>
       <c r="H198" s="18"/>
@@ -9008,11 +8933,11 @@
     </row>
     <row r="199" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B199" s="18"/>
-      <c r="C199" s="18"/>
+      <c r="C199" s="18" t="s">
+        <v>122</v>
+      </c>
       <c r="D199" s="18"/>
-      <c r="E199" s="18" t="s">
-        <v>129</v>
-      </c>
+      <c r="E199" s="18"/>
       <c r="F199" s="18"/>
       <c r="G199" s="18"/>
       <c r="H199" s="18"/>
@@ -9027,10 +8952,10 @@
     </row>
     <row r="200" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B200" s="18"/>
-      <c r="C200" s="18"/>
-      <c r="D200" s="18" t="s">
-        <v>38</v>
-      </c>
+      <c r="C200" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D200" s="18"/>
       <c r="E200" s="18"/>
       <c r="F200" s="18"/>
       <c r="G200" s="18"/>
@@ -9046,11 +8971,11 @@
     </row>
     <row r="201" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B201" s="18"/>
-      <c r="C201" s="18"/>
+      <c r="C201" s="18" t="s">
+        <v>37</v>
+      </c>
       <c r="D201" s="18"/>
-      <c r="E201" s="18" t="s">
-        <v>130</v>
-      </c>
+      <c r="E201" s="18"/>
       <c r="F201" s="18"/>
       <c r="G201" s="18"/>
       <c r="H201" s="18"/>
@@ -9066,7 +8991,9 @@
     <row r="202" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B202" s="18"/>
       <c r="C202" s="18"/>
-      <c r="D202" s="18"/>
+      <c r="D202" s="18" t="s">
+        <v>123</v>
+      </c>
       <c r="E202" s="18"/>
       <c r="F202" s="18"/>
       <c r="G202" s="18"/>
@@ -9084,7 +9011,7 @@
       <c r="B203" s="18"/>
       <c r="C203" s="18"/>
       <c r="D203" s="18" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E203" s="18"/>
       <c r="F203" s="18"/>
@@ -9103,7 +9030,7 @@
       <c r="B204" s="18"/>
       <c r="C204" s="18"/>
       <c r="D204" s="18" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="E204" s="18"/>
       <c r="F204" s="18"/>
@@ -9121,10 +9048,10 @@
     <row r="205" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B205" s="18"/>
       <c r="C205" s="18"/>
-      <c r="D205" s="18"/>
-      <c r="E205" s="18" t="s">
-        <v>123</v>
-      </c>
+      <c r="D205" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E205" s="18"/>
       <c r="F205" s="18"/>
       <c r="G205" s="18"/>
       <c r="H205" s="18"/>
@@ -9142,7 +9069,7 @@
       <c r="C206" s="18"/>
       <c r="D206" s="18"/>
       <c r="E206" s="18" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F206" s="18"/>
       <c r="G206" s="18"/>
@@ -9161,7 +9088,7 @@
       <c r="C207" s="18"/>
       <c r="D207" s="18"/>
       <c r="E207" s="18" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F207" s="18"/>
       <c r="G207" s="18"/>
@@ -9178,10 +9105,10 @@
     <row r="208" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B208" s="18"/>
       <c r="C208" s="18"/>
-      <c r="D208" s="18"/>
-      <c r="E208" s="18" t="s">
-        <v>134</v>
-      </c>
+      <c r="D208" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E208" s="18"/>
       <c r="F208" s="18"/>
       <c r="G208" s="18"/>
       <c r="H208" s="18"/>
@@ -9199,7 +9126,7 @@
       <c r="C209" s="18"/>
       <c r="D209" s="18"/>
       <c r="E209" s="18" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="F209" s="18"/>
       <c r="G209" s="18"/>
@@ -9217,10 +9144,10 @@
       <c r="B210" s="18"/>
       <c r="C210" s="18"/>
       <c r="D210" s="18"/>
-      <c r="E210" s="18"/>
-      <c r="F210" s="18" t="s">
-        <v>135</v>
-      </c>
+      <c r="E210" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F210" s="18"/>
       <c r="G210" s="18"/>
       <c r="H210" s="18"/>
       <c r="I210" s="18"/>
@@ -9235,10 +9162,10 @@
     <row r="211" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B211" s="18"/>
       <c r="C211" s="18"/>
-      <c r="D211" s="18"/>
-      <c r="E211" s="18" t="s">
+      <c r="D211" s="18" t="s">
         <v>38</v>
       </c>
+      <c r="E211" s="18"/>
       <c r="F211" s="18"/>
       <c r="G211" s="18"/>
       <c r="H211" s="18"/>
@@ -9255,7 +9182,9 @@
       <c r="B212" s="18"/>
       <c r="C212" s="18"/>
       <c r="D212" s="18"/>
-      <c r="E212" s="18"/>
+      <c r="E212" s="18" t="s">
+        <v>130</v>
+      </c>
       <c r="F212" s="18"/>
       <c r="G212" s="18"/>
       <c r="H212" s="18"/>
@@ -9272,9 +9201,7 @@
       <c r="B213" s="18"/>
       <c r="C213" s="18"/>
       <c r="D213" s="18"/>
-      <c r="E213" s="18" t="s">
-        <v>136</v>
-      </c>
+      <c r="E213" s="18"/>
       <c r="F213" s="18"/>
       <c r="G213" s="18"/>
       <c r="H213" s="18"/>
@@ -9290,10 +9217,10 @@
     <row r="214" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B214" s="18"/>
       <c r="C214" s="18"/>
-      <c r="D214" s="18"/>
-      <c r="E214" s="18" t="s">
-        <v>137</v>
-      </c>
+      <c r="D214" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E214" s="18"/>
       <c r="F214" s="18"/>
       <c r="G214" s="18"/>
       <c r="H214" s="18"/>
@@ -9309,10 +9236,10 @@
     <row r="215" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B215" s="18"/>
       <c r="C215" s="18"/>
-      <c r="D215" s="18"/>
-      <c r="E215" s="18" t="s">
+      <c r="D215" s="18" t="s">
         <v>37</v>
       </c>
+      <c r="E215" s="18"/>
       <c r="F215" s="18"/>
       <c r="G215" s="18"/>
       <c r="H215" s="18"/>
@@ -9329,10 +9256,10 @@
       <c r="B216" s="18"/>
       <c r="C216" s="18"/>
       <c r="D216" s="18"/>
-      <c r="E216" s="18"/>
-      <c r="F216" s="18" t="s">
-        <v>138</v>
-      </c>
+      <c r="E216" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F216" s="18"/>
       <c r="G216" s="18"/>
       <c r="H216" s="18"/>
       <c r="I216" s="18"/>
@@ -9348,10 +9275,10 @@
       <c r="B217" s="18"/>
       <c r="C217" s="18"/>
       <c r="D217" s="18"/>
-      <c r="E217" s="18"/>
-      <c r="F217" s="18" t="s">
-        <v>139</v>
-      </c>
+      <c r="E217" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F217" s="18"/>
       <c r="G217" s="18"/>
       <c r="H217" s="18"/>
       <c r="I217" s="18"/>
@@ -9367,10 +9294,10 @@
       <c r="B218" s="18"/>
       <c r="C218" s="18"/>
       <c r="D218" s="18"/>
-      <c r="E218" s="18"/>
-      <c r="F218" s="18" t="s">
-        <v>140</v>
-      </c>
+      <c r="E218" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F218" s="18"/>
       <c r="G218" s="18"/>
       <c r="H218" s="18"/>
       <c r="I218" s="18"/>
@@ -9386,10 +9313,10 @@
       <c r="B219" s="18"/>
       <c r="C219" s="18"/>
       <c r="D219" s="18"/>
-      <c r="E219" s="18"/>
-      <c r="F219" s="18" t="s">
-        <v>141</v>
-      </c>
+      <c r="E219" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="F219" s="18"/>
       <c r="G219" s="18"/>
       <c r="H219" s="18"/>
       <c r="I219" s="18"/>
@@ -9405,7 +9332,9 @@
       <c r="B220" s="18"/>
       <c r="C220" s="18"/>
       <c r="D220" s="18"/>
-      <c r="E220" s="18"/>
+      <c r="E220" s="18" t="s">
+        <v>37</v>
+      </c>
       <c r="F220" s="18"/>
       <c r="G220" s="18"/>
       <c r="H220" s="18"/>
@@ -9424,7 +9353,7 @@
       <c r="D221" s="18"/>
       <c r="E221" s="18"/>
       <c r="F221" s="18" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G221" s="18"/>
       <c r="H221" s="18"/>
@@ -9441,12 +9370,12 @@
       <c r="B222" s="18"/>
       <c r="C222" s="18"/>
       <c r="D222" s="18"/>
-      <c r="E222" s="18"/>
+      <c r="E222" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="F222" s="18"/>
       <c r="G222" s="18"/>
-      <c r="H222" s="18" t="s">
-        <v>143</v>
-      </c>
+      <c r="H222" s="18"/>
       <c r="I222" s="18"/>
       <c r="J222" s="18"/>
       <c r="K222" s="18"/>
@@ -9463,9 +9392,7 @@
       <c r="E223" s="18"/>
       <c r="F223" s="18"/>
       <c r="G223" s="18"/>
-      <c r="H223" s="18" t="s">
-        <v>144</v>
-      </c>
+      <c r="H223" s="18"/>
       <c r="I223" s="18"/>
       <c r="J223" s="18"/>
       <c r="K223" s="18"/>
@@ -9479,12 +9406,12 @@
       <c r="B224" s="18"/>
       <c r="C224" s="18"/>
       <c r="D224" s="18"/>
-      <c r="E224" s="18"/>
+      <c r="E224" s="18" t="s">
+        <v>136</v>
+      </c>
       <c r="F224" s="18"/>
       <c r="G224" s="18"/>
-      <c r="H224" s="18" t="s">
-        <v>145</v>
-      </c>
+      <c r="H224" s="18"/>
       <c r="I224" s="18"/>
       <c r="J224" s="18"/>
       <c r="K224" s="18"/>
@@ -9498,10 +9425,10 @@
       <c r="B225" s="18"/>
       <c r="C225" s="18"/>
       <c r="D225" s="18"/>
-      <c r="E225" s="18"/>
-      <c r="F225" s="18" t="s">
-        <v>146</v>
-      </c>
+      <c r="E225" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F225" s="18"/>
       <c r="G225" s="18"/>
       <c r="H225" s="18"/>
       <c r="I225" s="18"/>
@@ -9517,10 +9444,10 @@
       <c r="B226" s="18"/>
       <c r="C226" s="18"/>
       <c r="D226" s="18"/>
-      <c r="E226" s="18"/>
-      <c r="F226" s="18" t="s">
+      <c r="E226" s="18" t="s">
         <v>37</v>
       </c>
+      <c r="F226" s="18"/>
       <c r="G226" s="18"/>
       <c r="H226" s="18"/>
       <c r="I226" s="18"/>
@@ -9537,10 +9464,10 @@
       <c r="C227" s="18"/>
       <c r="D227" s="18"/>
       <c r="E227" s="18"/>
-      <c r="F227" s="18"/>
-      <c r="G227" s="18" t="s">
-        <v>147</v>
-      </c>
+      <c r="F227" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="G227" s="18"/>
       <c r="H227" s="18"/>
       <c r="I227" s="18"/>
       <c r="J227" s="18"/>
@@ -9557,7 +9484,7 @@
       <c r="D228" s="18"/>
       <c r="E228" s="18"/>
       <c r="F228" s="18" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="G228" s="18"/>
       <c r="H228" s="18"/>
@@ -9574,10 +9501,10 @@
       <c r="B229" s="18"/>
       <c r="C229" s="18"/>
       <c r="D229" s="18"/>
-      <c r="E229" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F229" s="18"/>
+      <c r="E229" s="18"/>
+      <c r="F229" s="18" t="s">
+        <v>140</v>
+      </c>
       <c r="G229" s="18"/>
       <c r="H229" s="18"/>
       <c r="I229" s="18"/>
@@ -9592,11 +9519,11 @@
     <row r="230" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B230" s="18"/>
       <c r="C230" s="18"/>
-      <c r="D230" s="18" t="s">
-        <v>38</v>
-      </c>
+      <c r="D230" s="18"/>
       <c r="E230" s="18"/>
-      <c r="F230" s="18"/>
+      <c r="F230" s="18" t="s">
+        <v>141</v>
+      </c>
       <c r="G230" s="18"/>
       <c r="H230" s="18"/>
       <c r="I230" s="18"/>
@@ -9630,7 +9557,9 @@
       <c r="C232" s="18"/>
       <c r="D232" s="18"/>
       <c r="E232" s="18"/>
-      <c r="F232" s="18"/>
+      <c r="F232" s="18" t="s">
+        <v>142</v>
+      </c>
       <c r="G232" s="18"/>
       <c r="H232" s="18"/>
       <c r="I232" s="18"/>
@@ -9644,14 +9573,14 @@
     </row>
     <row r="233" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B233" s="18"/>
-      <c r="C233" s="18" t="s">
-        <v>38</v>
-      </c>
+      <c r="C233" s="18"/>
       <c r="D233" s="18"/>
       <c r="E233" s="18"/>
       <c r="F233" s="18"/>
       <c r="G233" s="18"/>
-      <c r="H233" s="18"/>
+      <c r="H233" s="18" t="s">
+        <v>143</v>
+      </c>
       <c r="I233" s="18"/>
       <c r="J233" s="18"/>
       <c r="K233" s="18"/>
@@ -9663,14 +9592,14 @@
     </row>
     <row r="234" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B234" s="18"/>
-      <c r="C234" s="18" t="s">
-        <v>148</v>
-      </c>
+      <c r="C234" s="18"/>
       <c r="D234" s="18"/>
       <c r="E234" s="18"/>
       <c r="F234" s="18"/>
       <c r="G234" s="18"/>
-      <c r="H234" s="18"/>
+      <c r="H234" s="18" t="s">
+        <v>144</v>
+      </c>
       <c r="I234" s="18"/>
       <c r="J234" s="18"/>
       <c r="K234" s="18"/>
@@ -9682,14 +9611,14 @@
     </row>
     <row r="235" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B235" s="18"/>
-      <c r="C235" s="18" t="s">
-        <v>37</v>
-      </c>
+      <c r="C235" s="18"/>
       <c r="D235" s="18"/>
       <c r="E235" s="18"/>
       <c r="F235" s="18"/>
       <c r="G235" s="18"/>
-      <c r="H235" s="18"/>
+      <c r="H235" s="18" t="s">
+        <v>145</v>
+      </c>
       <c r="I235" s="18"/>
       <c r="J235" s="18"/>
       <c r="K235" s="18"/>
@@ -9702,11 +9631,11 @@
     <row r="236" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B236" s="18"/>
       <c r="C236" s="18"/>
-      <c r="D236" s="18" t="s">
-        <v>78</v>
-      </c>
+      <c r="D236" s="18"/>
       <c r="E236" s="18"/>
-      <c r="F236" s="18"/>
+      <c r="F236" s="18" t="s">
+        <v>146</v>
+      </c>
       <c r="G236" s="18"/>
       <c r="H236" s="18"/>
       <c r="I236" s="18"/>
@@ -9722,10 +9651,10 @@
       <c r="B237" s="18"/>
       <c r="C237" s="18"/>
       <c r="D237" s="18"/>
-      <c r="E237" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="F237" s="18"/>
+      <c r="E237" s="18"/>
+      <c r="F237" s="18" t="s">
+        <v>37</v>
+      </c>
       <c r="G237" s="18"/>
       <c r="H237" s="18"/>
       <c r="I237" s="18"/>
@@ -9741,11 +9670,11 @@
       <c r="B238" s="18"/>
       <c r="C238" s="18"/>
       <c r="D238" s="18"/>
-      <c r="E238" s="18" t="s">
-        <v>80</v>
-      </c>
+      <c r="E238" s="18"/>
       <c r="F238" s="18"/>
-      <c r="G238" s="18"/>
+      <c r="G238" s="18" t="s">
+        <v>147</v>
+      </c>
       <c r="H238" s="18"/>
       <c r="I238" s="18"/>
       <c r="J238" s="18"/>
@@ -9759,11 +9688,11 @@
     <row r="239" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B239" s="18"/>
       <c r="C239" s="18"/>
-      <c r="D239" s="18" t="s">
-        <v>81</v>
-      </c>
+      <c r="D239" s="18"/>
       <c r="E239" s="18"/>
-      <c r="F239" s="18"/>
+      <c r="F239" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="G239" s="18"/>
       <c r="H239" s="18"/>
       <c r="I239" s="18"/>
@@ -9780,7 +9709,7 @@
       <c r="C240" s="18"/>
       <c r="D240" s="18"/>
       <c r="E240" s="18" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="F240" s="18"/>
       <c r="G240" s="18"/>
@@ -9797,10 +9726,10 @@
     <row r="241" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B241" s="18"/>
       <c r="C241" s="18"/>
-      <c r="D241" s="18"/>
-      <c r="E241" s="18" t="s">
-        <v>80</v>
-      </c>
+      <c r="D241" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E241" s="18"/>
       <c r="F241" s="18"/>
       <c r="G241" s="18"/>
       <c r="H241" s="18"/>
@@ -9816,9 +9745,7 @@
     <row r="242" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B242" s="18"/>
       <c r="C242" s="18"/>
-      <c r="D242" s="18" t="s">
-        <v>87</v>
-      </c>
+      <c r="D242" s="18"/>
       <c r="E242" s="18"/>
       <c r="F242" s="18"/>
       <c r="G242" s="18"/>
@@ -9836,9 +9763,7 @@
       <c r="B243" s="18"/>
       <c r="C243" s="18"/>
       <c r="D243" s="18"/>
-      <c r="E243" s="18" t="s">
-        <v>150</v>
-      </c>
+      <c r="E243" s="18"/>
       <c r="F243" s="18"/>
       <c r="G243" s="18"/>
       <c r="H243" s="18"/>
@@ -9872,7 +9797,9 @@
     </row>
     <row r="245" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B245" s="18"/>
-      <c r="C245" s="18"/>
+      <c r="C245" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="D245" s="18"/>
       <c r="E245" s="18"/>
       <c r="F245" s="18"/>
@@ -9890,7 +9817,7 @@
     <row r="246" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B246" s="18"/>
       <c r="C246" s="18" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="D246" s="18"/>
       <c r="E246" s="18"/>
@@ -9909,7 +9836,9 @@
     <row r="247" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B247" s="18"/>
       <c r="C247" s="18"/>
-      <c r="D247" s="18"/>
+      <c r="D247" s="18" t="s">
+        <v>78</v>
+      </c>
       <c r="E247" s="18"/>
       <c r="F247" s="18"/>
       <c r="G247" s="18"/>
@@ -9924,12 +9853,12 @@
       <c r="P247" s="18"/>
     </row>
     <row r="248" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B248" s="18" t="s">
-        <v>38</v>
-      </c>
+      <c r="B248" s="18"/>
       <c r="C248" s="18"/>
       <c r="D248" s="18"/>
-      <c r="E248" s="18"/>
+      <c r="E248" s="18" t="s">
+        <v>149</v>
+      </c>
       <c r="F248" s="18"/>
       <c r="G248" s="18"/>
       <c r="H248" s="18"/>
@@ -9946,7 +9875,9 @@
       <c r="B249" s="18"/>
       <c r="C249" s="18"/>
       <c r="D249" s="18"/>
-      <c r="E249" s="18"/>
+      <c r="E249" s="18" t="s">
+        <v>80</v>
+      </c>
       <c r="F249" s="18"/>
       <c r="G249" s="18"/>
       <c r="H249" s="18"/>
@@ -9960,11 +9891,11 @@
       <c r="P249" s="18"/>
     </row>
     <row r="250" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B250" s="18" t="s">
-        <v>151</v>
-      </c>
+      <c r="B250" s="18"/>
       <c r="C250" s="18"/>
-      <c r="D250" s="18"/>
+      <c r="D250" s="18" t="s">
+        <v>81</v>
+      </c>
       <c r="E250" s="18"/>
       <c r="F250" s="18"/>
       <c r="G250" s="18"/>
@@ -9979,12 +9910,12 @@
       <c r="P250" s="18"/>
     </row>
     <row r="251" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B251" s="18" t="s">
-        <v>37</v>
-      </c>
+      <c r="B251" s="18"/>
       <c r="C251" s="18"/>
       <c r="D251" s="18"/>
-      <c r="E251" s="18"/>
+      <c r="E251" s="18" t="s">
+        <v>82</v>
+      </c>
       <c r="F251" s="18"/>
       <c r="G251" s="18"/>
       <c r="H251" s="18"/>
@@ -9999,11 +9930,11 @@
     </row>
     <row r="252" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B252" s="18"/>
-      <c r="C252" s="18" t="s">
-        <v>112</v>
-      </c>
+      <c r="C252" s="18"/>
       <c r="D252" s="18"/>
-      <c r="E252" s="18"/>
+      <c r="E252" s="18" t="s">
+        <v>80</v>
+      </c>
       <c r="F252" s="18"/>
       <c r="G252" s="18"/>
       <c r="H252" s="18"/>
@@ -10018,10 +9949,10 @@
     </row>
     <row r="253" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B253" s="18"/>
-      <c r="C253" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D253" s="18"/>
+      <c r="C253" s="18"/>
+      <c r="D253" s="18" t="s">
+        <v>87</v>
+      </c>
       <c r="E253" s="18"/>
       <c r="F253" s="18"/>
       <c r="G253" s="18"/>
@@ -10037,11 +9968,11 @@
     </row>
     <row r="254" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B254" s="18"/>
-      <c r="C254" s="18" t="s">
-        <v>113</v>
-      </c>
+      <c r="C254" s="18"/>
       <c r="D254" s="18"/>
-      <c r="E254" s="18"/>
+      <c r="E254" s="18" t="s">
+        <v>150</v>
+      </c>
       <c r="F254" s="18"/>
       <c r="G254" s="18"/>
       <c r="H254" s="18"/>
@@ -10057,7 +9988,7 @@
     <row r="255" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B255" s="18"/>
       <c r="C255" s="18" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="D255" s="18"/>
       <c r="E255" s="18"/>
@@ -10093,7 +10024,7 @@
     <row r="257" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B257" s="18"/>
       <c r="C257" s="18" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="D257" s="18"/>
       <c r="E257" s="18"/>
@@ -10111,9 +10042,7 @@
     </row>
     <row r="258" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B258" s="18"/>
-      <c r="C258" s="18" t="s">
-        <v>117</v>
-      </c>
+      <c r="C258" s="18"/>
       <c r="D258" s="18"/>
       <c r="E258" s="18"/>
       <c r="F258" s="18"/>
@@ -10129,10 +10058,10 @@
       <c r="P258" s="18"/>
     </row>
     <row r="259" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B259" s="18"/>
-      <c r="C259" s="18" t="s">
-        <v>118</v>
-      </c>
+      <c r="B259" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C259" s="18"/>
       <c r="D259" s="18"/>
       <c r="E259" s="18"/>
       <c r="F259" s="18"/>
@@ -10149,9 +10078,7 @@
     </row>
     <row r="260" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B260" s="18"/>
-      <c r="C260" s="18" t="s">
-        <v>119</v>
-      </c>
+      <c r="C260" s="18"/>
       <c r="D260" s="18"/>
       <c r="E260" s="18"/>
       <c r="F260" s="18"/>
@@ -10167,10 +10094,10 @@
       <c r="P260" s="18"/>
     </row>
     <row r="261" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B261" s="18"/>
-      <c r="C261" s="18" t="s">
-        <v>120</v>
-      </c>
+      <c r="B261" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C261" s="18"/>
       <c r="D261" s="18"/>
       <c r="E261" s="18"/>
       <c r="F261" s="18"/>
@@ -10186,10 +10113,10 @@
       <c r="P261" s="18"/>
     </row>
     <row r="262" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B262" s="18"/>
-      <c r="C262" s="18" t="s">
-        <v>121</v>
-      </c>
+      <c r="B262" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C262" s="18"/>
       <c r="D262" s="18"/>
       <c r="E262" s="18"/>
       <c r="F262" s="18"/>
@@ -10207,7 +10134,7 @@
     <row r="263" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B263" s="18"/>
       <c r="C263" s="18" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="D263" s="18"/>
       <c r="E263" s="18"/>
@@ -10225,7 +10152,9 @@
     </row>
     <row r="264" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B264" s="18"/>
-      <c r="C264" s="18"/>
+      <c r="C264" s="18" t="s">
+        <v>66</v>
+      </c>
       <c r="D264" s="18"/>
       <c r="E264" s="18"/>
       <c r="F264" s="18"/>
@@ -10243,7 +10172,7 @@
     <row r="265" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B265" s="18"/>
       <c r="C265" s="18" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="D265" s="18"/>
       <c r="E265" s="18"/>
@@ -10262,7 +10191,7 @@
     <row r="266" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B266" s="18"/>
       <c r="C266" s="18" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="D266" s="18"/>
       <c r="E266" s="18"/>
@@ -10280,9 +10209,7 @@
     </row>
     <row r="267" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B267" s="18"/>
-      <c r="C267" s="18" t="s">
-        <v>37</v>
-      </c>
+      <c r="C267" s="18"/>
       <c r="D267" s="18"/>
       <c r="E267" s="18"/>
       <c r="F267" s="18"/>
@@ -10299,10 +10226,10 @@
     </row>
     <row r="268" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B268" s="18"/>
-      <c r="C268" s="18"/>
-      <c r="D268" s="18" t="s">
-        <v>123</v>
-      </c>
+      <c r="C268" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D268" s="18"/>
       <c r="E268" s="18"/>
       <c r="F268" s="18"/>
       <c r="G268" s="18"/>
@@ -10318,10 +10245,10 @@
     </row>
     <row r="269" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B269" s="18"/>
-      <c r="C269" s="18"/>
-      <c r="D269" s="18" t="s">
-        <v>124</v>
-      </c>
+      <c r="C269" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D269" s="18"/>
       <c r="E269" s="18"/>
       <c r="F269" s="18"/>
       <c r="G269" s="18"/>
@@ -10337,10 +10264,10 @@
     </row>
     <row r="270" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B270" s="18"/>
-      <c r="C270" s="18"/>
-      <c r="D270" s="18" t="s">
-        <v>125</v>
-      </c>
+      <c r="C270" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D270" s="18"/>
       <c r="E270" s="18"/>
       <c r="F270" s="18"/>
       <c r="G270" s="18"/>
@@ -10356,10 +10283,10 @@
     </row>
     <row r="271" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B271" s="18"/>
-      <c r="C271" s="18"/>
-      <c r="D271" s="18" t="s">
-        <v>37</v>
-      </c>
+      <c r="C271" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D271" s="18"/>
       <c r="E271" s="18"/>
       <c r="F271" s="18"/>
       <c r="G271" s="18"/>
@@ -10375,7 +10302,9 @@
     </row>
     <row r="272" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B272" s="18"/>
-      <c r="C272" s="18"/>
+      <c r="C272" s="18" t="s">
+        <v>120</v>
+      </c>
       <c r="D272" s="18"/>
       <c r="E272" s="18"/>
       <c r="F272" s="18"/>
@@ -10392,11 +10321,11 @@
     </row>
     <row r="273" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B273" s="18"/>
-      <c r="C273" s="18"/>
+      <c r="C273" s="18" t="s">
+        <v>121</v>
+      </c>
       <c r="D273" s="18"/>
-      <c r="E273" s="18" t="s">
-        <v>127</v>
-      </c>
+      <c r="E273" s="18"/>
       <c r="F273" s="18"/>
       <c r="G273" s="18"/>
       <c r="H273" s="18"/>
@@ -10411,10 +10340,10 @@
     </row>
     <row r="274" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B274" s="18"/>
-      <c r="C274" s="18"/>
-      <c r="D274" s="18" t="s">
-        <v>51</v>
-      </c>
+      <c r="C274" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D274" s="18"/>
       <c r="E274" s="18"/>
       <c r="F274" s="18"/>
       <c r="G274" s="18"/>
@@ -10432,9 +10361,7 @@
       <c r="B275" s="18"/>
       <c r="C275" s="18"/>
       <c r="D275" s="18"/>
-      <c r="E275" s="18" t="s">
-        <v>129</v>
-      </c>
+      <c r="E275" s="18"/>
       <c r="F275" s="18"/>
       <c r="G275" s="18"/>
       <c r="H275" s="18"/>
@@ -10449,10 +10376,10 @@
     </row>
     <row r="276" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B276" s="18"/>
-      <c r="C276" s="18"/>
-      <c r="D276" s="18" t="s">
-        <v>38</v>
-      </c>
+      <c r="C276" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D276" s="18"/>
       <c r="E276" s="18"/>
       <c r="F276" s="18"/>
       <c r="G276" s="18"/>
@@ -10468,7 +10395,9 @@
     </row>
     <row r="277" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B277" s="18"/>
-      <c r="C277" s="18"/>
+      <c r="C277" s="18" t="s">
+        <v>94</v>
+      </c>
       <c r="D277" s="18"/>
       <c r="E277" s="18"/>
       <c r="F277" s="18"/>
@@ -10485,10 +10414,10 @@
     </row>
     <row r="278" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B278" s="18"/>
-      <c r="C278" s="18"/>
-      <c r="D278" s="18" t="s">
-        <v>154</v>
-      </c>
+      <c r="C278" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D278" s="18"/>
       <c r="E278" s="18"/>
       <c r="F278" s="18"/>
       <c r="G278" s="18"/>
@@ -10506,7 +10435,7 @@
       <c r="B279" s="18"/>
       <c r="C279" s="18"/>
       <c r="D279" s="18" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="E279" s="18"/>
       <c r="F279" s="18"/>
@@ -10525,7 +10454,7 @@
       <c r="B280" s="18"/>
       <c r="C280" s="18"/>
       <c r="D280" s="18" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="E280" s="18"/>
       <c r="F280" s="18"/>
@@ -10543,7 +10472,9 @@
     <row r="281" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B281" s="18"/>
       <c r="C281" s="18"/>
-      <c r="D281" s="18"/>
+      <c r="D281" s="18" t="s">
+        <v>125</v>
+      </c>
       <c r="E281" s="18"/>
       <c r="F281" s="18"/>
       <c r="G281" s="18"/>
@@ -10561,7 +10492,7 @@
       <c r="B282" s="18"/>
       <c r="C282" s="18"/>
       <c r="D282" s="18" t="s">
-        <v>157</v>
+        <v>37</v>
       </c>
       <c r="E282" s="18"/>
       <c r="F282" s="18"/>
@@ -10579,9 +10510,7 @@
     <row r="283" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B283" s="18"/>
       <c r="C283" s="18"/>
-      <c r="D283" s="18" t="s">
-        <v>37</v>
-      </c>
+      <c r="D283" s="18"/>
       <c r="E283" s="18"/>
       <c r="F283" s="18"/>
       <c r="G283" s="18"/>
@@ -10600,7 +10529,7 @@
       <c r="C284" s="18"/>
       <c r="D284" s="18"/>
       <c r="E284" s="18" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F284" s="18"/>
       <c r="G284" s="18"/>
@@ -10617,10 +10546,10 @@
     <row r="285" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B285" s="18"/>
       <c r="C285" s="18"/>
-      <c r="D285" s="18"/>
-      <c r="E285" s="18" t="s">
-        <v>158</v>
-      </c>
+      <c r="D285" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E285" s="18"/>
       <c r="F285" s="18"/>
       <c r="G285" s="18"/>
       <c r="H285" s="18"/>
@@ -10638,7 +10567,7 @@
       <c r="C286" s="18"/>
       <c r="D286" s="18"/>
       <c r="E286" s="18" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F286" s="18"/>
       <c r="G286" s="18"/>
@@ -10655,10 +10584,10 @@
     <row r="287" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B287" s="18"/>
       <c r="C287" s="18"/>
-      <c r="D287" s="18"/>
-      <c r="E287" s="18" t="s">
-        <v>134</v>
-      </c>
+      <c r="D287" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E287" s="18"/>
       <c r="F287" s="18"/>
       <c r="G287" s="18"/>
       <c r="H287" s="18"/>
@@ -10675,9 +10604,7 @@
       <c r="B288" s="18"/>
       <c r="C288" s="18"/>
       <c r="D288" s="18"/>
-      <c r="E288" s="18" t="s">
-        <v>37</v>
-      </c>
+      <c r="E288" s="18"/>
       <c r="F288" s="18"/>
       <c r="G288" s="18"/>
       <c r="H288" s="18"/>
@@ -10693,11 +10620,11 @@
     <row r="289" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B289" s="18"/>
       <c r="C289" s="18"/>
-      <c r="D289" s="18"/>
+      <c r="D289" s="18" t="s">
+        <v>154</v>
+      </c>
       <c r="E289" s="18"/>
-      <c r="F289" s="18" t="s">
-        <v>159</v>
-      </c>
+      <c r="F289" s="18"/>
       <c r="G289" s="18"/>
       <c r="H289" s="18"/>
       <c r="I289" s="18"/>
@@ -10712,10 +10639,10 @@
     <row r="290" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B290" s="18"/>
       <c r="C290" s="18"/>
-      <c r="D290" s="18"/>
-      <c r="E290" s="18" t="s">
-        <v>38</v>
-      </c>
+      <c r="D290" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="E290" s="18"/>
       <c r="F290" s="18"/>
       <c r="G290" s="18"/>
       <c r="H290" s="18"/>
@@ -10731,7 +10658,9 @@
     <row r="291" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B291" s="18"/>
       <c r="C291" s="18"/>
-      <c r="D291" s="18"/>
+      <c r="D291" s="18" t="s">
+        <v>156</v>
+      </c>
       <c r="E291" s="18"/>
       <c r="F291" s="18"/>
       <c r="G291" s="18"/>
@@ -10749,9 +10678,7 @@
       <c r="B292" s="18"/>
       <c r="C292" s="18"/>
       <c r="D292" s="18"/>
-      <c r="E292" s="18" t="s">
-        <v>136</v>
-      </c>
+      <c r="E292" s="18"/>
       <c r="F292" s="18"/>
       <c r="G292" s="18"/>
       <c r="H292" s="18"/>
@@ -10767,10 +10694,10 @@
     <row r="293" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B293" s="18"/>
       <c r="C293" s="18"/>
-      <c r="D293" s="18"/>
-      <c r="E293" s="18" t="s">
-        <v>137</v>
-      </c>
+      <c r="D293" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="E293" s="18"/>
       <c r="F293" s="18"/>
       <c r="G293" s="18"/>
       <c r="H293" s="18"/>
@@ -10786,10 +10713,10 @@
     <row r="294" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B294" s="18"/>
       <c r="C294" s="18"/>
-      <c r="D294" s="18"/>
-      <c r="E294" s="18" t="s">
+      <c r="D294" s="18" t="s">
         <v>37</v>
       </c>
+      <c r="E294" s="18"/>
       <c r="F294" s="18"/>
       <c r="G294" s="18"/>
       <c r="H294" s="18"/>
@@ -10806,10 +10733,10 @@
       <c r="B295" s="18"/>
       <c r="C295" s="18"/>
       <c r="D295" s="18"/>
-      <c r="E295" s="18"/>
-      <c r="F295" s="18" t="s">
-        <v>138</v>
-      </c>
+      <c r="E295" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F295" s="18"/>
       <c r="G295" s="18"/>
       <c r="H295" s="18"/>
       <c r="I295" s="18"/>
@@ -10825,10 +10752,10 @@
       <c r="B296" s="18"/>
       <c r="C296" s="18"/>
       <c r="D296" s="18"/>
-      <c r="E296" s="18"/>
-      <c r="F296" s="18" t="s">
-        <v>139</v>
-      </c>
+      <c r="E296" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="F296" s="18"/>
       <c r="G296" s="18"/>
       <c r="H296" s="18"/>
       <c r="I296" s="18"/>
@@ -10844,10 +10771,10 @@
       <c r="B297" s="18"/>
       <c r="C297" s="18"/>
       <c r="D297" s="18"/>
-      <c r="E297" s="18"/>
-      <c r="F297" s="18" t="s">
-        <v>140</v>
-      </c>
+      <c r="E297" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F297" s="18"/>
       <c r="G297" s="18"/>
       <c r="H297" s="18"/>
       <c r="I297" s="18"/>
@@ -10863,10 +10790,10 @@
       <c r="B298" s="18"/>
       <c r="C298" s="18"/>
       <c r="D298" s="18"/>
-      <c r="E298" s="18"/>
-      <c r="F298" s="18" t="s">
-        <v>141</v>
-      </c>
+      <c r="E298" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="F298" s="18"/>
       <c r="G298" s="18"/>
       <c r="H298" s="18"/>
       <c r="I298" s="18"/>
@@ -10882,7 +10809,9 @@
       <c r="B299" s="18"/>
       <c r="C299" s="18"/>
       <c r="D299" s="18"/>
-      <c r="E299" s="18"/>
+      <c r="E299" s="18" t="s">
+        <v>37</v>
+      </c>
       <c r="F299" s="18"/>
       <c r="G299" s="18"/>
       <c r="H299" s="18"/>
@@ -10901,7 +10830,7 @@
       <c r="D300" s="18"/>
       <c r="E300" s="18"/>
       <c r="F300" s="18" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="G300" s="18"/>
       <c r="H300" s="18"/>
@@ -10918,12 +10847,12 @@
       <c r="B301" s="18"/>
       <c r="C301" s="18"/>
       <c r="D301" s="18"/>
-      <c r="E301" s="18"/>
+      <c r="E301" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="F301" s="18"/>
       <c r="G301" s="18"/>
-      <c r="H301" s="18" t="s">
-        <v>143</v>
-      </c>
+      <c r="H301" s="18"/>
       <c r="I301" s="18"/>
       <c r="J301" s="18"/>
       <c r="K301" s="18"/>
@@ -10940,9 +10869,7 @@
       <c r="E302" s="18"/>
       <c r="F302" s="18"/>
       <c r="G302" s="18"/>
-      <c r="H302" s="18" t="s">
-        <v>144</v>
-      </c>
+      <c r="H302" s="18"/>
       <c r="I302" s="18"/>
       <c r="J302" s="18"/>
       <c r="K302" s="18"/>
@@ -10956,12 +10883,12 @@
       <c r="B303" s="18"/>
       <c r="C303" s="18"/>
       <c r="D303" s="18"/>
-      <c r="E303" s="18"/>
+      <c r="E303" s="18" t="s">
+        <v>136</v>
+      </c>
       <c r="F303" s="18"/>
       <c r="G303" s="18"/>
-      <c r="H303" s="18" t="s">
-        <v>145</v>
-      </c>
+      <c r="H303" s="18"/>
       <c r="I303" s="18"/>
       <c r="J303" s="18"/>
       <c r="K303" s="18"/>
@@ -10975,10 +10902,10 @@
       <c r="B304" s="18"/>
       <c r="C304" s="18"/>
       <c r="D304" s="18"/>
-      <c r="E304" s="18"/>
-      <c r="F304" s="18" t="s">
-        <v>146</v>
-      </c>
+      <c r="E304" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F304" s="18"/>
       <c r="G304" s="18"/>
       <c r="H304" s="18"/>
       <c r="I304" s="18"/>
@@ -10994,10 +10921,10 @@
       <c r="B305" s="18"/>
       <c r="C305" s="18"/>
       <c r="D305" s="18"/>
-      <c r="E305" s="18"/>
-      <c r="F305" s="18" t="s">
+      <c r="E305" s="18" t="s">
         <v>37</v>
       </c>
+      <c r="F305" s="18"/>
       <c r="G305" s="18"/>
       <c r="H305" s="18"/>
       <c r="I305" s="18"/>
@@ -11014,10 +10941,10 @@
       <c r="C306" s="18"/>
       <c r="D306" s="18"/>
       <c r="E306" s="18"/>
-      <c r="F306" s="18"/>
-      <c r="G306" s="18" t="s">
-        <v>160</v>
-      </c>
+      <c r="F306" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="G306" s="18"/>
       <c r="H306" s="18"/>
       <c r="I306" s="18"/>
       <c r="J306" s="18"/>
@@ -11034,7 +10961,7 @@
       <c r="D307" s="18"/>
       <c r="E307" s="18"/>
       <c r="F307" s="18" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="G307" s="18"/>
       <c r="H307" s="18"/>
@@ -11051,10 +10978,10 @@
       <c r="B308" s="18"/>
       <c r="C308" s="18"/>
       <c r="D308" s="18"/>
-      <c r="E308" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F308" s="18"/>
+      <c r="E308" s="18"/>
+      <c r="F308" s="18" t="s">
+        <v>140</v>
+      </c>
       <c r="G308" s="18"/>
       <c r="H308" s="18"/>
       <c r="I308" s="18"/>
@@ -11069,11 +10996,11 @@
     <row r="309" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B309" s="18"/>
       <c r="C309" s="18"/>
-      <c r="D309" s="18" t="s">
-        <v>38</v>
-      </c>
+      <c r="D309" s="18"/>
       <c r="E309" s="18"/>
-      <c r="F309" s="18"/>
+      <c r="F309" s="18" t="s">
+        <v>141</v>
+      </c>
       <c r="G309" s="18"/>
       <c r="H309" s="18"/>
       <c r="I309" s="18"/>
@@ -11107,7 +11034,9 @@
       <c r="C311" s="18"/>
       <c r="D311" s="18"/>
       <c r="E311" s="18"/>
-      <c r="F311" s="18"/>
+      <c r="F311" s="18" t="s">
+        <v>142</v>
+      </c>
       <c r="G311" s="18"/>
       <c r="H311" s="18"/>
       <c r="I311" s="18"/>
@@ -11121,14 +11050,14 @@
     </row>
     <row r="312" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B312" s="18"/>
-      <c r="C312" s="18" t="s">
-        <v>38</v>
-      </c>
+      <c r="C312" s="18"/>
       <c r="D312" s="18"/>
       <c r="E312" s="18"/>
       <c r="F312" s="18"/>
       <c r="G312" s="18"/>
-      <c r="H312" s="18"/>
+      <c r="H312" s="18" t="s">
+        <v>143</v>
+      </c>
       <c r="I312" s="18"/>
       <c r="J312" s="18"/>
       <c r="K312" s="18"/>
@@ -11140,14 +11069,14 @@
     </row>
     <row r="313" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B313" s="18"/>
-      <c r="C313" s="18" t="s">
-        <v>148</v>
-      </c>
+      <c r="C313" s="18"/>
       <c r="D313" s="18"/>
       <c r="E313" s="18"/>
       <c r="F313" s="18"/>
       <c r="G313" s="18"/>
-      <c r="H313" s="18"/>
+      <c r="H313" s="18" t="s">
+        <v>144</v>
+      </c>
       <c r="I313" s="18"/>
       <c r="J313" s="18"/>
       <c r="K313" s="18"/>
@@ -11159,14 +11088,14 @@
     </row>
     <row r="314" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B314" s="18"/>
-      <c r="C314" s="18" t="s">
-        <v>37</v>
-      </c>
+      <c r="C314" s="18"/>
       <c r="D314" s="18"/>
       <c r="E314" s="18"/>
       <c r="F314" s="18"/>
       <c r="G314" s="18"/>
-      <c r="H314" s="18"/>
+      <c r="H314" s="18" t="s">
+        <v>145</v>
+      </c>
       <c r="I314" s="18"/>
       <c r="J314" s="18"/>
       <c r="K314" s="18"/>
@@ -11179,11 +11108,11 @@
     <row r="315" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B315" s="18"/>
       <c r="C315" s="18"/>
-      <c r="D315" s="18" t="s">
-        <v>78</v>
-      </c>
+      <c r="D315" s="18"/>
       <c r="E315" s="18"/>
-      <c r="F315" s="18"/>
+      <c r="F315" s="18" t="s">
+        <v>146</v>
+      </c>
       <c r="G315" s="18"/>
       <c r="H315" s="18"/>
       <c r="I315" s="18"/>
@@ -11199,10 +11128,10 @@
       <c r="B316" s="18"/>
       <c r="C316" s="18"/>
       <c r="D316" s="18"/>
-      <c r="E316" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="F316" s="18"/>
+      <c r="E316" s="18"/>
+      <c r="F316" s="18" t="s">
+        <v>37</v>
+      </c>
       <c r="G316" s="18"/>
       <c r="H316" s="18"/>
       <c r="I316" s="18"/>
@@ -11218,11 +11147,11 @@
       <c r="B317" s="18"/>
       <c r="C317" s="18"/>
       <c r="D317" s="18"/>
-      <c r="E317" s="18" t="s">
-        <v>80</v>
-      </c>
+      <c r="E317" s="18"/>
       <c r="F317" s="18"/>
-      <c r="G317" s="18"/>
+      <c r="G317" s="18" t="s">
+        <v>160</v>
+      </c>
       <c r="H317" s="18"/>
       <c r="I317" s="18"/>
       <c r="J317" s="18"/>
@@ -11236,11 +11165,11 @@
     <row r="318" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B318" s="18"/>
       <c r="C318" s="18"/>
-      <c r="D318" s="18" t="s">
-        <v>81</v>
-      </c>
+      <c r="D318" s="18"/>
       <c r="E318" s="18"/>
-      <c r="F318" s="18"/>
+      <c r="F318" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="G318" s="18"/>
       <c r="H318" s="18"/>
       <c r="I318" s="18"/>
@@ -11257,7 +11186,7 @@
       <c r="C319" s="18"/>
       <c r="D319" s="18"/>
       <c r="E319" s="18" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="F319" s="18"/>
       <c r="G319" s="18"/>
@@ -11274,10 +11203,10 @@
     <row r="320" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B320" s="18"/>
       <c r="C320" s="18"/>
-      <c r="D320" s="18"/>
-      <c r="E320" s="18" t="s">
-        <v>80</v>
-      </c>
+      <c r="D320" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E320" s="18"/>
       <c r="F320" s="18"/>
       <c r="G320" s="18"/>
       <c r="H320" s="18"/>
@@ -11293,9 +11222,7 @@
     <row r="321" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B321" s="18"/>
       <c r="C321" s="18"/>
-      <c r="D321" s="18" t="s">
-        <v>87</v>
-      </c>
+      <c r="D321" s="18"/>
       <c r="E321" s="18"/>
       <c r="F321" s="18"/>
       <c r="G321" s="18"/>
@@ -11313,9 +11240,7 @@
       <c r="B322" s="18"/>
       <c r="C322" s="18"/>
       <c r="D322" s="18"/>
-      <c r="E322" s="18" t="s">
-        <v>161</v>
-      </c>
+      <c r="E322" s="18"/>
       <c r="F322" s="18"/>
       <c r="G322" s="18"/>
       <c r="H322" s="18"/>
@@ -11349,7 +11274,9 @@
     </row>
     <row r="324" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B324" s="18"/>
-      <c r="C324" s="18"/>
+      <c r="C324" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="D324" s="18"/>
       <c r="E324" s="18"/>
       <c r="F324" s="18"/>
@@ -11367,7 +11294,7 @@
     <row r="325" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B325" s="18"/>
       <c r="C325" s="18" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="D325" s="18"/>
       <c r="E325" s="18"/>
@@ -11384,11 +11311,11 @@
       <c r="P325" s="18"/>
     </row>
     <row r="326" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B326" s="18" t="s">
-        <v>38</v>
-      </c>
+      <c r="B326" s="18"/>
       <c r="C326" s="18"/>
-      <c r="D326" s="18"/>
+      <c r="D326" s="18" t="s">
+        <v>78</v>
+      </c>
       <c r="E326" s="18"/>
       <c r="F326" s="18"/>
       <c r="G326" s="18"/>
@@ -11406,7 +11333,9 @@
       <c r="B327" s="18"/>
       <c r="C327" s="18"/>
       <c r="D327" s="18"/>
-      <c r="E327" s="18"/>
+      <c r="E327" s="18" t="s">
+        <v>149</v>
+      </c>
       <c r="F327" s="18"/>
       <c r="G327" s="18"/>
       <c r="H327" s="18"/>
@@ -11420,12 +11349,12 @@
       <c r="P327" s="18"/>
     </row>
     <row r="328" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B328" s="18" t="s">
-        <v>162</v>
-      </c>
+      <c r="B328" s="18"/>
       <c r="C328" s="18"/>
       <c r="D328" s="18"/>
-      <c r="E328" s="18"/>
+      <c r="E328" s="18" t="s">
+        <v>80</v>
+      </c>
       <c r="F328" s="18"/>
       <c r="G328" s="18"/>
       <c r="H328" s="18"/>
@@ -11439,11 +11368,11 @@
       <c r="P328" s="18"/>
     </row>
     <row r="329" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B329" s="18" t="s">
-        <v>37</v>
-      </c>
+      <c r="B329" s="18"/>
       <c r="C329" s="18"/>
-      <c r="D329" s="18"/>
+      <c r="D329" s="18" t="s">
+        <v>81</v>
+      </c>
       <c r="E329" s="18"/>
       <c r="F329" s="18"/>
       <c r="G329" s="18"/>
@@ -11461,7 +11390,9 @@
       <c r="B330" s="18"/>
       <c r="C330" s="18"/>
       <c r="D330" s="18"/>
-      <c r="E330" s="18"/>
+      <c r="E330" s="18" t="s">
+        <v>82</v>
+      </c>
       <c r="F330" s="18"/>
       <c r="G330" s="18"/>
       <c r="H330" s="18"/>
@@ -11476,11 +11407,11 @@
     </row>
     <row r="331" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B331" s="18"/>
-      <c r="C331" s="18" t="s">
-        <v>163</v>
-      </c>
+      <c r="C331" s="18"/>
       <c r="D331" s="18"/>
-      <c r="E331" s="18"/>
+      <c r="E331" s="18" t="s">
+        <v>80</v>
+      </c>
       <c r="F331" s="18"/>
       <c r="G331" s="18"/>
       <c r="H331" s="18"/>
@@ -11495,10 +11426,10 @@
     </row>
     <row r="332" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B332" s="18"/>
-      <c r="C332" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D332" s="18"/>
+      <c r="C332" s="18"/>
+      <c r="D332" s="18" t="s">
+        <v>87</v>
+      </c>
       <c r="E332" s="18"/>
       <c r="F332" s="18"/>
       <c r="G332" s="18"/>
@@ -11515,10 +11446,10 @@
     <row r="333" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B333" s="18"/>
       <c r="C333" s="18"/>
-      <c r="D333" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="E333" s="18"/>
+      <c r="D333" s="18"/>
+      <c r="E333" s="18" t="s">
+        <v>161</v>
+      </c>
       <c r="F333" s="18"/>
       <c r="G333" s="18"/>
       <c r="H333" s="18"/>
@@ -11533,10 +11464,10 @@
     </row>
     <row r="334" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B334" s="18"/>
-      <c r="C334" s="18"/>
-      <c r="D334" s="18" t="s">
-        <v>164</v>
-      </c>
+      <c r="C334" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D334" s="18"/>
       <c r="E334" s="18"/>
       <c r="F334" s="18"/>
       <c r="G334" s="18"/>
@@ -11552,9 +11483,7 @@
     </row>
     <row r="335" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B335" s="18"/>
-      <c r="C335" s="18" t="s">
-        <v>38</v>
-      </c>
+      <c r="C335" s="18"/>
       <c r="D335" s="18"/>
       <c r="E335" s="18"/>
       <c r="F335" s="18"/>
@@ -11572,7 +11501,7 @@
     <row r="336" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B336" s="18"/>
       <c r="C336" s="18" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D336" s="18"/>
       <c r="E336" s="18"/>
@@ -11589,10 +11518,10 @@
       <c r="P336" s="18"/>
     </row>
     <row r="337" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B337" s="18"/>
-      <c r="C337" s="18" t="s">
-        <v>166</v>
-      </c>
+      <c r="B337" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C337" s="18"/>
       <c r="D337" s="18"/>
       <c r="E337" s="18"/>
       <c r="F337" s="18"/>
@@ -11609,9 +11538,7 @@
     </row>
     <row r="338" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B338" s="18"/>
-      <c r="C338" s="18" t="s">
-        <v>167</v>
-      </c>
+      <c r="C338" s="18"/>
       <c r="D338" s="18"/>
       <c r="E338" s="18"/>
       <c r="F338" s="18"/>
@@ -11627,10 +11554,10 @@
       <c r="P338" s="18"/>
     </row>
     <row r="339" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B339" s="18"/>
-      <c r="C339" s="18" t="s">
-        <v>168</v>
-      </c>
+      <c r="B339" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C339" s="18"/>
       <c r="D339" s="18"/>
       <c r="E339" s="18"/>
       <c r="F339" s="18"/>
@@ -11646,7 +11573,9 @@
       <c r="P339" s="18"/>
     </row>
     <row r="340" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B340" s="18"/>
+      <c r="B340" s="18" t="s">
+        <v>37</v>
+      </c>
       <c r="C340" s="18"/>
       <c r="D340" s="18"/>
       <c r="E340" s="18"/>
@@ -11664,9 +11593,7 @@
     </row>
     <row r="341" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B341" s="18"/>
-      <c r="C341" s="18" t="s">
-        <v>169</v>
-      </c>
+      <c r="C341" s="18"/>
       <c r="D341" s="18"/>
       <c r="E341" s="18"/>
       <c r="F341" s="18"/>
@@ -11684,7 +11611,7 @@
     <row r="342" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B342" s="18"/>
       <c r="C342" s="18" t="s">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="D342" s="18"/>
       <c r="E342" s="18"/>
@@ -11702,7 +11629,9 @@
     </row>
     <row r="343" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B343" s="18"/>
-      <c r="C343" s="18"/>
+      <c r="C343" s="18" t="s">
+        <v>37</v>
+      </c>
       <c r="D343" s="18"/>
       <c r="E343" s="18"/>
       <c r="F343" s="18"/>
@@ -11719,10 +11648,10 @@
     </row>
     <row r="344" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B344" s="18"/>
-      <c r="C344" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="D344" s="18"/>
+      <c r="C344" s="18"/>
+      <c r="D344" s="18" t="s">
+        <v>149</v>
+      </c>
       <c r="E344" s="18"/>
       <c r="F344" s="18"/>
       <c r="G344" s="18"/>
@@ -11738,10 +11667,10 @@
     </row>
     <row r="345" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B345" s="18"/>
-      <c r="C345" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D345" s="18"/>
+      <c r="C345" s="18"/>
+      <c r="D345" s="18" t="s">
+        <v>164</v>
+      </c>
       <c r="E345" s="18"/>
       <c r="F345" s="18"/>
       <c r="G345" s="18"/>
@@ -11757,10 +11686,10 @@
     </row>
     <row r="346" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B346" s="18"/>
-      <c r="C346" s="18"/>
-      <c r="D346" s="18" t="s">
-        <v>171</v>
-      </c>
+      <c r="C346" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D346" s="18"/>
       <c r="E346" s="18"/>
       <c r="F346" s="18"/>
       <c r="G346" s="18"/>
@@ -11777,7 +11706,7 @@
     <row r="347" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B347" s="18"/>
       <c r="C347" s="18" t="s">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="D347" s="18"/>
       <c r="E347" s="18"/>
@@ -11795,10 +11724,10 @@
     </row>
     <row r="348" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B348" s="18"/>
-      <c r="C348" s="18"/>
-      <c r="D348" s="18" t="s">
-        <v>172</v>
-      </c>
+      <c r="C348" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D348" s="18"/>
       <c r="E348" s="18"/>
       <c r="F348" s="18"/>
       <c r="G348" s="18"/>
@@ -11815,7 +11744,7 @@
     <row r="349" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B349" s="18"/>
       <c r="C349" s="18" t="s">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="D349" s="18"/>
       <c r="E349" s="18"/>
@@ -11833,7 +11762,9 @@
     </row>
     <row r="350" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B350" s="18"/>
-      <c r="C350" s="18"/>
+      <c r="C350" s="18" t="s">
+        <v>168</v>
+      </c>
       <c r="D350" s="18"/>
       <c r="E350" s="18"/>
       <c r="F350" s="18"/>
@@ -11850,9 +11781,7 @@
     </row>
     <row r="351" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B351" s="18"/>
-      <c r="C351" s="18" t="s">
-        <v>173</v>
-      </c>
+      <c r="C351" s="18"/>
       <c r="D351" s="18"/>
       <c r="E351" s="18"/>
       <c r="F351" s="18"/>
@@ -11870,7 +11799,7 @@
     <row r="352" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B352" s="18"/>
       <c r="C352" s="18" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D352" s="18"/>
       <c r="E352" s="18"/>
@@ -11888,7 +11817,9 @@
     </row>
     <row r="353" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B353" s="18"/>
-      <c r="C353" s="18"/>
+      <c r="C353" s="18" t="s">
+        <v>66</v>
+      </c>
       <c r="D353" s="18"/>
       <c r="E353" s="18"/>
       <c r="F353" s="18"/>
@@ -11905,9 +11836,7 @@
     </row>
     <row r="354" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B354" s="18"/>
-      <c r="C354" s="18" t="s">
-        <v>175</v>
-      </c>
+      <c r="C354" s="18"/>
       <c r="D354" s="18"/>
       <c r="E354" s="18"/>
       <c r="F354" s="18"/>
@@ -11925,7 +11854,7 @@
     <row r="355" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B355" s="18"/>
       <c r="C355" s="18" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="D355" s="18"/>
       <c r="E355" s="18"/>
@@ -11964,7 +11893,7 @@
       <c r="B357" s="18"/>
       <c r="C357" s="18"/>
       <c r="D357" s="18" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E357" s="18"/>
       <c r="F357" s="18"/>
@@ -11981,10 +11910,10 @@
     </row>
     <row r="358" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B358" s="18"/>
-      <c r="C358" s="18"/>
-      <c r="D358" s="18" t="s">
-        <v>177</v>
-      </c>
+      <c r="C358" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D358" s="18"/>
       <c r="E358" s="18"/>
       <c r="F358" s="18"/>
       <c r="G358" s="18"/>
@@ -12002,7 +11931,7 @@
       <c r="B359" s="18"/>
       <c r="C359" s="18"/>
       <c r="D359" s="18" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="E359" s="18"/>
       <c r="F359" s="18"/>
@@ -12019,11 +11948,11 @@
     </row>
     <row r="360" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B360" s="18"/>
-      <c r="C360" s="18"/>
+      <c r="C360" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="D360" s="18"/>
-      <c r="E360" s="18" t="s">
-        <v>178</v>
-      </c>
+      <c r="E360" s="18"/>
       <c r="F360" s="18"/>
       <c r="G360" s="18"/>
       <c r="H360" s="18"/>
@@ -12040,9 +11969,7 @@
       <c r="B361" s="18"/>
       <c r="C361" s="18"/>
       <c r="D361" s="18"/>
-      <c r="E361" s="18" t="s">
-        <v>179</v>
-      </c>
+      <c r="E361" s="18"/>
       <c r="F361" s="18"/>
       <c r="G361" s="18"/>
       <c r="H361" s="18"/>
@@ -12057,7 +11984,9 @@
     </row>
     <row r="362" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B362" s="18"/>
-      <c r="C362" s="18"/>
+      <c r="C362" s="18" t="s">
+        <v>173</v>
+      </c>
       <c r="D362" s="18"/>
       <c r="E362" s="18"/>
       <c r="F362" s="18"/>
@@ -12074,11 +12003,11 @@
     </row>
     <row r="363" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B363" s="18"/>
-      <c r="C363" s="18"/>
+      <c r="C363" s="18" t="s">
+        <v>174</v>
+      </c>
       <c r="D363" s="18"/>
-      <c r="E363" s="18" t="s">
-        <v>180</v>
-      </c>
+      <c r="E363" s="18"/>
       <c r="F363" s="18"/>
       <c r="G363" s="18"/>
       <c r="H363" s="18"/>
@@ -12095,9 +12024,7 @@
       <c r="B364" s="18"/>
       <c r="C364" s="18"/>
       <c r="D364" s="18"/>
-      <c r="E364" s="18" t="s">
-        <v>181</v>
-      </c>
+      <c r="E364" s="18"/>
       <c r="F364" s="18"/>
       <c r="G364" s="18"/>
       <c r="H364" s="18"/>
@@ -12112,11 +12039,11 @@
     </row>
     <row r="365" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B365" s="18"/>
-      <c r="C365" s="18"/>
+      <c r="C365" s="18" t="s">
+        <v>175</v>
+      </c>
       <c r="D365" s="18"/>
-      <c r="E365" s="18" t="s">
-        <v>182</v>
-      </c>
+      <c r="E365" s="18"/>
       <c r="F365" s="18"/>
       <c r="G365" s="18"/>
       <c r="H365" s="18"/>
@@ -12131,10 +12058,10 @@
     </row>
     <row r="366" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B366" s="18"/>
-      <c r="C366" s="18"/>
-      <c r="D366" s="18" t="s">
-        <v>38</v>
-      </c>
+      <c r="C366" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D366" s="18"/>
       <c r="E366" s="18"/>
       <c r="F366" s="18"/>
       <c r="G366" s="18"/>
@@ -12151,7 +12078,7 @@
     <row r="367" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B367" s="18"/>
       <c r="C367" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D367" s="18"/>
       <c r="E367" s="18"/>
@@ -12169,10 +12096,10 @@
     </row>
     <row r="368" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B368" s="18"/>
-      <c r="C368" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="D368" s="18"/>
+      <c r="C368" s="18"/>
+      <c r="D368" s="18" t="s">
+        <v>176</v>
+      </c>
       <c r="E368" s="18"/>
       <c r="F368" s="18"/>
       <c r="G368" s="18"/>
@@ -12187,11 +12114,11 @@
       <c r="P368" s="18"/>
     </row>
     <row r="369" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B369" s="18" t="s">
-        <v>38</v>
-      </c>
+      <c r="B369" s="18"/>
       <c r="C369" s="18"/>
-      <c r="D369" s="18"/>
+      <c r="D369" s="18" t="s">
+        <v>177</v>
+      </c>
       <c r="E369" s="18"/>
       <c r="F369" s="18"/>
       <c r="G369" s="18"/>
@@ -12208,7 +12135,9 @@
     <row r="370" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B370" s="18"/>
       <c r="C370" s="18"/>
-      <c r="D370" s="18"/>
+      <c r="D370" s="18" t="s">
+        <v>37</v>
+      </c>
       <c r="E370" s="18"/>
       <c r="F370" s="18"/>
       <c r="G370" s="18"/>
@@ -12226,7 +12155,9 @@
       <c r="B371" s="18"/>
       <c r="C371" s="18"/>
       <c r="D371" s="18"/>
-      <c r="E371" s="18"/>
+      <c r="E371" s="18" t="s">
+        <v>178</v>
+      </c>
       <c r="F371" s="18"/>
       <c r="G371" s="18"/>
       <c r="H371" s="18"/>
@@ -12243,7 +12174,9 @@
       <c r="B372" s="18"/>
       <c r="C372" s="18"/>
       <c r="D372" s="18"/>
-      <c r="E372" s="18"/>
+      <c r="E372" s="18" t="s">
+        <v>179</v>
+      </c>
       <c r="F372" s="18"/>
       <c r="G372" s="18"/>
       <c r="H372" s="18"/>
@@ -12257,9 +12190,7 @@
       <c r="P372" s="18"/>
     </row>
     <row r="373" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B373" s="18" t="s">
-        <v>183</v>
-      </c>
+      <c r="B373" s="18"/>
       <c r="C373" s="18"/>
       <c r="D373" s="18"/>
       <c r="E373" s="18"/>
@@ -12276,12 +12207,12 @@
       <c r="P373" s="18"/>
     </row>
     <row r="374" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B374" s="18" t="s">
-        <v>37</v>
-      </c>
+      <c r="B374" s="18"/>
       <c r="C374" s="18"/>
       <c r="D374" s="18"/>
-      <c r="E374" s="18"/>
+      <c r="E374" s="18" t="s">
+        <v>180</v>
+      </c>
       <c r="F374" s="18"/>
       <c r="G374" s="18"/>
       <c r="H374" s="18"/>
@@ -12298,7 +12229,9 @@
       <c r="B375" s="18"/>
       <c r="C375" s="18"/>
       <c r="D375" s="18"/>
-      <c r="E375" s="18"/>
+      <c r="E375" s="18" t="s">
+        <v>181</v>
+      </c>
       <c r="F375" s="18"/>
       <c r="G375" s="18"/>
       <c r="H375" s="18"/>
@@ -12313,11 +12246,11 @@
     </row>
     <row r="376" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B376" s="18"/>
-      <c r="C376" s="18" t="s">
-        <v>184</v>
-      </c>
+      <c r="C376" s="18"/>
       <c r="D376" s="18"/>
-      <c r="E376" s="18"/>
+      <c r="E376" s="18" t="s">
+        <v>182</v>
+      </c>
       <c r="F376" s="18"/>
       <c r="G376" s="18"/>
       <c r="H376" s="18"/>
@@ -12332,10 +12265,10 @@
     </row>
     <row r="377" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B377" s="18"/>
-      <c r="C377" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D377" s="18"/>
+      <c r="C377" s="18"/>
+      <c r="D377" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="E377" s="18"/>
       <c r="F377" s="18"/>
       <c r="G377" s="18"/>
@@ -12351,10 +12284,10 @@
     </row>
     <row r="378" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B378" s="18"/>
-      <c r="C378" s="18"/>
-      <c r="D378" s="18" t="s">
-        <v>149</v>
-      </c>
+      <c r="C378" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D378" s="18"/>
       <c r="E378" s="18"/>
       <c r="F378" s="18"/>
       <c r="G378" s="18"/>
@@ -12370,10 +12303,10 @@
     </row>
     <row r="379" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B379" s="18"/>
-      <c r="C379" s="18"/>
-      <c r="D379" s="18" t="s">
-        <v>185</v>
-      </c>
+      <c r="C379" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D379" s="18"/>
       <c r="E379" s="18"/>
       <c r="F379" s="18"/>
       <c r="G379" s="18"/>
@@ -12388,10 +12321,10 @@
       <c r="P379" s="18"/>
     </row>
     <row r="380" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B380" s="18"/>
-      <c r="C380" s="18" t="s">
+      <c r="B380" s="18" t="s">
         <v>38</v>
       </c>
+      <c r="C380" s="18"/>
       <c r="D380" s="18"/>
       <c r="E380" s="18"/>
       <c r="F380" s="18"/>
@@ -12425,9 +12358,7 @@
     </row>
     <row r="382" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B382" s="18"/>
-      <c r="C382" s="18" t="s">
-        <v>118</v>
-      </c>
+      <c r="C382" s="18"/>
       <c r="D382" s="18"/>
       <c r="E382" s="18"/>
       <c r="F382" s="18"/>
@@ -12444,9 +12375,7 @@
     </row>
     <row r="383" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B383" s="18"/>
-      <c r="C383" s="18" t="s">
-        <v>186</v>
-      </c>
+      <c r="C383" s="18"/>
       <c r="D383" s="18"/>
       <c r="E383" s="18"/>
       <c r="F383" s="18"/>
@@ -12462,10 +12391,10 @@
       <c r="P383" s="18"/>
     </row>
     <row r="384" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B384" s="18"/>
-      <c r="C384" s="18" t="s">
-        <v>119</v>
-      </c>
+      <c r="B384" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C384" s="18"/>
       <c r="D384" s="18"/>
       <c r="E384" s="18"/>
       <c r="F384" s="18"/>
@@ -12481,10 +12410,10 @@
       <c r="P384" s="18"/>
     </row>
     <row r="385" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B385" s="18"/>
-      <c r="C385" s="18" t="s">
-        <v>187</v>
-      </c>
+      <c r="B385" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C385" s="18"/>
       <c r="D385" s="18"/>
       <c r="E385" s="18"/>
       <c r="F385" s="18"/>
@@ -12501,9 +12430,7 @@
     </row>
     <row r="386" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B386" s="18"/>
-      <c r="C386" s="18" t="s">
-        <v>121</v>
-      </c>
+      <c r="C386" s="18"/>
       <c r="D386" s="18"/>
       <c r="E386" s="18"/>
       <c r="F386" s="18"/>
@@ -12521,7 +12448,7 @@
     <row r="387" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B387" s="18"/>
       <c r="C387" s="18" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D387" s="18"/>
       <c r="E387" s="18"/>
@@ -12540,7 +12467,7 @@
     <row r="388" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B388" s="18"/>
       <c r="C388" s="18" t="s">
-        <v>189</v>
+        <v>37</v>
       </c>
       <c r="D388" s="18"/>
       <c r="E388" s="18"/>
@@ -12558,10 +12485,10 @@
     </row>
     <row r="389" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B389" s="18"/>
-      <c r="C389" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="D389" s="18"/>
+      <c r="C389" s="18"/>
+      <c r="D389" s="18" t="s">
+        <v>149</v>
+      </c>
       <c r="E389" s="18"/>
       <c r="F389" s="18"/>
       <c r="G389" s="18"/>
@@ -12578,7 +12505,9 @@
     <row r="390" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B390" s="18"/>
       <c r="C390" s="18"/>
-      <c r="D390" s="18"/>
+      <c r="D390" s="18" t="s">
+        <v>185</v>
+      </c>
       <c r="E390" s="18"/>
       <c r="F390" s="18"/>
       <c r="G390" s="18"/>
@@ -12595,7 +12524,7 @@
     <row r="391" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B391" s="18"/>
       <c r="C391" s="18" t="s">
-        <v>191</v>
+        <v>38</v>
       </c>
       <c r="D391" s="18"/>
       <c r="E391" s="18"/>
@@ -12613,9 +12542,7 @@
     </row>
     <row r="392" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B392" s="18"/>
-      <c r="C392" s="18" t="s">
-        <v>192</v>
-      </c>
+      <c r="C392" s="18"/>
       <c r="D392" s="18"/>
       <c r="E392" s="18"/>
       <c r="F392" s="18"/>
@@ -12632,7 +12559,9 @@
     </row>
     <row r="393" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B393" s="18"/>
-      <c r="C393" s="18"/>
+      <c r="C393" s="18" t="s">
+        <v>118</v>
+      </c>
       <c r="D393" s="18"/>
       <c r="E393" s="18"/>
       <c r="F393" s="18"/>
@@ -12649,7 +12578,9 @@
     </row>
     <row r="394" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B394" s="18"/>
-      <c r="C394" s="18"/>
+      <c r="C394" s="18" t="s">
+        <v>186</v>
+      </c>
       <c r="D394" s="18"/>
       <c r="E394" s="18"/>
       <c r="F394" s="18"/>
@@ -12667,7 +12598,7 @@
     <row r="395" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B395" s="18"/>
       <c r="C395" s="18" t="s">
-        <v>193</v>
+        <v>119</v>
       </c>
       <c r="D395" s="18"/>
       <c r="E395" s="18"/>
@@ -12686,7 +12617,7 @@
     <row r="396" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B396" s="18"/>
       <c r="C396" s="18" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D396" s="18"/>
       <c r="E396" s="18"/>
@@ -12704,7 +12635,9 @@
     </row>
     <row r="397" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B397" s="18"/>
-      <c r="C397" s="18"/>
+      <c r="C397" s="18" t="s">
+        <v>121</v>
+      </c>
       <c r="D397" s="18"/>
       <c r="E397" s="18"/>
       <c r="F397" s="18"/>
@@ -12722,7 +12655,7 @@
     <row r="398" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B398" s="18"/>
       <c r="C398" s="18" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D398" s="18"/>
       <c r="E398" s="18"/>
@@ -12740,11 +12673,11 @@
     </row>
     <row r="399" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B399" s="18"/>
-      <c r="C399" s="18"/>
+      <c r="C399" s="18" t="s">
+        <v>189</v>
+      </c>
       <c r="D399" s="18"/>
-      <c r="E399" s="18" t="s">
-        <v>196</v>
-      </c>
+      <c r="E399" s="18"/>
       <c r="F399" s="18"/>
       <c r="G399" s="18"/>
       <c r="H399" s="18"/>
@@ -12759,11 +12692,11 @@
     </row>
     <row r="400" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B400" s="18"/>
-      <c r="C400" s="18"/>
+      <c r="C400" s="18" t="s">
+        <v>190</v>
+      </c>
       <c r="D400" s="18"/>
-      <c r="E400" s="18" t="s">
-        <v>197</v>
-      </c>
+      <c r="E400" s="18"/>
       <c r="F400" s="18"/>
       <c r="G400" s="18"/>
       <c r="H400" s="18"/>
@@ -12780,9 +12713,7 @@
       <c r="B401" s="18"/>
       <c r="C401" s="18"/>
       <c r="D401" s="18"/>
-      <c r="E401" s="18" t="s">
-        <v>197</v>
-      </c>
+      <c r="E401" s="18"/>
       <c r="F401" s="18"/>
       <c r="G401" s="18"/>
       <c r="H401" s="18"/>
@@ -12797,11 +12728,11 @@
     </row>
     <row r="402" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B402" s="18"/>
-      <c r="C402" s="18"/>
+      <c r="C402" s="18" t="s">
+        <v>191</v>
+      </c>
       <c r="D402" s="18"/>
-      <c r="E402" s="18" t="s">
-        <v>196</v>
-      </c>
+      <c r="E402" s="18"/>
       <c r="F402" s="18"/>
       <c r="G402" s="18"/>
       <c r="H402" s="18"/>
@@ -12816,11 +12747,11 @@
     </row>
     <row r="403" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B403" s="18"/>
-      <c r="C403" s="18"/>
+      <c r="C403" s="18" t="s">
+        <v>192</v>
+      </c>
       <c r="D403" s="18"/>
-      <c r="E403" s="18" t="s">
-        <v>198</v>
-      </c>
+      <c r="E403" s="18"/>
       <c r="F403" s="18"/>
       <c r="G403" s="18"/>
       <c r="H403" s="18"/>
@@ -12837,9 +12768,7 @@
       <c r="B404" s="18"/>
       <c r="C404" s="18"/>
       <c r="D404" s="18"/>
-      <c r="E404" s="18" t="s">
-        <v>199</v>
-      </c>
+      <c r="E404" s="18"/>
       <c r="F404" s="18"/>
       <c r="G404" s="18"/>
       <c r="H404" s="18"/>
@@ -12854,9 +12783,7 @@
     </row>
     <row r="405" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B405" s="18"/>
-      <c r="C405" s="18" t="s">
-        <v>200</v>
-      </c>
+      <c r="C405" s="18"/>
       <c r="D405" s="18"/>
       <c r="E405" s="18"/>
       <c r="F405" s="18"/>
@@ -12874,7 +12801,7 @@
     <row r="406" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B406" s="18"/>
       <c r="C406" s="18" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D406" s="18"/>
       <c r="E406" s="18"/>
@@ -12893,7 +12820,7 @@
     <row r="407" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B407" s="18"/>
       <c r="C407" s="18" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D407" s="18"/>
       <c r="E407" s="18"/>
@@ -12911,9 +12838,7 @@
     </row>
     <row r="408" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B408" s="18"/>
-      <c r="C408" s="18" t="s">
-        <v>203</v>
-      </c>
+      <c r="C408" s="18"/>
       <c r="D408" s="18"/>
       <c r="E408" s="18"/>
       <c r="F408" s="18"/>
@@ -12931,7 +12856,7 @@
     <row r="409" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B409" s="18"/>
       <c r="C409" s="18" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D409" s="18"/>
       <c r="E409" s="18"/>
@@ -12949,11 +12874,11 @@
     </row>
     <row r="410" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B410" s="18"/>
-      <c r="C410" s="18" t="s">
-        <v>205</v>
-      </c>
+      <c r="C410" s="18"/>
       <c r="D410" s="18"/>
-      <c r="E410" s="18"/>
+      <c r="E410" s="18" t="s">
+        <v>196</v>
+      </c>
       <c r="F410" s="18"/>
       <c r="G410" s="18"/>
       <c r="H410" s="18"/>
@@ -12968,11 +12893,11 @@
     </row>
     <row r="411" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B411" s="18"/>
-      <c r="C411" s="18" t="s">
-        <v>206</v>
-      </c>
+      <c r="C411" s="18"/>
       <c r="D411" s="18"/>
-      <c r="E411" s="18"/>
+      <c r="E411" s="18" t="s">
+        <v>197</v>
+      </c>
       <c r="F411" s="18"/>
       <c r="G411" s="18"/>
       <c r="H411" s="18"/>
@@ -12989,7 +12914,9 @@
       <c r="B412" s="18"/>
       <c r="C412" s="18"/>
       <c r="D412" s="18"/>
-      <c r="E412" s="18"/>
+      <c r="E412" s="18" t="s">
+        <v>197</v>
+      </c>
       <c r="F412" s="18"/>
       <c r="G412" s="18"/>
       <c r="H412" s="18"/>
@@ -13004,11 +12931,11 @@
     </row>
     <row r="413" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B413" s="18"/>
-      <c r="C413" s="18" t="s">
-        <v>207</v>
-      </c>
+      <c r="C413" s="18"/>
       <c r="D413" s="18"/>
-      <c r="E413" s="18"/>
+      <c r="E413" s="18" t="s">
+        <v>196</v>
+      </c>
       <c r="F413" s="18"/>
       <c r="G413" s="18"/>
       <c r="H413" s="18"/>
@@ -13023,11 +12950,11 @@
     </row>
     <row r="414" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B414" s="18"/>
-      <c r="C414" s="18" t="s">
-        <v>208</v>
-      </c>
+      <c r="C414" s="18"/>
       <c r="D414" s="18"/>
-      <c r="E414" s="18"/>
+      <c r="E414" s="18" t="s">
+        <v>198</v>
+      </c>
       <c r="F414" s="18"/>
       <c r="G414" s="18"/>
       <c r="H414" s="18"/>
@@ -13042,11 +12969,11 @@
     </row>
     <row r="415" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B415" s="18"/>
-      <c r="C415" s="18" t="s">
-        <v>209</v>
-      </c>
+      <c r="C415" s="18"/>
       <c r="D415" s="18"/>
-      <c r="E415" s="18"/>
+      <c r="E415" s="18" t="s">
+        <v>199</v>
+      </c>
       <c r="F415" s="18"/>
       <c r="G415" s="18"/>
       <c r="H415" s="18"/>
@@ -13062,7 +12989,7 @@
     <row r="416" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B416" s="18"/>
       <c r="C416" s="18" t="s">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="D416" s="18"/>
       <c r="E416" s="18"/>
@@ -13080,10 +13007,10 @@
     </row>
     <row r="417" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B417" s="18"/>
-      <c r="C417" s="18"/>
-      <c r="D417" s="18" t="s">
-        <v>210</v>
-      </c>
+      <c r="C417" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="D417" s="18"/>
       <c r="E417" s="18"/>
       <c r="F417" s="18"/>
       <c r="G417" s="18"/>
@@ -13099,10 +13026,10 @@
     </row>
     <row r="418" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B418" s="18"/>
-      <c r="C418" s="18"/>
-      <c r="D418" s="18" t="s">
-        <v>211</v>
-      </c>
+      <c r="C418" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="D418" s="18"/>
       <c r="E418" s="18"/>
       <c r="F418" s="18"/>
       <c r="G418" s="18"/>
@@ -13119,7 +13046,7 @@
     <row r="419" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B419" s="18"/>
       <c r="C419" s="18" t="s">
-        <v>38</v>
+        <v>203</v>
       </c>
       <c r="D419" s="18"/>
       <c r="E419" s="18"/>
@@ -13138,7 +13065,7 @@
     <row r="420" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B420" s="18"/>
       <c r="C420" s="18" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D420" s="18"/>
       <c r="E420" s="18"/>
@@ -13157,7 +13084,7 @@
     <row r="421" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B421" s="18"/>
       <c r="C421" s="18" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D421" s="18"/>
       <c r="E421" s="18"/>
@@ -13176,7 +13103,7 @@
     <row r="422" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B422" s="18"/>
       <c r="C422" s="18" t="s">
-        <v>139</v>
+        <v>206</v>
       </c>
       <c r="D422" s="18"/>
       <c r="E422" s="18"/>
@@ -13194,9 +13121,7 @@
     </row>
     <row r="423" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B423" s="18"/>
-      <c r="C423" s="18" t="s">
-        <v>214</v>
-      </c>
+      <c r="C423" s="18"/>
       <c r="D423" s="18"/>
       <c r="E423" s="18"/>
       <c r="F423" s="18"/>
@@ -13214,7 +13139,7 @@
     <row r="424" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B424" s="18"/>
       <c r="C424" s="18" t="s">
-        <v>141</v>
+        <v>207</v>
       </c>
       <c r="D424" s="18"/>
       <c r="E424" s="18"/>
@@ -13233,7 +13158,7 @@
     <row r="425" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B425" s="18"/>
       <c r="C425" s="18" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D425" s="18"/>
       <c r="E425" s="18"/>
@@ -13251,7 +13176,9 @@
     </row>
     <row r="426" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B426" s="18"/>
-      <c r="C426" s="18"/>
+      <c r="C426" s="18" t="s">
+        <v>209</v>
+      </c>
       <c r="D426" s="18"/>
       <c r="E426" s="18"/>
       <c r="F426" s="18"/>
@@ -13269,7 +13196,7 @@
     <row r="427" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B427" s="18"/>
       <c r="C427" s="18" t="s">
-        <v>216</v>
+        <v>37</v>
       </c>
       <c r="D427" s="18"/>
       <c r="E427" s="18"/>
@@ -13288,7 +13215,9 @@
     <row r="428" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B428" s="18"/>
       <c r="C428" s="18"/>
-      <c r="D428" s="18"/>
+      <c r="D428" s="18" t="s">
+        <v>210</v>
+      </c>
       <c r="E428" s="18"/>
       <c r="F428" s="18"/>
       <c r="G428" s="18"/>
@@ -13304,10 +13233,10 @@
     </row>
     <row r="429" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B429" s="18"/>
-      <c r="C429" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="D429" s="18"/>
+      <c r="C429" s="18"/>
+      <c r="D429" s="18" t="s">
+        <v>211</v>
+      </c>
       <c r="E429" s="18"/>
       <c r="F429" s="18"/>
       <c r="G429" s="18"/>
@@ -13324,7 +13253,7 @@
     <row r="430" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B430" s="18"/>
       <c r="C430" s="18" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="D430" s="18"/>
       <c r="E430" s="18"/>
@@ -13343,7 +13272,7 @@
     <row r="431" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B431" s="18"/>
       <c r="C431" s="18" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D431" s="18"/>
       <c r="E431" s="18"/>
@@ -13362,7 +13291,7 @@
     <row r="432" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B432" s="18"/>
       <c r="C432" s="18" t="s">
-        <v>113</v>
+        <v>213</v>
       </c>
       <c r="D432" s="18"/>
       <c r="E432" s="18"/>
@@ -13381,7 +13310,7 @@
     <row r="433" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B433" s="18"/>
       <c r="C433" s="18" t="s">
-        <v>219</v>
+        <v>139</v>
       </c>
       <c r="D433" s="18"/>
       <c r="E433" s="18"/>
@@ -13399,7 +13328,9 @@
     </row>
     <row r="434" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B434" s="18"/>
-      <c r="C434" s="18"/>
+      <c r="C434" s="18" t="s">
+        <v>214</v>
+      </c>
       <c r="D434" s="18"/>
       <c r="E434" s="18"/>
       <c r="F434" s="18"/>
@@ -13417,7 +13348,7 @@
     <row r="435" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B435" s="18"/>
       <c r="C435" s="18" t="s">
-        <v>220</v>
+        <v>141</v>
       </c>
       <c r="D435" s="18"/>
       <c r="E435" s="18"/>
@@ -13436,7 +13367,7 @@
     <row r="436" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B436" s="18"/>
       <c r="C436" s="18" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D436" s="18"/>
       <c r="E436" s="18"/>
@@ -13454,9 +13385,7 @@
     </row>
     <row r="437" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B437" s="18"/>
-      <c r="C437" s="18" t="s">
-        <v>222</v>
-      </c>
+      <c r="C437" s="18"/>
       <c r="D437" s="18"/>
       <c r="E437" s="18"/>
       <c r="F437" s="18"/>
@@ -13474,14 +13403,12 @@
     <row r="438" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B438" s="18"/>
       <c r="C438" s="18" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D438" s="18"/>
       <c r="E438" s="18"/>
       <c r="F438" s="18"/>
-      <c r="G438" s="18" t="s">
-        <v>224</v>
-      </c>
+      <c r="G438" s="18"/>
       <c r="H438" s="18"/>
       <c r="I438" s="18"/>
       <c r="J438" s="18"/>
@@ -13494,9 +13421,7 @@
     </row>
     <row r="439" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B439" s="18"/>
-      <c r="C439" s="18" t="s">
-        <v>225</v>
-      </c>
+      <c r="C439" s="18"/>
       <c r="D439" s="18"/>
       <c r="E439" s="18"/>
       <c r="F439" s="18"/>
@@ -13514,7 +13439,7 @@
     <row r="440" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B440" s="18"/>
       <c r="C440" s="18" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D440" s="18"/>
       <c r="E440" s="18"/>
@@ -13533,7 +13458,7 @@
     <row r="441" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B441" s="18"/>
       <c r="C441" s="18" t="s">
-        <v>227</v>
+        <v>66</v>
       </c>
       <c r="D441" s="18"/>
       <c r="E441" s="18"/>
@@ -13552,7 +13477,7 @@
     <row r="442" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B442" s="18"/>
       <c r="C442" s="18" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D442" s="18"/>
       <c r="E442" s="18"/>
@@ -13570,7 +13495,9 @@
     </row>
     <row r="443" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B443" s="18"/>
-      <c r="C443" s="18"/>
+      <c r="C443" s="18" t="s">
+        <v>113</v>
+      </c>
       <c r="D443" s="18"/>
       <c r="E443" s="18"/>
       <c r="F443" s="18"/>
@@ -13588,7 +13515,7 @@
     <row r="444" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B444" s="18"/>
       <c r="C444" s="18" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D444" s="18"/>
       <c r="E444" s="18"/>
@@ -13606,9 +13533,7 @@
     </row>
     <row r="445" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B445" s="18"/>
-      <c r="C445" s="18" t="s">
-        <v>230</v>
-      </c>
+      <c r="C445" s="18"/>
       <c r="D445" s="18"/>
       <c r="E445" s="18"/>
       <c r="F445" s="18"/>
@@ -13626,7 +13551,7 @@
     <row r="446" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B446" s="18"/>
       <c r="C446" s="18" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="D446" s="18"/>
       <c r="E446" s="18"/>
@@ -13644,7 +13569,9 @@
     </row>
     <row r="447" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B447" s="18"/>
-      <c r="C447" s="18"/>
+      <c r="C447" s="18" t="s">
+        <v>221</v>
+      </c>
       <c r="D447" s="18"/>
       <c r="E447" s="18"/>
       <c r="F447" s="18"/>
@@ -13662,7 +13589,7 @@
     <row r="448" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B448" s="18"/>
       <c r="C448" s="18" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D448" s="18"/>
       <c r="E448" s="18"/>
@@ -13681,12 +13608,14 @@
     <row r="449" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B449" s="18"/>
       <c r="C449" s="18" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D449" s="18"/>
       <c r="E449" s="18"/>
       <c r="F449" s="18"/>
-      <c r="G449" s="18"/>
+      <c r="G449" s="18" t="s">
+        <v>224</v>
+      </c>
       <c r="H449" s="18"/>
       <c r="I449" s="18"/>
       <c r="J449" s="18"/>
@@ -13700,7 +13629,7 @@
     <row r="450" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B450" s="18"/>
       <c r="C450" s="18" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D450" s="18"/>
       <c r="E450" s="18"/>
@@ -13719,7 +13648,7 @@
     <row r="451" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B451" s="18"/>
       <c r="C451" s="18" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D451" s="18"/>
       <c r="E451" s="18"/>
@@ -13738,7 +13667,7 @@
     <row r="452" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B452" s="18"/>
       <c r="C452" s="18" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D452" s="18"/>
       <c r="E452" s="18"/>
@@ -13757,7 +13686,7 @@
     <row r="453" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B453" s="18"/>
       <c r="C453" s="18" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D453" s="18"/>
       <c r="E453" s="18"/>
@@ -13775,9 +13704,7 @@
     </row>
     <row r="454" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B454" s="18"/>
-      <c r="C454" s="18" t="s">
-        <v>238</v>
-      </c>
+      <c r="C454" s="18"/>
       <c r="D454" s="18"/>
       <c r="E454" s="18"/>
       <c r="F454" s="18"/>
@@ -13795,7 +13722,7 @@
     <row r="455" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B455" s="18"/>
       <c r="C455" s="18" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D455" s="18"/>
       <c r="E455" s="18"/>
@@ -13814,7 +13741,7 @@
     <row r="456" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B456" s="18"/>
       <c r="C456" s="18" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D456" s="18"/>
       <c r="E456" s="18"/>
@@ -13833,7 +13760,7 @@
     <row r="457" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B457" s="18"/>
       <c r="C457" s="18" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D457" s="18"/>
       <c r="E457" s="18"/>
@@ -13851,9 +13778,7 @@
     </row>
     <row r="458" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B458" s="18"/>
-      <c r="C458" s="18" t="s">
-        <v>242</v>
-      </c>
+      <c r="C458" s="18"/>
       <c r="D458" s="18"/>
       <c r="E458" s="18"/>
       <c r="F458" s="18"/>
@@ -13871,7 +13796,7 @@
     <row r="459" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B459" s="18"/>
       <c r="C459" s="18" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D459" s="18"/>
       <c r="E459" s="18"/>
@@ -13890,7 +13815,7 @@
     <row r="460" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B460" s="18"/>
       <c r="C460" s="18" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="D460" s="18"/>
       <c r="E460" s="18"/>
@@ -13908,7 +13833,9 @@
     </row>
     <row r="461" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B461" s="18"/>
-      <c r="C461" s="18"/>
+      <c r="C461" s="18" t="s">
+        <v>234</v>
+      </c>
       <c r="D461" s="18"/>
       <c r="E461" s="18"/>
       <c r="F461" s="18"/>
@@ -13926,7 +13853,7 @@
     <row r="462" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B462" s="18"/>
       <c r="C462" s="18" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D462" s="18"/>
       <c r="E462" s="18"/>
@@ -13945,7 +13872,7 @@
     <row r="463" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B463" s="18"/>
       <c r="C463" s="18" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D463" s="18"/>
       <c r="E463" s="18"/>
@@ -13964,7 +13891,7 @@
     <row r="464" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B464" s="18"/>
       <c r="C464" s="18" t="s">
-        <v>37</v>
+        <v>237</v>
       </c>
       <c r="D464" s="18"/>
       <c r="E464" s="18"/>
@@ -13982,10 +13909,10 @@
     </row>
     <row r="465" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B465" s="18"/>
-      <c r="C465" s="18"/>
-      <c r="D465" s="18" t="s">
-        <v>247</v>
-      </c>
+      <c r="C465" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="D465" s="18"/>
       <c r="E465" s="18"/>
       <c r="F465" s="18"/>
       <c r="G465" s="18"/>
@@ -14002,7 +13929,7 @@
     <row r="466" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B466" s="18"/>
       <c r="C466" s="18" t="s">
-        <v>38</v>
+        <v>239</v>
       </c>
       <c r="D466" s="18"/>
       <c r="E466" s="18"/>
@@ -14020,7 +13947,9 @@
     </row>
     <row r="467" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B467" s="18"/>
-      <c r="C467" s="18"/>
+      <c r="C467" s="18" t="s">
+        <v>240</v>
+      </c>
       <c r="D467" s="18"/>
       <c r="E467" s="18"/>
       <c r="F467" s="18"/>
@@ -14038,7 +13967,7 @@
     <row r="468" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B468" s="18"/>
       <c r="C468" s="18" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D468" s="18"/>
       <c r="E468" s="18"/>
@@ -14057,7 +13986,7 @@
     <row r="469" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B469" s="18"/>
       <c r="C469" s="18" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D469" s="18"/>
       <c r="E469" s="18"/>
@@ -14076,7 +14005,7 @@
     <row r="470" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B470" s="18"/>
       <c r="C470" s="18" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D470" s="18"/>
       <c r="E470" s="18"/>
@@ -14095,7 +14024,7 @@
     <row r="471" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B471" s="18"/>
       <c r="C471" s="18" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D471" s="18"/>
       <c r="E471" s="18"/>
@@ -14112,9 +14041,7 @@
       <c r="P471" s="18"/>
     </row>
     <row r="472" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B472" s="18" t="s">
-        <v>38</v>
-      </c>
+      <c r="B472" s="18"/>
       <c r="C472" s="18"/>
       <c r="D472" s="18"/>
       <c r="E472" s="18"/>
@@ -14132,7 +14059,9 @@
     </row>
     <row r="473" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B473" s="18"/>
-      <c r="C473" s="18"/>
+      <c r="C473" s="18" t="s">
+        <v>245</v>
+      </c>
       <c r="D473" s="18"/>
       <c r="E473" s="18"/>
       <c r="F473" s="18"/>
@@ -14149,7 +14078,9 @@
     </row>
     <row r="474" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B474" s="18"/>
-      <c r="C474" s="18"/>
+      <c r="C474" s="18" t="s">
+        <v>246</v>
+      </c>
       <c r="D474" s="18"/>
       <c r="E474" s="18"/>
       <c r="F474" s="18"/>
@@ -14165,10 +14096,10 @@
       <c r="P474" s="18"/>
     </row>
     <row r="475" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B475" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="C475" s="18"/>
+      <c r="B475" s="18"/>
+      <c r="C475" s="18" t="s">
+        <v>37</v>
+      </c>
       <c r="D475" s="18"/>
       <c r="E475" s="18"/>
       <c r="F475" s="18"/>
@@ -14184,11 +14115,11 @@
       <c r="P475" s="18"/>
     </row>
     <row r="476" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B476" s="20" t="s">
-        <v>253</v>
-      </c>
+      <c r="B476" s="18"/>
       <c r="C476" s="18"/>
-      <c r="D476" s="18"/>
+      <c r="D476" s="18" t="s">
+        <v>247</v>
+      </c>
       <c r="E476" s="18"/>
       <c r="F476" s="18"/>
       <c r="G476" s="18"/>
@@ -14203,10 +14134,10 @@
       <c r="P476" s="18"/>
     </row>
     <row r="477" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B477" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C477" s="18"/>
+      <c r="B477" s="18"/>
+      <c r="C477" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="D477" s="18"/>
       <c r="E477" s="18"/>
       <c r="F477" s="18"/>
@@ -14223,9 +14154,7 @@
     </row>
     <row r="478" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B478" s="18"/>
-      <c r="C478" s="18" t="s">
-        <v>254</v>
-      </c>
+      <c r="C478" s="18"/>
       <c r="D478" s="18"/>
       <c r="E478" s="18"/>
       <c r="F478" s="18"/>
@@ -14243,7 +14172,7 @@
     <row r="479" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B479" s="18"/>
       <c r="C479" s="18" t="s">
-        <v>37</v>
+        <v>248</v>
       </c>
       <c r="D479" s="18"/>
       <c r="E479" s="18"/>
@@ -14261,10 +14190,10 @@
     </row>
     <row r="480" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B480" s="18"/>
-      <c r="C480" s="18"/>
-      <c r="D480" s="18" t="s">
-        <v>255</v>
-      </c>
+      <c r="C480" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="D480" s="18"/>
       <c r="E480" s="18"/>
       <c r="F480" s="18"/>
       <c r="G480" s="18"/>
@@ -14280,10 +14209,10 @@
     </row>
     <row r="481" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B481" s="18"/>
-      <c r="C481" s="18"/>
-      <c r="D481" s="18" t="s">
-        <v>185</v>
-      </c>
+      <c r="C481" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="D481" s="18"/>
       <c r="E481" s="18"/>
       <c r="F481" s="18"/>
       <c r="G481" s="18"/>
@@ -14300,7 +14229,7 @@
     <row r="482" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B482" s="18"/>
       <c r="C482" s="18" t="s">
-        <v>38</v>
+        <v>251</v>
       </c>
       <c r="D482" s="18"/>
       <c r="E482" s="18"/>
@@ -14317,7 +14246,9 @@
       <c r="P482" s="18"/>
     </row>
     <row r="483" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B483" s="18"/>
+      <c r="B483" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="C483" s="18"/>
       <c r="D483" s="18"/>
       <c r="E483" s="18"/>
@@ -14335,9 +14266,7 @@
     </row>
     <row r="484" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B484" s="18"/>
-      <c r="C484" s="18" t="s">
-        <v>256</v>
-      </c>
+      <c r="C484" s="18"/>
       <c r="D484" s="18"/>
       <c r="E484" s="18"/>
       <c r="F484" s="18"/>
@@ -14354,9 +14283,7 @@
     </row>
     <row r="485" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B485" s="18"/>
-      <c r="C485" s="18" t="s">
-        <v>257</v>
-      </c>
+      <c r="C485" s="18"/>
       <c r="D485" s="18"/>
       <c r="E485" s="18"/>
       <c r="F485" s="18"/>
@@ -14372,10 +14299,10 @@
       <c r="P485" s="18"/>
     </row>
     <row r="486" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B486" s="18"/>
-      <c r="C486" s="18" t="s">
-        <v>258</v>
-      </c>
+      <c r="B486" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="C486" s="18"/>
       <c r="D486" s="18"/>
       <c r="E486" s="18"/>
       <c r="F486" s="18"/>
@@ -14391,10 +14318,10 @@
       <c r="P486" s="18"/>
     </row>
     <row r="487" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B487" s="18"/>
-      <c r="C487" s="18" t="s">
-        <v>259</v>
-      </c>
+      <c r="B487" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="C487" s="18"/>
       <c r="D487" s="18"/>
       <c r="E487" s="18"/>
       <c r="F487" s="18"/>
@@ -14410,10 +14337,10 @@
       <c r="P487" s="18"/>
     </row>
     <row r="488" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B488" s="18"/>
-      <c r="C488" s="18" t="s">
-        <v>118</v>
-      </c>
+      <c r="B488" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C488" s="18"/>
       <c r="D488" s="18"/>
       <c r="E488" s="18"/>
       <c r="F488" s="18"/>
@@ -14431,7 +14358,7 @@
     <row r="489" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B489" s="18"/>
       <c r="C489" s="18" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D489" s="18"/>
       <c r="E489" s="18"/>
@@ -14450,7 +14377,7 @@
     <row r="490" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B490" s="18"/>
       <c r="C490" s="18" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="D490" s="18"/>
       <c r="E490" s="18"/>
@@ -14468,16 +14395,16 @@
     </row>
     <row r="491" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B491" s="18"/>
-      <c r="C491" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="D491" s="20"/>
-      <c r="E491" s="20"/>
-      <c r="F491" s="20"/>
-      <c r="G491" s="20"/>
-      <c r="H491" s="20"/>
-      <c r="I491" s="20"/>
-      <c r="J491" s="20"/>
+      <c r="C491" s="18"/>
+      <c r="D491" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="E491" s="18"/>
+      <c r="F491" s="18"/>
+      <c r="G491" s="18"/>
+      <c r="H491" s="18"/>
+      <c r="I491" s="18"/>
+      <c r="J491" s="18"/>
       <c r="K491" s="18"/>
       <c r="L491" s="18"/>
       <c r="M491" s="18"/>
@@ -14487,16 +14414,16 @@
     </row>
     <row r="492" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B492" s="18"/>
-      <c r="C492" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="D492" s="20"/>
-      <c r="E492" s="20"/>
-      <c r="F492" s="20"/>
-      <c r="G492" s="20"/>
-      <c r="H492" s="20"/>
-      <c r="I492" s="20"/>
-      <c r="J492" s="20"/>
+      <c r="C492" s="18"/>
+      <c r="D492" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="E492" s="18"/>
+      <c r="F492" s="18"/>
+      <c r="G492" s="18"/>
+      <c r="H492" s="18"/>
+      <c r="I492" s="18"/>
+      <c r="J492" s="18"/>
       <c r="K492" s="18"/>
       <c r="L492" s="18"/>
       <c r="M492" s="18"/>
@@ -14507,7 +14434,7 @@
     <row r="493" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B493" s="18"/>
       <c r="C493" s="18" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="D493" s="18"/>
       <c r="E493" s="18"/>
@@ -14525,9 +14452,7 @@
     </row>
     <row r="494" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B494" s="18"/>
-      <c r="C494" s="18" t="s">
-        <v>66</v>
-      </c>
+      <c r="C494" s="18"/>
       <c r="D494" s="18"/>
       <c r="E494" s="18"/>
       <c r="F494" s="18"/>
@@ -14545,7 +14470,7 @@
     <row r="495" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B495" s="18"/>
       <c r="C495" s="18" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D495" s="18"/>
       <c r="E495" s="18"/>
@@ -14564,7 +14489,7 @@
     <row r="496" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B496" s="18"/>
       <c r="C496" s="18" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D496" s="18"/>
       <c r="E496" s="18"/>
@@ -14583,7 +14508,7 @@
     <row r="497" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B497" s="18"/>
       <c r="C497" s="18" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D497" s="18"/>
       <c r="E497" s="18"/>
@@ -14602,7 +14527,7 @@
     <row r="498" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B498" s="18"/>
       <c r="C498" s="18" t="s">
-        <v>37</v>
+        <v>259</v>
       </c>
       <c r="D498" s="18"/>
       <c r="E498" s="18"/>
@@ -14620,10 +14545,10 @@
     </row>
     <row r="499" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B499" s="18"/>
-      <c r="C499" s="18"/>
-      <c r="D499" s="18" t="s">
-        <v>266</v>
-      </c>
+      <c r="C499" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D499" s="18"/>
       <c r="E499" s="18"/>
       <c r="F499" s="18"/>
       <c r="G499" s="18"/>
@@ -14639,10 +14564,10 @@
     </row>
     <row r="500" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B500" s="18"/>
-      <c r="C500" s="18"/>
-      <c r="D500" s="18" t="s">
-        <v>267</v>
-      </c>
+      <c r="C500" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="D500" s="18"/>
       <c r="E500" s="18"/>
       <c r="F500" s="18"/>
       <c r="G500" s="18"/>
@@ -14658,10 +14583,10 @@
     </row>
     <row r="501" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B501" s="18"/>
-      <c r="C501" s="18"/>
-      <c r="D501" s="18" t="s">
-        <v>268</v>
-      </c>
+      <c r="C501" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D501" s="18"/>
       <c r="E501" s="18"/>
       <c r="F501" s="18"/>
       <c r="G501" s="18"/>
@@ -14677,16 +14602,16 @@
     </row>
     <row r="502" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B502" s="18"/>
-      <c r="C502" s="18"/>
-      <c r="D502" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="E502" s="18"/>
-      <c r="F502" s="18"/>
-      <c r="G502" s="18"/>
-      <c r="H502" s="18"/>
-      <c r="I502" s="18"/>
-      <c r="J502" s="18"/>
+      <c r="C502" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="D502" s="20"/>
+      <c r="E502" s="20"/>
+      <c r="F502" s="20"/>
+      <c r="G502" s="20"/>
+      <c r="H502" s="20"/>
+      <c r="I502" s="20"/>
+      <c r="J502" s="20"/>
       <c r="K502" s="18"/>
       <c r="L502" s="18"/>
       <c r="M502" s="18"/>
@@ -14696,16 +14621,16 @@
     </row>
     <row r="503" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B503" s="18"/>
-      <c r="C503" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D503" s="18"/>
-      <c r="E503" s="18"/>
-      <c r="F503" s="18"/>
-      <c r="G503" s="18"/>
-      <c r="H503" s="18"/>
-      <c r="I503" s="18"/>
-      <c r="J503" s="18"/>
+      <c r="C503" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="D503" s="20"/>
+      <c r="E503" s="20"/>
+      <c r="F503" s="20"/>
+      <c r="G503" s="20"/>
+      <c r="H503" s="20"/>
+      <c r="I503" s="20"/>
+      <c r="J503" s="20"/>
       <c r="K503" s="18"/>
       <c r="L503" s="18"/>
       <c r="M503" s="18"/>
@@ -14715,10 +14640,10 @@
     </row>
     <row r="504" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B504" s="18"/>
-      <c r="C504" s="18"/>
-      <c r="D504" s="18" t="s">
-        <v>270</v>
-      </c>
+      <c r="C504" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D504" s="18"/>
       <c r="E504" s="18"/>
       <c r="F504" s="18"/>
       <c r="G504" s="18"/>
@@ -14734,10 +14659,10 @@
     </row>
     <row r="505" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B505" s="18"/>
-      <c r="C505" s="18"/>
-      <c r="D505" s="18" t="s">
-        <v>271</v>
-      </c>
+      <c r="C505" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D505" s="18"/>
       <c r="E505" s="18"/>
       <c r="F505" s="18"/>
       <c r="G505" s="18"/>
@@ -14753,10 +14678,10 @@
     </row>
     <row r="506" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B506" s="18"/>
-      <c r="C506" s="18"/>
-      <c r="D506" s="18" t="s">
-        <v>272</v>
-      </c>
+      <c r="C506" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="D506" s="18"/>
       <c r="E506" s="18"/>
       <c r="F506" s="18"/>
       <c r="G506" s="18"/>
@@ -14772,10 +14697,10 @@
     </row>
     <row r="507" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B507" s="18"/>
-      <c r="C507" s="18"/>
-      <c r="D507" s="18" t="s">
-        <v>273</v>
-      </c>
+      <c r="C507" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="D507" s="18"/>
       <c r="E507" s="18"/>
       <c r="F507" s="18"/>
       <c r="G507" s="18"/>
@@ -14792,7 +14717,7 @@
     <row r="508" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B508" s="18"/>
       <c r="C508" s="18" t="s">
-        <v>38</v>
+        <v>265</v>
       </c>
       <c r="D508" s="18"/>
       <c r="E508" s="18"/>
@@ -14811,7 +14736,7 @@
     <row r="509" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B509" s="18"/>
       <c r="C509" s="18" t="s">
-        <v>274</v>
+        <v>37</v>
       </c>
       <c r="D509" s="18"/>
       <c r="E509" s="18"/>
@@ -14829,10 +14754,10 @@
     </row>
     <row r="510" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B510" s="18"/>
-      <c r="C510" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="D510" s="18"/>
+      <c r="C510" s="18"/>
+      <c r="D510" s="18" t="s">
+        <v>266</v>
+      </c>
       <c r="E510" s="18"/>
       <c r="F510" s="18"/>
       <c r="G510" s="18"/>
@@ -14849,7 +14774,9 @@
     <row r="511" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B511" s="18"/>
       <c r="C511" s="18"/>
-      <c r="D511" s="18"/>
+      <c r="D511" s="18" t="s">
+        <v>267</v>
+      </c>
       <c r="E511" s="18"/>
       <c r="F511" s="18"/>
       <c r="G511" s="18"/>
@@ -14865,10 +14792,10 @@
     </row>
     <row r="512" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B512" s="18"/>
-      <c r="C512" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="D512" s="18"/>
+      <c r="C512" s="18"/>
+      <c r="D512" s="18" t="s">
+        <v>268</v>
+      </c>
       <c r="E512" s="18"/>
       <c r="F512" s="18"/>
       <c r="G512" s="18"/>
@@ -14884,10 +14811,10 @@
     </row>
     <row r="513" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B513" s="18"/>
-      <c r="C513" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="D513" s="18"/>
+      <c r="C513" s="18"/>
+      <c r="D513" s="18" t="s">
+        <v>269</v>
+      </c>
       <c r="E513" s="18"/>
       <c r="F513" s="18"/>
       <c r="G513" s="18"/>
@@ -14904,7 +14831,7 @@
     <row r="514" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B514" s="18"/>
       <c r="C514" s="18" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D514" s="18"/>
       <c r="E514" s="18"/>
@@ -14924,7 +14851,7 @@
       <c r="B515" s="18"/>
       <c r="C515" s="18"/>
       <c r="D515" s="18" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E515" s="18"/>
       <c r="F515" s="18"/>
@@ -14943,7 +14870,7 @@
       <c r="B516" s="18"/>
       <c r="C516" s="18"/>
       <c r="D516" s="18" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E516" s="18"/>
       <c r="F516" s="18"/>
@@ -14961,7 +14888,9 @@
     <row r="517" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B517" s="18"/>
       <c r="C517" s="18"/>
-      <c r="D517" s="18"/>
+      <c r="D517" s="18" t="s">
+        <v>272</v>
+      </c>
       <c r="E517" s="18"/>
       <c r="F517" s="18"/>
       <c r="G517" s="18"/>
@@ -14979,7 +14908,7 @@
       <c r="B518" s="18"/>
       <c r="C518" s="18"/>
       <c r="D518" s="18" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E518" s="18"/>
       <c r="F518" s="18"/>
@@ -14996,10 +14925,10 @@
     </row>
     <row r="519" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B519" s="18"/>
-      <c r="C519" s="18"/>
-      <c r="D519" s="18" t="s">
-        <v>281</v>
-      </c>
+      <c r="C519" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D519" s="18"/>
       <c r="E519" s="18"/>
       <c r="F519" s="18"/>
       <c r="G519" s="18"/>
@@ -15015,10 +14944,10 @@
     </row>
     <row r="520" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B520" s="18"/>
-      <c r="C520" s="18"/>
-      <c r="D520" s="18" t="s">
-        <v>37</v>
-      </c>
+      <c r="C520" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="D520" s="18"/>
       <c r="E520" s="18"/>
       <c r="F520" s="18"/>
       <c r="G520" s="18"/>
@@ -15034,11 +14963,11 @@
     </row>
     <row r="521" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B521" s="18"/>
-      <c r="C521" s="18"/>
+      <c r="C521" s="18" t="s">
+        <v>275</v>
+      </c>
       <c r="D521" s="18"/>
-      <c r="E521" s="18" t="s">
-        <v>282</v>
-      </c>
+      <c r="E521" s="18"/>
       <c r="F521" s="18"/>
       <c r="G521" s="18"/>
       <c r="H521" s="18"/>
@@ -15056,9 +14985,7 @@
       <c r="C522" s="18"/>
       <c r="D522" s="18"/>
       <c r="E522" s="18"/>
-      <c r="F522" s="18" t="s">
-        <v>80</v>
-      </c>
+      <c r="F522" s="18"/>
       <c r="G522" s="18"/>
       <c r="H522" s="18"/>
       <c r="I522" s="18"/>
@@ -15072,11 +14999,11 @@
     </row>
     <row r="523" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B523" s="18"/>
-      <c r="C523" s="18"/>
+      <c r="C523" s="18" t="s">
+        <v>276</v>
+      </c>
       <c r="D523" s="18"/>
-      <c r="E523" s="18" t="s">
-        <v>38</v>
-      </c>
+      <c r="E523" s="18"/>
       <c r="F523" s="18"/>
       <c r="G523" s="18"/>
       <c r="H523" s="18"/>
@@ -15091,10 +15018,10 @@
     </row>
     <row r="524" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B524" s="18"/>
-      <c r="C524" s="18"/>
-      <c r="D524" s="18" t="s">
-        <v>38</v>
-      </c>
+      <c r="C524" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="D524" s="18"/>
       <c r="E524" s="18"/>
       <c r="F524" s="18"/>
       <c r="G524" s="18"/>
@@ -15110,10 +15037,10 @@
     </row>
     <row r="525" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B525" s="18"/>
-      <c r="C525" s="18"/>
-      <c r="D525" s="18" t="s">
-        <v>283</v>
-      </c>
+      <c r="C525" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D525" s="18"/>
       <c r="E525" s="18"/>
       <c r="F525" s="18"/>
       <c r="G525" s="18"/>
@@ -15131,7 +15058,7 @@
       <c r="B526" s="18"/>
       <c r="C526" s="18"/>
       <c r="D526" s="18" t="s">
-        <v>37</v>
+        <v>278</v>
       </c>
       <c r="E526" s="18"/>
       <c r="F526" s="18"/>
@@ -15149,10 +15076,10 @@
     <row r="527" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B527" s="18"/>
       <c r="C527" s="18"/>
-      <c r="D527" s="18"/>
-      <c r="E527" s="18" t="s">
-        <v>278</v>
-      </c>
+      <c r="D527" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="E527" s="18"/>
       <c r="F527" s="18"/>
       <c r="G527" s="18"/>
       <c r="H527" s="18"/>
@@ -15169,9 +15096,7 @@
       <c r="B528" s="18"/>
       <c r="C528" s="18"/>
       <c r="D528" s="18"/>
-      <c r="E528" s="18" t="s">
-        <v>284</v>
-      </c>
+      <c r="E528" s="18"/>
       <c r="F528" s="18"/>
       <c r="G528" s="18"/>
       <c r="H528" s="18"/>
@@ -15187,7 +15112,9 @@
     <row r="529" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B529" s="18"/>
       <c r="C529" s="18"/>
-      <c r="D529" s="18"/>
+      <c r="D529" s="18" t="s">
+        <v>280</v>
+      </c>
       <c r="E529" s="18"/>
       <c r="F529" s="18"/>
       <c r="G529" s="18"/>
@@ -15204,10 +15131,10 @@
     <row r="530" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B530" s="18"/>
       <c r="C530" s="18"/>
-      <c r="D530" s="18"/>
-      <c r="E530" s="18" t="s">
-        <v>285</v>
-      </c>
+      <c r="D530" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="E530" s="18"/>
       <c r="F530" s="18"/>
       <c r="G530" s="18"/>
       <c r="H530" s="18"/>
@@ -15223,10 +15150,10 @@
     <row r="531" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B531" s="18"/>
       <c r="C531" s="18"/>
-      <c r="D531" s="18"/>
-      <c r="E531" s="18" t="s">
-        <v>286</v>
-      </c>
+      <c r="D531" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E531" s="18"/>
       <c r="F531" s="18"/>
       <c r="G531" s="18"/>
       <c r="H531" s="18"/>
@@ -15244,7 +15171,7 @@
       <c r="C532" s="18"/>
       <c r="D532" s="18"/>
       <c r="E532" s="18" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F532" s="18"/>
       <c r="G532" s="18"/>
@@ -15262,10 +15189,10 @@
       <c r="B533" s="18"/>
       <c r="C533" s="18"/>
       <c r="D533" s="18"/>
-      <c r="E533" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="F533" s="18"/>
+      <c r="E533" s="18"/>
+      <c r="F533" s="18" t="s">
+        <v>80</v>
+      </c>
       <c r="G533" s="18"/>
       <c r="H533" s="18"/>
       <c r="I533" s="18"/>
@@ -15282,7 +15209,7 @@
       <c r="C534" s="18"/>
       <c r="D534" s="18"/>
       <c r="E534" s="18" t="s">
-        <v>289</v>
+        <v>38</v>
       </c>
       <c r="F534" s="18"/>
       <c r="G534" s="18"/>
@@ -15299,10 +15226,10 @@
     <row r="535" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B535" s="18"/>
       <c r="C535" s="18"/>
-      <c r="D535" s="18"/>
-      <c r="E535" s="18" t="s">
-        <v>290</v>
-      </c>
+      <c r="D535" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E535" s="18"/>
       <c r="F535" s="18"/>
       <c r="G535" s="18"/>
       <c r="H535" s="18"/>
@@ -15318,7 +15245,9 @@
     <row r="536" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B536" s="18"/>
       <c r="C536" s="18"/>
-      <c r="D536" s="18"/>
+      <c r="D536" s="18" t="s">
+        <v>283</v>
+      </c>
       <c r="E536" s="18"/>
       <c r="F536" s="18"/>
       <c r="G536" s="18"/>
@@ -15335,10 +15264,10 @@
     <row r="537" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B537" s="18"/>
       <c r="C537" s="18"/>
-      <c r="D537" s="18"/>
-      <c r="E537" s="18" t="s">
-        <v>291</v>
-      </c>
+      <c r="D537" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E537" s="18"/>
       <c r="F537" s="18"/>
       <c r="G537" s="18"/>
       <c r="H537" s="18"/>
@@ -15355,7 +15284,9 @@
       <c r="B538" s="18"/>
       <c r="C538" s="18"/>
       <c r="D538" s="18"/>
-      <c r="E538" s="18"/>
+      <c r="E538" s="18" t="s">
+        <v>278</v>
+      </c>
       <c r="F538" s="18"/>
       <c r="G538" s="18"/>
       <c r="H538" s="18"/>
@@ -15373,7 +15304,7 @@
       <c r="C539" s="18"/>
       <c r="D539" s="18"/>
       <c r="E539" s="18" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="F539" s="18"/>
       <c r="G539" s="18"/>
@@ -15391,9 +15322,7 @@
       <c r="B540" s="18"/>
       <c r="C540" s="18"/>
       <c r="D540" s="18"/>
-      <c r="E540" s="18" t="s">
-        <v>293</v>
-      </c>
+      <c r="E540" s="18"/>
       <c r="F540" s="18"/>
       <c r="G540" s="18"/>
       <c r="H540" s="18"/>
@@ -15410,7 +15339,9 @@
       <c r="B541" s="18"/>
       <c r="C541" s="18"/>
       <c r="D541" s="18"/>
-      <c r="E541" s="18"/>
+      <c r="E541" s="18" t="s">
+        <v>285</v>
+      </c>
       <c r="F541" s="18"/>
       <c r="G541" s="18"/>
       <c r="H541" s="18"/>
@@ -15428,7 +15359,7 @@
       <c r="C542" s="18"/>
       <c r="D542" s="18"/>
       <c r="E542" s="18" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F542" s="18"/>
       <c r="G542" s="18"/>
@@ -15447,7 +15378,7 @@
       <c r="C543" s="18"/>
       <c r="D543" s="18"/>
       <c r="E543" s="18" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F543" s="18"/>
       <c r="G543" s="18"/>
@@ -15465,14 +15396,14 @@
       <c r="B544" s="18"/>
       <c r="C544" s="18"/>
       <c r="D544" s="18"/>
-      <c r="E544" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="F544" s="18"/>
-      <c r="G544" s="18"/>
-      <c r="H544" s="18"/>
-      <c r="I544" s="18"/>
-      <c r="J544" s="18"/>
+      <c r="E544" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="F544" s="20"/>
+      <c r="G544" s="20"/>
+      <c r="H544" s="20"/>
+      <c r="I544" s="20"/>
+      <c r="J544" s="20"/>
       <c r="K544" s="18"/>
       <c r="L544" s="18"/>
       <c r="M544" s="18"/>
@@ -15484,14 +15415,14 @@
       <c r="B545" s="18"/>
       <c r="C545" s="18"/>
       <c r="D545" s="18"/>
-      <c r="E545" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F545" s="18"/>
-      <c r="G545" s="18"/>
-      <c r="H545" s="18"/>
-      <c r="I545" s="18"/>
-      <c r="J545" s="18"/>
+      <c r="E545" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="F545" s="20"/>
+      <c r="G545" s="20"/>
+      <c r="H545" s="20"/>
+      <c r="I545" s="20"/>
+      <c r="J545" s="20"/>
       <c r="K545" s="18"/>
       <c r="L545" s="18"/>
       <c r="M545" s="18"/>
@@ -15503,10 +15434,10 @@
       <c r="B546" s="18"/>
       <c r="C546" s="18"/>
       <c r="D546" s="18"/>
-      <c r="E546" s="18"/>
-      <c r="F546" s="18" t="s">
-        <v>296</v>
-      </c>
+      <c r="E546" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="F546" s="18"/>
       <c r="G546" s="18"/>
       <c r="H546" s="18"/>
       <c r="I546" s="18"/>
@@ -15523,7 +15454,7 @@
       <c r="C547" s="18"/>
       <c r="D547" s="18"/>
       <c r="E547" s="18" t="s">
-        <v>51</v>
+        <v>289</v>
       </c>
       <c r="F547" s="18"/>
       <c r="G547" s="18"/>
@@ -15542,9 +15473,7 @@
       <c r="C548" s="18"/>
       <c r="D548" s="18"/>
       <c r="E548" s="18"/>
-      <c r="F548" s="18" t="s">
-        <v>297</v>
-      </c>
+      <c r="F548" s="18"/>
       <c r="G548" s="18"/>
       <c r="H548" s="18"/>
       <c r="I548" s="18"/>
@@ -15561,7 +15490,7 @@
       <c r="C549" s="18"/>
       <c r="D549" s="18"/>
       <c r="E549" s="18" t="s">
-        <v>38</v>
+        <v>290</v>
       </c>
       <c r="F549" s="18"/>
       <c r="G549" s="18"/>
@@ -15597,7 +15526,7 @@
       <c r="C551" s="18"/>
       <c r="D551" s="18"/>
       <c r="E551" s="18" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F551" s="18"/>
       <c r="G551" s="18"/>
@@ -15616,7 +15545,7 @@
       <c r="C552" s="18"/>
       <c r="D552" s="18"/>
       <c r="E552" s="18" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F552" s="18"/>
       <c r="G552" s="18"/>
@@ -15634,9 +15563,7 @@
       <c r="B553" s="18"/>
       <c r="C553" s="18"/>
       <c r="D553" s="18"/>
-      <c r="E553" s="18" t="s">
-        <v>300</v>
-      </c>
+      <c r="E553" s="18"/>
       <c r="F553" s="18"/>
       <c r="G553" s="18"/>
       <c r="H553" s="18"/>
@@ -15654,7 +15581,7 @@
       <c r="C554" s="18"/>
       <c r="D554" s="18"/>
       <c r="E554" s="18" t="s">
-        <v>37</v>
+        <v>293</v>
       </c>
       <c r="F554" s="18"/>
       <c r="G554" s="18"/>
@@ -15672,10 +15599,10 @@
       <c r="B555" s="18"/>
       <c r="C555" s="18"/>
       <c r="D555" s="18"/>
-      <c r="E555" s="18"/>
-      <c r="F555" s="18" t="s">
-        <v>278</v>
-      </c>
+      <c r="E555" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="F555" s="18"/>
       <c r="G555" s="18"/>
       <c r="H555" s="18"/>
       <c r="I555" s="18"/>
@@ -15691,10 +15618,10 @@
       <c r="B556" s="18"/>
       <c r="C556" s="18"/>
       <c r="D556" s="18"/>
-      <c r="E556" s="18"/>
-      <c r="F556" s="18" t="s">
-        <v>301</v>
-      </c>
+      <c r="E556" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="F556" s="18"/>
       <c r="G556" s="18"/>
       <c r="H556" s="18"/>
       <c r="I556" s="18"/>
@@ -15710,7 +15637,9 @@
       <c r="B557" s="18"/>
       <c r="C557" s="18"/>
       <c r="D557" s="18"/>
-      <c r="E557" s="18"/>
+      <c r="E557" s="18" t="s">
+        <v>37</v>
+      </c>
       <c r="F557" s="18"/>
       <c r="G557" s="18"/>
       <c r="H557" s="18"/>
@@ -15729,7 +15658,7 @@
       <c r="D558" s="18"/>
       <c r="E558" s="18"/>
       <c r="F558" s="18" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G558" s="18"/>
       <c r="H558" s="18"/>
@@ -15746,10 +15675,10 @@
       <c r="B559" s="18"/>
       <c r="C559" s="18"/>
       <c r="D559" s="18"/>
-      <c r="E559" s="18"/>
-      <c r="F559" s="18" t="s">
-        <v>303</v>
-      </c>
+      <c r="E559" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F559" s="18"/>
       <c r="G559" s="18"/>
       <c r="H559" s="18"/>
       <c r="I559" s="18"/>
@@ -15767,7 +15696,7 @@
       <c r="D560" s="18"/>
       <c r="E560" s="18"/>
       <c r="F560" s="18" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G560" s="18"/>
       <c r="H560" s="18"/>
@@ -15784,10 +15713,10 @@
       <c r="B561" s="18"/>
       <c r="C561" s="18"/>
       <c r="D561" s="18"/>
-      <c r="E561" s="18"/>
-      <c r="F561" s="18" t="s">
-        <v>305</v>
-      </c>
+      <c r="E561" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F561" s="18"/>
       <c r="G561" s="18"/>
       <c r="H561" s="18"/>
       <c r="I561" s="18"/>
@@ -15821,7 +15750,7 @@
       <c r="C563" s="18"/>
       <c r="D563" s="18"/>
       <c r="E563" s="18" t="s">
-        <v>38</v>
+        <v>297</v>
       </c>
       <c r="F563" s="18"/>
       <c r="G563" s="18"/>
@@ -15838,10 +15767,10 @@
     <row r="564" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B564" s="18"/>
       <c r="C564" s="18"/>
-      <c r="D564" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E564" s="18"/>
+      <c r="D564" s="18"/>
+      <c r="E564" s="18" t="s">
+        <v>298</v>
+      </c>
       <c r="F564" s="18"/>
       <c r="G564" s="18"/>
       <c r="H564" s="18"/>
@@ -15856,11 +15785,11 @@
     </row>
     <row r="565" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B565" s="18"/>
-      <c r="C565" s="18" t="s">
-        <v>38</v>
-      </c>
+      <c r="C565" s="18"/>
       <c r="D565" s="18"/>
-      <c r="E565" s="18"/>
+      <c r="E565" s="18" t="s">
+        <v>299</v>
+      </c>
       <c r="F565" s="18"/>
       <c r="G565" s="18"/>
       <c r="H565" s="18"/>
@@ -15877,7 +15806,9 @@
       <c r="B566" s="18"/>
       <c r="C566" s="18"/>
       <c r="D566" s="18"/>
-      <c r="E566" s="18"/>
+      <c r="E566" s="18" t="s">
+        <v>37</v>
+      </c>
       <c r="F566" s="18"/>
       <c r="G566" s="18"/>
       <c r="H566" s="18"/>
@@ -15892,12 +15823,12 @@
     </row>
     <row r="567" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B567" s="18"/>
-      <c r="C567" s="18" t="s">
-        <v>306</v>
-      </c>
+      <c r="C567" s="18"/>
       <c r="D567" s="18"/>
       <c r="E567" s="18"/>
-      <c r="F567" s="18"/>
+      <c r="F567" s="18" t="s">
+        <v>278</v>
+      </c>
       <c r="G567" s="18"/>
       <c r="H567" s="18"/>
       <c r="I567" s="18"/>
@@ -15911,12 +15842,12 @@
     </row>
     <row r="568" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B568" s="18"/>
-      <c r="C568" s="18" t="s">
-        <v>37</v>
-      </c>
+      <c r="C568" s="18"/>
       <c r="D568" s="18"/>
       <c r="E568" s="18"/>
-      <c r="F568" s="18"/>
+      <c r="F568" s="18" t="s">
+        <v>300</v>
+      </c>
       <c r="G568" s="18"/>
       <c r="H568" s="18"/>
       <c r="I568" s="18"/>
@@ -15931,9 +15862,7 @@
     <row r="569" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B569" s="18"/>
       <c r="C569" s="18"/>
-      <c r="D569" s="18" t="s">
-        <v>78</v>
-      </c>
+      <c r="D569" s="18"/>
       <c r="E569" s="18"/>
       <c r="F569" s="18"/>
       <c r="G569" s="18"/>
@@ -15951,10 +15880,10 @@
       <c r="B570" s="18"/>
       <c r="C570" s="18"/>
       <c r="D570" s="18"/>
-      <c r="E570" s="18" t="s">
-        <v>307</v>
-      </c>
-      <c r="F570" s="18"/>
+      <c r="E570" s="18"/>
+      <c r="F570" s="18" t="s">
+        <v>301</v>
+      </c>
       <c r="G570" s="18"/>
       <c r="H570" s="18"/>
       <c r="I570" s="18"/>
@@ -15970,10 +15899,10 @@
       <c r="B571" s="18"/>
       <c r="C571" s="18"/>
       <c r="D571" s="18"/>
-      <c r="E571" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="F571" s="18"/>
+      <c r="E571" s="18"/>
+      <c r="F571" s="18" t="s">
+        <v>302</v>
+      </c>
       <c r="G571" s="18"/>
       <c r="H571" s="18"/>
       <c r="I571" s="18"/>
@@ -15988,11 +15917,11 @@
     <row r="572" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B572" s="18"/>
       <c r="C572" s="18"/>
-      <c r="D572" s="18" t="s">
-        <v>81</v>
-      </c>
+      <c r="D572" s="18"/>
       <c r="E572" s="18"/>
-      <c r="F572" s="18"/>
+      <c r="F572" s="18" t="s">
+        <v>303</v>
+      </c>
       <c r="G572" s="18"/>
       <c r="H572" s="18"/>
       <c r="I572" s="18"/>
@@ -16008,10 +15937,10 @@
       <c r="B573" s="18"/>
       <c r="C573" s="18"/>
       <c r="D573" s="18"/>
-      <c r="E573" s="18" t="s">
-        <v>308</v>
-      </c>
-      <c r="F573" s="18"/>
+      <c r="E573" s="18"/>
+      <c r="F573" s="18" t="s">
+        <v>304</v>
+      </c>
       <c r="G573" s="18"/>
       <c r="H573" s="18"/>
       <c r="I573" s="18"/>
@@ -16045,7 +15974,7 @@
       <c r="C575" s="18"/>
       <c r="D575" s="18"/>
       <c r="E575" s="18" t="s">
-        <v>309</v>
+        <v>38</v>
       </c>
       <c r="F575" s="18"/>
       <c r="G575" s="18"/>
@@ -16062,10 +15991,10 @@
     <row r="576" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B576" s="18"/>
       <c r="C576" s="18"/>
-      <c r="D576" s="18"/>
-      <c r="E576" s="18" t="s">
-        <v>310</v>
-      </c>
+      <c r="D576" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E576" s="18"/>
       <c r="F576" s="18"/>
       <c r="G576" s="18"/>
       <c r="H576" s="18"/>
@@ -16080,11 +16009,11 @@
     </row>
     <row r="577" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B577" s="18"/>
-      <c r="C577" s="18"/>
+      <c r="C577" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="D577" s="18"/>
-      <c r="E577" s="18" t="s">
-        <v>37</v>
-      </c>
+      <c r="E577" s="18"/>
       <c r="F577" s="18"/>
       <c r="G577" s="18"/>
       <c r="H577" s="18"/>
@@ -16102,9 +16031,7 @@
       <c r="C578" s="18"/>
       <c r="D578" s="18"/>
       <c r="E578" s="18"/>
-      <c r="F578" s="18" t="s">
-        <v>311</v>
-      </c>
+      <c r="F578" s="18"/>
       <c r="G578" s="18"/>
       <c r="H578" s="18"/>
       <c r="I578" s="18"/>
@@ -16118,12 +16045,12 @@
     </row>
     <row r="579" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B579" s="18"/>
-      <c r="C579" s="18"/>
+      <c r="C579" s="18" t="s">
+        <v>305</v>
+      </c>
       <c r="D579" s="18"/>
       <c r="E579" s="18"/>
-      <c r="F579" s="18" t="s">
-        <v>37</v>
-      </c>
+      <c r="F579" s="18"/>
       <c r="G579" s="18"/>
       <c r="H579" s="18"/>
       <c r="I579" s="18"/>
@@ -16137,13 +16064,13 @@
     </row>
     <row r="580" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B580" s="18"/>
-      <c r="C580" s="18"/>
+      <c r="C580" s="18" t="s">
+        <v>37</v>
+      </c>
       <c r="D580" s="18"/>
       <c r="E580" s="18"/>
       <c r="F580" s="18"/>
-      <c r="G580" s="18" t="s">
-        <v>312</v>
-      </c>
+      <c r="G580" s="18"/>
       <c r="H580" s="18"/>
       <c r="I580" s="18"/>
       <c r="J580" s="18"/>
@@ -16157,12 +16084,12 @@
     <row r="581" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B581" s="18"/>
       <c r="C581" s="18"/>
-      <c r="D581" s="18"/>
+      <c r="D581" s="18" t="s">
+        <v>78</v>
+      </c>
       <c r="E581" s="18"/>
       <c r="F581" s="18"/>
-      <c r="G581" s="18" t="s">
-        <v>313</v>
-      </c>
+      <c r="G581" s="18"/>
       <c r="H581" s="18"/>
       <c r="I581" s="18"/>
       <c r="J581" s="18"/>
@@ -16177,10 +16104,10 @@
       <c r="B582" s="18"/>
       <c r="C582" s="18"/>
       <c r="D582" s="18"/>
-      <c r="E582" s="18"/>
-      <c r="F582" s="18" t="s">
-        <v>38</v>
-      </c>
+      <c r="E582" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="F582" s="18"/>
       <c r="G582" s="18"/>
       <c r="H582" s="18"/>
       <c r="I582" s="18"/>
@@ -16196,7 +16123,9 @@
       <c r="B583" s="18"/>
       <c r="C583" s="18"/>
       <c r="D583" s="18"/>
-      <c r="E583" s="18"/>
+      <c r="E583" s="18" t="s">
+        <v>80</v>
+      </c>
       <c r="F583" s="18"/>
       <c r="G583" s="18"/>
       <c r="H583" s="18"/>
@@ -16212,11 +16141,11 @@
     <row r="584" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B584" s="18"/>
       <c r="C584" s="18"/>
-      <c r="D584" s="18"/>
+      <c r="D584" s="18" t="s">
+        <v>81</v>
+      </c>
       <c r="E584" s="18"/>
-      <c r="F584" s="18" t="s">
-        <v>314</v>
-      </c>
+      <c r="F584" s="18"/>
       <c r="G584" s="18"/>
       <c r="H584" s="18"/>
       <c r="I584" s="18"/>
@@ -16232,10 +16161,10 @@
       <c r="B585" s="18"/>
       <c r="C585" s="18"/>
       <c r="D585" s="18"/>
-      <c r="E585" s="18"/>
-      <c r="F585" s="18" t="s">
-        <v>315</v>
-      </c>
+      <c r="E585" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="F585" s="18"/>
       <c r="G585" s="18"/>
       <c r="H585" s="18"/>
       <c r="I585" s="18"/>
@@ -16252,9 +16181,7 @@
       <c r="C586" s="18"/>
       <c r="D586" s="18"/>
       <c r="E586" s="18"/>
-      <c r="F586" s="18" t="s">
-        <v>316</v>
-      </c>
+      <c r="F586" s="18"/>
       <c r="G586" s="18"/>
       <c r="H586" s="18"/>
       <c r="I586" s="18"/>
@@ -16270,10 +16197,10 @@
       <c r="B587" s="18"/>
       <c r="C587" s="18"/>
       <c r="D587" s="18"/>
-      <c r="E587" s="18"/>
-      <c r="F587" s="18" t="s">
-        <v>317</v>
-      </c>
+      <c r="E587" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="F587" s="18"/>
       <c r="G587" s="18"/>
       <c r="H587" s="18"/>
       <c r="I587" s="18"/>
@@ -16289,10 +16216,10 @@
       <c r="B588" s="18"/>
       <c r="C588" s="18"/>
       <c r="D588" s="18"/>
-      <c r="E588" s="18"/>
-      <c r="F588" s="18" t="s">
-        <v>318</v>
-      </c>
+      <c r="E588" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="F588" s="18"/>
       <c r="G588" s="18"/>
       <c r="H588" s="18"/>
       <c r="I588" s="18"/>
@@ -16308,10 +16235,10 @@
       <c r="B589" s="18"/>
       <c r="C589" s="18"/>
       <c r="D589" s="18"/>
-      <c r="E589" s="18"/>
-      <c r="F589" s="18" t="s">
-        <v>319</v>
-      </c>
+      <c r="E589" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F589" s="18"/>
       <c r="G589" s="18"/>
       <c r="H589" s="18"/>
       <c r="I589" s="18"/>
@@ -16327,10 +16254,10 @@
       <c r="B590" s="18"/>
       <c r="C590" s="18"/>
       <c r="D590" s="18"/>
-      <c r="E590" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F590" s="18"/>
+      <c r="E590" s="18"/>
+      <c r="F590" s="18" t="s">
+        <v>310</v>
+      </c>
       <c r="G590" s="18"/>
       <c r="H590" s="18"/>
       <c r="I590" s="18"/>
@@ -16346,10 +16273,10 @@
       <c r="B591" s="18"/>
       <c r="C591" s="18"/>
       <c r="D591" s="18"/>
-      <c r="E591" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="F591" s="18"/>
+      <c r="E591" s="18"/>
+      <c r="F591" s="18" t="s">
+        <v>37</v>
+      </c>
       <c r="G591" s="18"/>
       <c r="H591" s="18"/>
       <c r="I591" s="18"/>
@@ -16365,11 +16292,11 @@
       <c r="B592" s="18"/>
       <c r="C592" s="18"/>
       <c r="D592" s="18"/>
-      <c r="E592" s="18" t="s">
-        <v>80</v>
-      </c>
+      <c r="E592" s="18"/>
       <c r="F592" s="18"/>
-      <c r="G592" s="18"/>
+      <c r="G592" s="18" t="s">
+        <v>311</v>
+      </c>
       <c r="H592" s="18"/>
       <c r="I592" s="18"/>
       <c r="J592" s="18"/>
@@ -16383,12 +16310,12 @@
     <row r="593" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B593" s="18"/>
       <c r="C593" s="18"/>
-      <c r="D593" s="18" t="s">
-        <v>84</v>
-      </c>
+      <c r="D593" s="18"/>
       <c r="E593" s="18"/>
       <c r="F593" s="18"/>
-      <c r="G593" s="18"/>
+      <c r="G593" s="18" t="s">
+        <v>312</v>
+      </c>
       <c r="H593" s="18"/>
       <c r="I593" s="18"/>
       <c r="J593" s="18"/>
@@ -16403,10 +16330,10 @@
       <c r="B594" s="18"/>
       <c r="C594" s="18"/>
       <c r="D594" s="18"/>
-      <c r="E594" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="F594" s="18"/>
+      <c r="E594" s="18"/>
+      <c r="F594" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="G594" s="18"/>
       <c r="H594" s="18"/>
       <c r="I594" s="18"/>
@@ -16422,9 +16349,7 @@
       <c r="B595" s="18"/>
       <c r="C595" s="18"/>
       <c r="D595" s="18"/>
-      <c r="E595" s="18" t="s">
-        <v>80</v>
-      </c>
+      <c r="E595" s="18"/>
       <c r="F595" s="18"/>
       <c r="G595" s="18"/>
       <c r="H595" s="18"/>
@@ -16442,7 +16367,9 @@
       <c r="C596" s="18"/>
       <c r="D596" s="18"/>
       <c r="E596" s="18"/>
-      <c r="F596" s="18"/>
+      <c r="F596" s="18" t="s">
+        <v>313</v>
+      </c>
       <c r="G596" s="18"/>
       <c r="H596" s="18"/>
       <c r="I596" s="18"/>
@@ -16457,11 +16384,11 @@
     <row r="597" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B597" s="18"/>
       <c r="C597" s="18"/>
-      <c r="D597" s="18" t="s">
-        <v>87</v>
-      </c>
+      <c r="D597" s="18"/>
       <c r="E597" s="18"/>
-      <c r="F597" s="18"/>
+      <c r="F597" s="18" t="s">
+        <v>314</v>
+      </c>
       <c r="G597" s="18"/>
       <c r="H597" s="18"/>
       <c r="I597" s="18"/>
@@ -16477,10 +16404,10 @@
       <c r="B598" s="18"/>
       <c r="C598" s="18"/>
       <c r="D598" s="18"/>
-      <c r="E598" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="F598" s="18"/>
+      <c r="E598" s="18"/>
+      <c r="F598" s="18" t="s">
+        <v>315</v>
+      </c>
       <c r="G598" s="18"/>
       <c r="H598" s="18"/>
       <c r="I598" s="18"/>
@@ -16496,10 +16423,10 @@
       <c r="B599" s="18"/>
       <c r="C599" s="18"/>
       <c r="D599" s="18"/>
-      <c r="E599" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="F599" s="18"/>
+      <c r="E599" s="18"/>
+      <c r="F599" s="18" t="s">
+        <v>316</v>
+      </c>
       <c r="G599" s="18"/>
       <c r="H599" s="18"/>
       <c r="I599" s="18"/>
@@ -16513,12 +16440,12 @@
     </row>
     <row r="600" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B600" s="18"/>
-      <c r="C600" s="18" t="s">
-        <v>38</v>
-      </c>
+      <c r="C600" s="18"/>
       <c r="D600" s="18"/>
       <c r="E600" s="18"/>
-      <c r="F600" s="18"/>
+      <c r="F600" s="18" t="s">
+        <v>317</v>
+      </c>
       <c r="G600" s="18"/>
       <c r="H600" s="18"/>
       <c r="I600" s="18"/>
@@ -16532,12 +16459,12 @@
     </row>
     <row r="601" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B601" s="18"/>
-      <c r="C601" s="18" t="s">
-        <v>164</v>
-      </c>
+      <c r="C601" s="18"/>
       <c r="D601" s="18"/>
       <c r="E601" s="18"/>
-      <c r="F601" s="18"/>
+      <c r="F601" s="18" t="s">
+        <v>318</v>
+      </c>
       <c r="G601" s="18"/>
       <c r="H601" s="18"/>
       <c r="I601" s="18"/>
@@ -16550,12 +16477,12 @@
       <c r="P601" s="18"/>
     </row>
     <row r="602" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B602" s="18" t="s">
-        <v>38</v>
-      </c>
+      <c r="B602" s="18"/>
       <c r="C602" s="18"/>
       <c r="D602" s="18"/>
-      <c r="E602" s="18"/>
+      <c r="E602" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="F602" s="18"/>
       <c r="G602" s="18"/>
       <c r="H602" s="18"/>
@@ -16572,7 +16499,9 @@
       <c r="B603" s="18"/>
       <c r="C603" s="18"/>
       <c r="D603" s="18"/>
-      <c r="E603" s="18"/>
+      <c r="E603" s="18" t="s">
+        <v>319</v>
+      </c>
       <c r="F603" s="18"/>
       <c r="G603" s="18"/>
       <c r="H603" s="18"/>
@@ -16589,7 +16518,9 @@
       <c r="B604" s="18"/>
       <c r="C604" s="18"/>
       <c r="D604" s="18"/>
-      <c r="E604" s="18"/>
+      <c r="E604" s="18" t="s">
+        <v>80</v>
+      </c>
       <c r="F604" s="18"/>
       <c r="G604" s="18"/>
       <c r="H604" s="18"/>
@@ -16603,11 +16534,11 @@
       <c r="P604" s="18"/>
     </row>
     <row r="605" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B605" s="18" t="s">
-        <v>323</v>
-      </c>
+      <c r="B605" s="18"/>
       <c r="C605" s="18"/>
-      <c r="D605" s="18"/>
+      <c r="D605" s="18" t="s">
+        <v>84</v>
+      </c>
       <c r="E605" s="18"/>
       <c r="F605" s="18"/>
       <c r="G605" s="18"/>
@@ -16621,10 +16552,232 @@
       <c r="O605" s="18"/>
       <c r="P605" s="18"/>
     </row>
+    <row r="606" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B606" s="18"/>
+      <c r="C606" s="18"/>
+      <c r="D606" s="18"/>
+      <c r="E606" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="F606" s="18"/>
+      <c r="G606" s="18"/>
+      <c r="H606" s="18"/>
+      <c r="I606" s="18"/>
+      <c r="J606" s="18"/>
+      <c r="K606" s="18"/>
+      <c r="L606" s="18"/>
+      <c r="M606" s="18"/>
+      <c r="N606" s="18"/>
+      <c r="O606" s="18"/>
+      <c r="P606" s="18"/>
+    </row>
+    <row r="607" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B607" s="18"/>
+      <c r="C607" s="18"/>
+      <c r="D607" s="18"/>
+      <c r="E607" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F607" s="18"/>
+      <c r="G607" s="18"/>
+      <c r="H607" s="18"/>
+      <c r="I607" s="18"/>
+      <c r="J607" s="18"/>
+      <c r="K607" s="18"/>
+      <c r="L607" s="18"/>
+      <c r="M607" s="18"/>
+      <c r="N607" s="18"/>
+      <c r="O607" s="18"/>
+      <c r="P607" s="18"/>
+    </row>
+    <row r="608" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B608" s="18"/>
+      <c r="C608" s="18"/>
+      <c r="D608" s="18"/>
+      <c r="E608" s="18"/>
+      <c r="F608" s="18"/>
+      <c r="G608" s="18"/>
+      <c r="H608" s="18"/>
+      <c r="I608" s="18"/>
+      <c r="J608" s="18"/>
+      <c r="K608" s="18"/>
+      <c r="L608" s="18"/>
+      <c r="M608" s="18"/>
+      <c r="N608" s="18"/>
+      <c r="O608" s="18"/>
+      <c r="P608" s="18"/>
+    </row>
+    <row r="609" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B609" s="18"/>
+      <c r="C609" s="18"/>
+      <c r="D609" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E609" s="18"/>
+      <c r="F609" s="18"/>
+      <c r="G609" s="18"/>
+      <c r="H609" s="18"/>
+      <c r="I609" s="18"/>
+      <c r="J609" s="18"/>
+      <c r="K609" s="18"/>
+      <c r="L609" s="18"/>
+      <c r="M609" s="18"/>
+      <c r="N609" s="18"/>
+      <c r="O609" s="18"/>
+      <c r="P609" s="18"/>
+    </row>
+    <row r="610" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B610" s="18"/>
+      <c r="C610" s="18"/>
+      <c r="D610" s="18"/>
+      <c r="E610" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="F610" s="18"/>
+      <c r="G610" s="18"/>
+      <c r="H610" s="18"/>
+      <c r="I610" s="18"/>
+      <c r="J610" s="18"/>
+      <c r="K610" s="18"/>
+      <c r="L610" s="18"/>
+      <c r="M610" s="18"/>
+      <c r="N610" s="18"/>
+      <c r="O610" s="18"/>
+      <c r="P610" s="18"/>
+    </row>
+    <row r="611" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B611" s="18"/>
+      <c r="C611" s="18"/>
+      <c r="D611" s="18"/>
+      <c r="E611" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="F611" s="18"/>
+      <c r="G611" s="18"/>
+      <c r="H611" s="18"/>
+      <c r="I611" s="18"/>
+      <c r="J611" s="18"/>
+      <c r="K611" s="18"/>
+      <c r="L611" s="18"/>
+      <c r="M611" s="18"/>
+      <c r="N611" s="18"/>
+      <c r="O611" s="18"/>
+      <c r="P611" s="18"/>
+    </row>
+    <row r="612" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B612" s="18"/>
+      <c r="C612" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D612" s="18"/>
+      <c r="E612" s="18"/>
+      <c r="F612" s="18"/>
+      <c r="G612" s="18"/>
+      <c r="H612" s="18"/>
+      <c r="I612" s="18"/>
+      <c r="J612" s="18"/>
+      <c r="K612" s="18"/>
+      <c r="L612" s="18"/>
+      <c r="M612" s="18"/>
+      <c r="N612" s="18"/>
+      <c r="O612" s="18"/>
+      <c r="P612" s="18"/>
+    </row>
+    <row r="613" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B613" s="18"/>
+      <c r="C613" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D613" s="18"/>
+      <c r="E613" s="18"/>
+      <c r="F613" s="18"/>
+      <c r="G613" s="18"/>
+      <c r="H613" s="18"/>
+      <c r="I613" s="18"/>
+      <c r="J613" s="18"/>
+      <c r="K613" s="18"/>
+      <c r="L613" s="18"/>
+      <c r="M613" s="18"/>
+      <c r="N613" s="18"/>
+      <c r="O613" s="18"/>
+      <c r="P613" s="18"/>
+    </row>
+    <row r="614" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B614" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C614" s="18"/>
+      <c r="D614" s="18"/>
+      <c r="E614" s="18"/>
+      <c r="F614" s="18"/>
+      <c r="G614" s="18"/>
+      <c r="H614" s="18"/>
+      <c r="I614" s="18"/>
+      <c r="J614" s="18"/>
+      <c r="K614" s="18"/>
+      <c r="L614" s="18"/>
+      <c r="M614" s="18"/>
+      <c r="N614" s="18"/>
+      <c r="O614" s="18"/>
+      <c r="P614" s="18"/>
+    </row>
+    <row r="615" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B615" s="18"/>
+      <c r="C615" s="18"/>
+      <c r="D615" s="18"/>
+      <c r="E615" s="18"/>
+      <c r="F615" s="18"/>
+      <c r="G615" s="18"/>
+      <c r="H615" s="18"/>
+      <c r="I615" s="18"/>
+      <c r="J615" s="18"/>
+      <c r="K615" s="18"/>
+      <c r="L615" s="18"/>
+      <c r="M615" s="18"/>
+      <c r="N615" s="18"/>
+      <c r="O615" s="18"/>
+      <c r="P615" s="18"/>
+    </row>
+    <row r="616" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B616" s="18"/>
+      <c r="C616" s="18"/>
+      <c r="D616" s="18"/>
+      <c r="E616" s="18"/>
+      <c r="F616" s="18"/>
+      <c r="G616" s="18"/>
+      <c r="H616" s="18"/>
+      <c r="I616" s="18"/>
+      <c r="J616" s="18"/>
+      <c r="K616" s="18"/>
+      <c r="L616" s="18"/>
+      <c r="M616" s="18"/>
+      <c r="N616" s="18"/>
+      <c r="O616" s="18"/>
+      <c r="P616" s="18"/>
+    </row>
+    <row r="617" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B617" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="C617" s="18"/>
+      <c r="D617" s="18"/>
+      <c r="E617" s="18"/>
+      <c r="F617" s="18"/>
+      <c r="G617" s="18"/>
+      <c r="H617" s="18"/>
+      <c r="I617" s="18"/>
+      <c r="J617" s="18"/>
+      <c r="K617" s="18"/>
+      <c r="L617" s="18"/>
+      <c r="M617" s="18"/>
+      <c r="N617" s="18"/>
+      <c r="O617" s="18"/>
+      <c r="P617" s="18"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -16657,7 +16810,7 @@
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -16672,7 +16825,7 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -16687,7 +16840,7 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -16702,7 +16855,7 @@
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -16730,7 +16883,7 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -16745,7 +16898,7 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -16816,7 +16969,7 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -16831,10 +16984,10 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>353</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>354</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
@@ -16848,7 +17001,7 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -16863,7 +17016,7 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -16878,7 +17031,7 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -16919,7 +17072,7 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -16934,7 +17087,7 @@
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
@@ -16949,7 +17102,7 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
@@ -16964,7 +17117,7 @@
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
@@ -16979,7 +17132,7 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -16994,7 +17147,7 @@
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
@@ -17009,7 +17162,7 @@
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -17078,7 +17231,7 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
@@ -17106,7 +17259,7 @@
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
@@ -17121,7 +17274,7 @@
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
@@ -17149,7 +17302,7 @@
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
